--- a/BASIC_ELECTRICAL_ENGINEERING_Attenance_FIRST_SEMESTER_2024.xlsx
+++ b/BASIC_ELECTRICAL_ENGINEERING_Attenance_FIRST_SEMESTER_2024.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19160" windowHeight="7120"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7190"/>
   </bookViews>
   <sheets>
     <sheet name="Feburary" sheetId="6" r:id="rId1"/>
@@ -1420,16 +1420,6 @@
     </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1439,32 +1429,21 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1487,14 +1466,26 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1519,6 +1510,15 @@
     </xf>
     <xf numFmtId="49" fontId="16" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1558,7 +1558,7 @@
         <xdr:cNvPr id="2" name="Picture 1" descr="C:\Users\user\Desktop\full final logo emboss.jpg">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1616,7 +1616,7 @@
         <xdr:cNvPr id="2" name="Picture 1" descr="C:\Users\user\Desktop\full final logo emboss.jpg">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{729AF3B9-A979-42F2-B73B-32BD11EBA159}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{729AF3B9-A979-42F2-B73B-32BD11EBA159}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1674,7 +1674,7 @@
         <xdr:cNvPr id="2" name="Picture 1" descr="C:\Users\user\Desktop\full final logo emboss.jpg">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{86D7EC8D-0704-4F42-935E-57EFB076D5C1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{86D7EC8D-0704-4F42-935E-57EFB076D5C1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1732,7 +1732,7 @@
         <xdr:cNvPr id="2" name="Picture 1" descr="C:\Users\user\Desktop\full final logo emboss.jpg">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4F6CBCD2-51A0-4801-B304-440794D29BDB}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F6CBCD2-51A0-4801-B304-440794D29BDB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1790,7 +1790,7 @@
         <xdr:cNvPr id="2" name="Picture 1" descr="C:\Users\user\Desktop\full final logo emboss.jpg">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{338DD727-CF14-41C0-9636-1FDE8148878E}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{338DD727-CF14-41C0-9636-1FDE8148878E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2094,8 +2094,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="B1:AI63"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A12" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A45" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="F56" sqref="F56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.09765625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -2120,246 +2120,246 @@
     <row r="1" spans="2:28" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
-      <c r="D1" s="90" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="90"/>
-      <c r="F1" s="90"/>
-      <c r="G1" s="90"/>
-      <c r="H1" s="90"/>
-      <c r="I1" s="90"/>
-      <c r="J1" s="90"/>
-      <c r="K1" s="90"/>
-      <c r="L1" s="90"/>
-      <c r="M1" s="90"/>
-      <c r="N1" s="90"/>
-      <c r="O1" s="90"/>
-      <c r="P1" s="90"/>
-      <c r="Q1" s="90"/>
-      <c r="R1" s="90"/>
-      <c r="S1" s="90"/>
-      <c r="T1" s="90"/>
-      <c r="U1" s="90"/>
-      <c r="V1" s="90"/>
-      <c r="W1" s="90"/>
-      <c r="X1" s="90"/>
-      <c r="Y1" s="90"/>
-      <c r="Z1" s="90"/>
+      <c r="D1" s="95" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="95"/>
+      <c r="F1" s="95"/>
+      <c r="G1" s="95"/>
+      <c r="H1" s="95"/>
+      <c r="I1" s="95"/>
+      <c r="J1" s="95"/>
+      <c r="K1" s="95"/>
+      <c r="L1" s="95"/>
+      <c r="M1" s="95"/>
+      <c r="N1" s="95"/>
+      <c r="O1" s="95"/>
+      <c r="P1" s="95"/>
+      <c r="Q1" s="95"/>
+      <c r="R1" s="95"/>
+      <c r="S1" s="95"/>
+      <c r="T1" s="95"/>
+      <c r="U1" s="95"/>
+      <c r="V1" s="95"/>
+      <c r="W1" s="95"/>
+      <c r="X1" s="95"/>
+      <c r="Y1" s="95"/>
+      <c r="Z1" s="95"/>
     </row>
     <row r="2" spans="2:28" ht="25.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B2" s="5"/>
       <c r="C2" s="6"/>
-      <c r="D2" s="93" t="s">
+      <c r="D2" s="89" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="93"/>
-      <c r="F2" s="93"/>
-      <c r="G2" s="93"/>
-      <c r="H2" s="93"/>
-      <c r="I2" s="93"/>
-      <c r="J2" s="93"/>
-      <c r="K2" s="93"/>
-      <c r="L2" s="93"/>
-      <c r="M2" s="93"/>
-      <c r="N2" s="93"/>
-      <c r="O2" s="93"/>
-      <c r="P2" s="93"/>
-      <c r="Q2" s="93"/>
-      <c r="R2" s="93"/>
-      <c r="S2" s="93"/>
-      <c r="T2" s="93"/>
-      <c r="U2" s="93"/>
-      <c r="V2" s="93"/>
-      <c r="W2" s="93"/>
-      <c r="X2" s="93"/>
-      <c r="Y2" s="93"/>
-      <c r="Z2" s="93"/>
+      <c r="E2" s="89"/>
+      <c r="F2" s="89"/>
+      <c r="G2" s="89"/>
+      <c r="H2" s="89"/>
+      <c r="I2" s="89"/>
+      <c r="J2" s="89"/>
+      <c r="K2" s="89"/>
+      <c r="L2" s="89"/>
+      <c r="M2" s="89"/>
+      <c r="N2" s="89"/>
+      <c r="O2" s="89"/>
+      <c r="P2" s="89"/>
+      <c r="Q2" s="89"/>
+      <c r="R2" s="89"/>
+      <c r="S2" s="89"/>
+      <c r="T2" s="89"/>
+      <c r="U2" s="89"/>
+      <c r="V2" s="89"/>
+      <c r="W2" s="89"/>
+      <c r="X2" s="89"/>
+      <c r="Y2" s="89"/>
+      <c r="Z2" s="89"/>
     </row>
     <row r="3" spans="2:28" ht="25.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="5"/>
       <c r="C3" s="6"/>
-      <c r="D3" s="88" t="s">
+      <c r="D3" s="94" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="88"/>
-      <c r="F3" s="89" t="s">
+      <c r="E3" s="94"/>
+      <c r="F3" s="90" t="s">
         <v>102</v>
       </c>
-      <c r="G3" s="89"/>
-      <c r="H3" s="89"/>
-      <c r="I3" s="89"/>
-      <c r="J3" s="89"/>
-      <c r="K3" s="89"/>
-      <c r="L3" s="89"/>
-      <c r="M3" s="89"/>
-      <c r="N3" s="89"/>
-      <c r="O3" s="89"/>
-      <c r="P3" s="89"/>
-      <c r="Q3" s="89"/>
-      <c r="R3" s="89"/>
-      <c r="S3" s="89"/>
-      <c r="T3" s="89"/>
-      <c r="U3" s="89"/>
-      <c r="V3" s="89"/>
-      <c r="W3" s="89"/>
-      <c r="X3" s="89"/>
-      <c r="Y3" s="89"/>
-      <c r="Z3" s="89"/>
+      <c r="G3" s="90"/>
+      <c r="H3" s="90"/>
+      <c r="I3" s="90"/>
+      <c r="J3" s="90"/>
+      <c r="K3" s="90"/>
+      <c r="L3" s="90"/>
+      <c r="M3" s="90"/>
+      <c r="N3" s="90"/>
+      <c r="O3" s="90"/>
+      <c r="P3" s="90"/>
+      <c r="Q3" s="90"/>
+      <c r="R3" s="90"/>
+      <c r="S3" s="90"/>
+      <c r="T3" s="90"/>
+      <c r="U3" s="90"/>
+      <c r="V3" s="90"/>
+      <c r="W3" s="90"/>
+      <c r="X3" s="90"/>
+      <c r="Y3" s="90"/>
+      <c r="Z3" s="90"/>
     </row>
     <row r="4" spans="2:28" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
-      <c r="D4" s="88" t="s">
-        <v>4</v>
-      </c>
-      <c r="E4" s="88"/>
-      <c r="F4" s="89" t="s">
+      <c r="D4" s="94" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="94"/>
+      <c r="F4" s="90" t="s">
         <v>103</v>
       </c>
-      <c r="G4" s="89"/>
-      <c r="H4" s="89"/>
-      <c r="I4" s="89"/>
-      <c r="J4" s="89"/>
-      <c r="K4" s="89"/>
-      <c r="L4" s="89"/>
-      <c r="M4" s="89"/>
-      <c r="N4" s="89"/>
-      <c r="O4" s="89"/>
-      <c r="P4" s="89"/>
-      <c r="Q4" s="89"/>
-      <c r="R4" s="89"/>
-      <c r="S4" s="89"/>
-      <c r="T4" s="89"/>
-      <c r="U4" s="89"/>
-      <c r="V4" s="89"/>
-      <c r="W4" s="89"/>
-      <c r="X4" s="89"/>
-      <c r="Y4" s="89"/>
-      <c r="Z4" s="89"/>
+      <c r="G4" s="90"/>
+      <c r="H4" s="90"/>
+      <c r="I4" s="90"/>
+      <c r="J4" s="90"/>
+      <c r="K4" s="90"/>
+      <c r="L4" s="90"/>
+      <c r="M4" s="90"/>
+      <c r="N4" s="90"/>
+      <c r="O4" s="90"/>
+      <c r="P4" s="90"/>
+      <c r="Q4" s="90"/>
+      <c r="R4" s="90"/>
+      <c r="S4" s="90"/>
+      <c r="T4" s="90"/>
+      <c r="U4" s="90"/>
+      <c r="V4" s="90"/>
+      <c r="W4" s="90"/>
+      <c r="X4" s="90"/>
+      <c r="Y4" s="90"/>
+      <c r="Z4" s="90"/>
     </row>
     <row r="5" spans="2:28" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
-      <c r="D5" s="88" t="s">
+      <c r="D5" s="94" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="88"/>
-      <c r="F5" s="94" t="s">
+      <c r="E5" s="94"/>
+      <c r="F5" s="91" t="s">
         <v>110</v>
       </c>
-      <c r="G5" s="94"/>
-      <c r="H5" s="94"/>
-      <c r="I5" s="94"/>
-      <c r="J5" s="94"/>
-      <c r="K5" s="94"/>
-      <c r="L5" s="94"/>
-      <c r="M5" s="94"/>
-      <c r="N5" s="94"/>
-      <c r="O5" s="94"/>
-      <c r="P5" s="94"/>
-      <c r="Q5" s="94"/>
-      <c r="R5" s="94"/>
-      <c r="S5" s="94"/>
-      <c r="T5" s="94"/>
-      <c r="U5" s="94"/>
-      <c r="V5" s="94"/>
-      <c r="W5" s="94"/>
-      <c r="X5" s="94"/>
-      <c r="Y5" s="94"/>
-      <c r="Z5" s="94"/>
+      <c r="G5" s="91"/>
+      <c r="H5" s="91"/>
+      <c r="I5" s="91"/>
+      <c r="J5" s="91"/>
+      <c r="K5" s="91"/>
+      <c r="L5" s="91"/>
+      <c r="M5" s="91"/>
+      <c r="N5" s="91"/>
+      <c r="O5" s="91"/>
+      <c r="P5" s="91"/>
+      <c r="Q5" s="91"/>
+      <c r="R5" s="91"/>
+      <c r="S5" s="91"/>
+      <c r="T5" s="91"/>
+      <c r="U5" s="91"/>
+      <c r="V5" s="91"/>
+      <c r="W5" s="91"/>
+      <c r="X5" s="91"/>
+      <c r="Y5" s="91"/>
+      <c r="Z5" s="91"/>
     </row>
     <row r="6" spans="2:28" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
-      <c r="D6" s="88" t="s">
+      <c r="D6" s="94" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="88"/>
-      <c r="F6" s="89" t="s">
+      <c r="E6" s="94"/>
+      <c r="F6" s="90" t="s">
         <v>104</v>
       </c>
-      <c r="G6" s="89"/>
-      <c r="H6" s="89"/>
-      <c r="I6" s="89"/>
-      <c r="J6" s="89"/>
-      <c r="K6" s="89"/>
-      <c r="L6" s="89"/>
-      <c r="M6" s="89"/>
-      <c r="N6" s="89"/>
-      <c r="O6" s="89"/>
-      <c r="P6" s="89"/>
-      <c r="Q6" s="89"/>
-      <c r="R6" s="89"/>
-      <c r="S6" s="89"/>
-      <c r="T6" s="89"/>
-      <c r="U6" s="89"/>
-      <c r="V6" s="89"/>
-      <c r="W6" s="89"/>
-      <c r="X6" s="89"/>
-      <c r="Y6" s="89"/>
-      <c r="Z6" s="89"/>
+      <c r="G6" s="90"/>
+      <c r="H6" s="90"/>
+      <c r="I6" s="90"/>
+      <c r="J6" s="90"/>
+      <c r="K6" s="90"/>
+      <c r="L6" s="90"/>
+      <c r="M6" s="90"/>
+      <c r="N6" s="90"/>
+      <c r="O6" s="90"/>
+      <c r="P6" s="90"/>
+      <c r="Q6" s="90"/>
+      <c r="R6" s="90"/>
+      <c r="S6" s="90"/>
+      <c r="T6" s="90"/>
+      <c r="U6" s="90"/>
+      <c r="V6" s="90"/>
+      <c r="W6" s="90"/>
+      <c r="X6" s="90"/>
+      <c r="Y6" s="90"/>
+      <c r="Z6" s="90"/>
     </row>
     <row r="7" spans="2:28" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
-      <c r="D7" s="88" t="s">
+      <c r="D7" s="94" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="88"/>
-      <c r="F7" s="89" t="s">
+      <c r="E7" s="94"/>
+      <c r="F7" s="90" t="s">
         <v>105</v>
       </c>
-      <c r="G7" s="89"/>
-      <c r="H7" s="89"/>
-      <c r="I7" s="89"/>
-      <c r="J7" s="89"/>
-      <c r="K7" s="89"/>
-      <c r="L7" s="89"/>
-      <c r="M7" s="89"/>
-      <c r="N7" s="89"/>
-      <c r="O7" s="89"/>
-      <c r="P7" s="89"/>
-      <c r="Q7" s="89"/>
-      <c r="R7" s="89"/>
-      <c r="S7" s="89"/>
-      <c r="T7" s="89"/>
-      <c r="U7" s="89"/>
-      <c r="V7" s="89"/>
-      <c r="W7" s="89"/>
-      <c r="X7" s="89"/>
-      <c r="Y7" s="89"/>
-      <c r="Z7" s="89"/>
+      <c r="G7" s="90"/>
+      <c r="H7" s="90"/>
+      <c r="I7" s="90"/>
+      <c r="J7" s="90"/>
+      <c r="K7" s="90"/>
+      <c r="L7" s="90"/>
+      <c r="M7" s="90"/>
+      <c r="N7" s="90"/>
+      <c r="O7" s="90"/>
+      <c r="P7" s="90"/>
+      <c r="Q7" s="90"/>
+      <c r="R7" s="90"/>
+      <c r="S7" s="90"/>
+      <c r="T7" s="90"/>
+      <c r="U7" s="90"/>
+      <c r="V7" s="90"/>
+      <c r="W7" s="90"/>
+      <c r="X7" s="90"/>
+      <c r="Y7" s="90"/>
+      <c r="Z7" s="90"/>
     </row>
     <row r="8" spans="2:28" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
-      <c r="D8" s="88" t="s">
+      <c r="D8" s="94" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="88"/>
-      <c r="F8" s="95" t="s">
+      <c r="E8" s="94"/>
+      <c r="F8" s="92" t="s">
         <v>106</v>
       </c>
-      <c r="G8" s="95"/>
-      <c r="H8" s="95"/>
-      <c r="I8" s="95"/>
-      <c r="J8" s="95"/>
-      <c r="K8" s="95"/>
-      <c r="L8" s="95"/>
-      <c r="M8" s="95"/>
-      <c r="N8" s="95"/>
-      <c r="O8" s="95"/>
-      <c r="P8" s="95"/>
-      <c r="Q8" s="95"/>
-      <c r="R8" s="95"/>
-      <c r="S8" s="95"/>
-      <c r="T8" s="95"/>
-      <c r="U8" s="95"/>
-      <c r="V8" s="95"/>
-      <c r="W8" s="95"/>
-      <c r="X8" s="95"/>
-      <c r="Y8" s="95"/>
-      <c r="Z8" s="95"/>
+      <c r="G8" s="92"/>
+      <c r="H8" s="92"/>
+      <c r="I8" s="92"/>
+      <c r="J8" s="92"/>
+      <c r="K8" s="92"/>
+      <c r="L8" s="92"/>
+      <c r="M8" s="92"/>
+      <c r="N8" s="92"/>
+      <c r="O8" s="92"/>
+      <c r="P8" s="92"/>
+      <c r="Q8" s="92"/>
+      <c r="R8" s="92"/>
+      <c r="S8" s="92"/>
+      <c r="T8" s="92"/>
+      <c r="U8" s="92"/>
+      <c r="V8" s="92"/>
+      <c r="W8" s="92"/>
+      <c r="X8" s="92"/>
+      <c r="Y8" s="92"/>
+      <c r="Z8" s="92"/>
     </row>
     <row r="9" spans="2:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B9" s="1"/>
@@ -2389,10 +2389,10 @@
       <c r="Z9" s="1"/>
     </row>
     <row r="10" spans="2:28" ht="48" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="91" t="s">
+      <c r="B10" s="87" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="91" t="s">
+      <c r="C10" s="87" t="s">
         <v>2</v>
       </c>
       <c r="D10" s="22" t="s">
@@ -2424,16 +2424,16 @@
       <c r="X10" s="22"/>
       <c r="Y10" s="22"/>
       <c r="Z10" s="22"/>
-      <c r="AA10" s="92" t="s">
+      <c r="AA10" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="AB10" s="92" t="s">
+      <c r="AB10" s="88" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="11" spans="2:28" ht="36.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="91"/>
-      <c r="C11" s="91"/>
+      <c r="B11" s="87"/>
+      <c r="C11" s="87"/>
       <c r="D11" s="22" t="s">
         <v>13</v>
       </c>
@@ -2463,12 +2463,12 @@
       <c r="X11" s="25"/>
       <c r="Y11" s="25"/>
       <c r="Z11" s="25"/>
-      <c r="AA11" s="92"/>
-      <c r="AB11" s="92"/>
+      <c r="AA11" s="88"/>
+      <c r="AB11" s="88"/>
     </row>
     <row r="12" spans="2:28" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="91"/>
-      <c r="C12" s="91"/>
+      <c r="B12" s="87"/>
+      <c r="C12" s="87"/>
       <c r="D12" s="22" t="s">
         <v>10</v>
       </c>
@@ -2515,35 +2515,35 @@
       </c>
     </row>
     <row r="13" spans="2:28" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="91"/>
-      <c r="C13" s="91"/>
+      <c r="B13" s="87"/>
+      <c r="C13" s="87"/>
       <c r="D13" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="E13" s="91"/>
-      <c r="F13" s="91"/>
-      <c r="G13" s="91"/>
-      <c r="H13" s="91"/>
-      <c r="I13" s="91"/>
-      <c r="J13" s="91"/>
-      <c r="K13" s="91"/>
-      <c r="L13" s="91"/>
-      <c r="M13" s="91"/>
-      <c r="N13" s="91"/>
-      <c r="O13" s="91"/>
-      <c r="P13" s="91"/>
-      <c r="Q13" s="91"/>
-      <c r="R13" s="91"/>
-      <c r="S13" s="91"/>
-      <c r="T13" s="91"/>
-      <c r="U13" s="91"/>
-      <c r="V13" s="91"/>
-      <c r="W13" s="91"/>
-      <c r="X13" s="91"/>
-      <c r="Y13" s="91"/>
-      <c r="Z13" s="91"/>
-      <c r="AA13" s="91"/>
-      <c r="AB13" s="91"/>
+      <c r="E13" s="87"/>
+      <c r="F13" s="87"/>
+      <c r="G13" s="87"/>
+      <c r="H13" s="87"/>
+      <c r="I13" s="87"/>
+      <c r="J13" s="87"/>
+      <c r="K13" s="87"/>
+      <c r="L13" s="87"/>
+      <c r="M13" s="87"/>
+      <c r="N13" s="87"/>
+      <c r="O13" s="87"/>
+      <c r="P13" s="87"/>
+      <c r="Q13" s="87"/>
+      <c r="R13" s="87"/>
+      <c r="S13" s="87"/>
+      <c r="T13" s="87"/>
+      <c r="U13" s="87"/>
+      <c r="V13" s="87"/>
+      <c r="W13" s="87"/>
+      <c r="X13" s="87"/>
+      <c r="Y13" s="87"/>
+      <c r="Z13" s="87"/>
+      <c r="AA13" s="87"/>
+      <c r="AB13" s="87"/>
     </row>
     <row r="14" spans="2:28" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B14" s="30">
@@ -2994,10 +2994,10 @@
         <v>127</v>
       </c>
       <c r="E24" s="9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F24" s="9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G24" s="13"/>
       <c r="H24" s="67"/>
@@ -3021,11 +3021,11 @@
       <c r="Z24" s="13"/>
       <c r="AA24" s="74">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AB24" s="68">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>33.333333333333329</v>
       </c>
     </row>
     <row r="25" spans="2:28" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
@@ -3792,10 +3792,10 @@
         <v>137</v>
       </c>
       <c r="E42" s="9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F42" s="9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G42" s="13"/>
       <c r="H42" s="67"/>
@@ -3819,11 +3819,11 @@
       <c r="Z42" s="13"/>
       <c r="AA42" s="74">
         <f t="shared" ref="AA42:AA44" si="2">SUM(E42:Z42)</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AB42" s="68">
         <f t="shared" ref="AB42:AB44" si="3">(AA42/$AA$12)*100</f>
-        <v>0</v>
+        <v>33.333333333333329</v>
       </c>
     </row>
     <row r="43" spans="2:28" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
@@ -4232,10 +4232,10 @@
         <v>144</v>
       </c>
       <c r="E52" s="9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F52" s="9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G52" s="13"/>
       <c r="H52" s="67"/>
@@ -4259,11 +4259,11 @@
       <c r="Z52" s="13"/>
       <c r="AA52" s="74">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AB52" s="68">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>33.333333333333329</v>
       </c>
     </row>
     <row r="53" spans="2:35" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
@@ -4493,26 +4493,26 @@
       <c r="F59" s="79"/>
       <c r="G59" s="70"/>
       <c r="H59" s="79"/>
-      <c r="I59" s="87" t="s">
+      <c r="I59" s="93" t="s">
         <v>23</v>
       </c>
-      <c r="J59" s="87"/>
-      <c r="K59" s="87"/>
-      <c r="L59" s="87"/>
-      <c r="M59" s="87"/>
-      <c r="N59" s="87"/>
-      <c r="O59" s="87"/>
-      <c r="P59" s="87"/>
-      <c r="Q59" s="87"/>
-      <c r="R59" s="87"/>
-      <c r="S59" s="87"/>
-      <c r="T59" s="87"/>
-      <c r="U59" s="87"/>
-      <c r="V59" s="87"/>
-      <c r="W59" s="87"/>
-      <c r="X59" s="87"/>
-      <c r="Y59" s="87"/>
-      <c r="Z59" s="87"/>
+      <c r="J59" s="93"/>
+      <c r="K59" s="93"/>
+      <c r="L59" s="93"/>
+      <c r="M59" s="93"/>
+      <c r="N59" s="93"/>
+      <c r="O59" s="93"/>
+      <c r="P59" s="93"/>
+      <c r="Q59" s="93"/>
+      <c r="R59" s="93"/>
+      <c r="S59" s="93"/>
+      <c r="T59" s="93"/>
+      <c r="U59" s="93"/>
+      <c r="V59" s="93"/>
+      <c r="W59" s="93"/>
+      <c r="X59" s="93"/>
+      <c r="Y59" s="93"/>
+      <c r="Z59" s="93"/>
     </row>
     <row r="60" spans="2:35" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B60" s="76"/>
@@ -4606,6 +4606,15 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="I59:Z59"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:Z3"/>
+    <mergeCell ref="D1:Z1"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="D7:E7"/>
     <mergeCell ref="B10:B13"/>
     <mergeCell ref="C10:C13"/>
     <mergeCell ref="E13:AB13"/>
@@ -4617,15 +4626,6 @@
     <mergeCell ref="F6:Z6"/>
     <mergeCell ref="F8:Z8"/>
     <mergeCell ref="AA10:AA11"/>
-    <mergeCell ref="I59:Z59"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="F3:Z3"/>
-    <mergeCell ref="D1:Z1"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="D7:E7"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Linked Value" error="Entering data in this cell may cause error. " promptTitle="Linked Value" prompt="This cell is linked with Mid Term Award, kindly do changes in Mid Term award only, that will reflect here automatically" sqref="C60:E63">
@@ -4668,46 +4668,46 @@
     <row r="1" spans="1:30" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
-      <c r="C1" s="90" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="90"/>
-      <c r="E1" s="90"/>
-      <c r="F1" s="90"/>
-      <c r="G1" s="90"/>
-      <c r="H1" s="90"/>
-      <c r="I1" s="90"/>
-      <c r="J1" s="90"/>
-      <c r="K1" s="90"/>
-      <c r="L1" s="90"/>
-      <c r="M1" s="90"/>
-      <c r="N1" s="90"/>
+      <c r="C1" s="95" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="95"/>
+      <c r="E1" s="95"/>
+      <c r="F1" s="95"/>
+      <c r="G1" s="95"/>
+      <c r="H1" s="95"/>
+      <c r="I1" s="95"/>
+      <c r="J1" s="95"/>
+      <c r="K1" s="95"/>
+      <c r="L1" s="95"/>
+      <c r="M1" s="95"/>
+      <c r="N1" s="95"/>
     </row>
     <row r="2" spans="1:30" ht="25.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="5"/>
       <c r="B2" s="6"/>
-      <c r="C2" s="93" t="s">
+      <c r="C2" s="89" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="93"/>
-      <c r="E2" s="93"/>
-      <c r="F2" s="93"/>
-      <c r="G2" s="93"/>
-      <c r="H2" s="93"/>
-      <c r="I2" s="93"/>
-      <c r="J2" s="93"/>
-      <c r="K2" s="93"/>
-      <c r="L2" s="93"/>
-      <c r="M2" s="93"/>
-      <c r="N2" s="93"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="89"/>
+      <c r="F2" s="89"/>
+      <c r="G2" s="89"/>
+      <c r="H2" s="89"/>
+      <c r="I2" s="89"/>
+      <c r="J2" s="89"/>
+      <c r="K2" s="89"/>
+      <c r="L2" s="89"/>
+      <c r="M2" s="89"/>
+      <c r="N2" s="89"/>
     </row>
     <row r="3" spans="1:30" ht="25.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5"/>
       <c r="B3" s="6"/>
-      <c r="C3" s="88" t="s">
+      <c r="C3" s="94" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="88"/>
+      <c r="D3" s="94"/>
       <c r="E3" s="41" t="s">
         <v>29</v>
       </c>
@@ -4740,22 +4740,22 @@
     <row r="4" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
-      <c r="C4" s="88" t="s">
+      <c r="C4" s="94" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="88"/>
-      <c r="E4" s="89" t="s">
+      <c r="D4" s="94"/>
+      <c r="E4" s="90" t="s">
         <v>27</v>
       </c>
-      <c r="F4" s="89"/>
-      <c r="G4" s="89"/>
-      <c r="H4" s="89"/>
-      <c r="I4" s="89"/>
-      <c r="J4" s="89"/>
-      <c r="K4" s="89"/>
-      <c r="L4" s="89"/>
-      <c r="M4" s="89"/>
-      <c r="N4" s="89"/>
+      <c r="F4" s="90"/>
+      <c r="G4" s="90"/>
+      <c r="H4" s="90"/>
+      <c r="I4" s="90"/>
+      <c r="J4" s="90"/>
+      <c r="K4" s="90"/>
+      <c r="L4" s="90"/>
+      <c r="M4" s="90"/>
+      <c r="N4" s="90"/>
       <c r="O4" s="41"/>
       <c r="P4" s="41"/>
       <c r="Q4" s="41"/>
@@ -4776,22 +4776,22 @@
     <row r="5" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
-      <c r="C5" s="88" t="s">
+      <c r="C5" s="94" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="88"/>
-      <c r="E5" s="94" t="s">
+      <c r="D5" s="94"/>
+      <c r="E5" s="91" t="s">
         <v>88</v>
       </c>
-      <c r="F5" s="94"/>
-      <c r="G5" s="94"/>
-      <c r="H5" s="94"/>
-      <c r="I5" s="94"/>
-      <c r="J5" s="94"/>
-      <c r="K5" s="94"/>
-      <c r="L5" s="94"/>
-      <c r="M5" s="94"/>
-      <c r="N5" s="94"/>
+      <c r="F5" s="91"/>
+      <c r="G5" s="91"/>
+      <c r="H5" s="91"/>
+      <c r="I5" s="91"/>
+      <c r="J5" s="91"/>
+      <c r="K5" s="91"/>
+      <c r="L5" s="91"/>
+      <c r="M5" s="91"/>
+      <c r="N5" s="91"/>
       <c r="O5" s="42"/>
       <c r="P5" s="42"/>
       <c r="Q5" s="42"/>
@@ -4812,62 +4812,62 @@
     <row r="6" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
-      <c r="C6" s="88" t="s">
+      <c r="C6" s="94" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="88"/>
-      <c r="E6" s="89" t="s">
+      <c r="D6" s="94"/>
+      <c r="E6" s="90" t="s">
         <v>95</v>
       </c>
-      <c r="F6" s="89"/>
-      <c r="G6" s="89"/>
-      <c r="H6" s="89"/>
-      <c r="I6" s="89"/>
-      <c r="J6" s="89"/>
-      <c r="K6" s="89"/>
-      <c r="L6" s="89"/>
-      <c r="M6" s="89"/>
-      <c r="N6" s="89"/>
+      <c r="F6" s="90"/>
+      <c r="G6" s="90"/>
+      <c r="H6" s="90"/>
+      <c r="I6" s="90"/>
+      <c r="J6" s="90"/>
+      <c r="K6" s="90"/>
+      <c r="L6" s="90"/>
+      <c r="M6" s="90"/>
+      <c r="N6" s="90"/>
     </row>
     <row r="7" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
-      <c r="C7" s="88" t="s">
+      <c r="C7" s="94" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="88"/>
-      <c r="E7" s="89" t="s">
+      <c r="D7" s="94"/>
+      <c r="E7" s="90" t="s">
         <v>92</v>
       </c>
-      <c r="F7" s="89"/>
-      <c r="G7" s="89"/>
-      <c r="H7" s="89"/>
-      <c r="I7" s="89"/>
-      <c r="J7" s="89"/>
-      <c r="K7" s="89"/>
-      <c r="L7" s="89"/>
-      <c r="M7" s="89"/>
-      <c r="N7" s="89"/>
+      <c r="F7" s="90"/>
+      <c r="G7" s="90"/>
+      <c r="H7" s="90"/>
+      <c r="I7" s="90"/>
+      <c r="J7" s="90"/>
+      <c r="K7" s="90"/>
+      <c r="L7" s="90"/>
+      <c r="M7" s="90"/>
+      <c r="N7" s="90"/>
     </row>
     <row r="8" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
-      <c r="C8" s="88" t="s">
+      <c r="C8" s="94" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="88"/>
-      <c r="E8" s="95" t="s">
+      <c r="D8" s="94"/>
+      <c r="E8" s="92" t="s">
         <v>96</v>
       </c>
-      <c r="F8" s="95"/>
-      <c r="G8" s="95"/>
-      <c r="H8" s="95"/>
-      <c r="I8" s="95"/>
-      <c r="J8" s="95"/>
-      <c r="K8" s="95"/>
-      <c r="L8" s="95"/>
-      <c r="M8" s="95"/>
-      <c r="N8" s="95"/>
+      <c r="F8" s="92"/>
+      <c r="G8" s="92"/>
+      <c r="H8" s="92"/>
+      <c r="I8" s="92"/>
+      <c r="J8" s="92"/>
+      <c r="K8" s="92"/>
+      <c r="L8" s="92"/>
+      <c r="M8" s="92"/>
+      <c r="N8" s="92"/>
     </row>
     <row r="9" spans="1:30" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="1"/>
@@ -4886,10 +4886,10 @@
       <c r="N9" s="1"/>
     </row>
     <row r="10" spans="1:30" ht="48" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="97" t="s">
+      <c r="A10" s="104" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="100" t="s">
+      <c r="B10" s="107" t="s">
         <v>3</v>
       </c>
       <c r="C10" s="22" t="s">
@@ -4910,16 +4910,16 @@
       <c r="L10" s="22"/>
       <c r="M10" s="22"/>
       <c r="N10" s="22"/>
-      <c r="O10" s="103" t="s">
+      <c r="O10" s="96" t="s">
         <v>9</v>
       </c>
-      <c r="P10" s="105" t="s">
+      <c r="P10" s="98" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:30" ht="36.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="98"/>
-      <c r="B11" s="101"/>
+      <c r="A11" s="105"/>
+      <c r="B11" s="108"/>
       <c r="C11" s="22" t="s">
         <v>13</v>
       </c>
@@ -4938,12 +4938,12 @@
       <c r="L11" s="32"/>
       <c r="M11" s="32"/>
       <c r="N11" s="25"/>
-      <c r="O11" s="104"/>
-      <c r="P11" s="106"/>
+      <c r="O11" s="97"/>
+      <c r="P11" s="99"/>
     </row>
     <row r="12" spans="1:30" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="98"/>
-      <c r="B12" s="101"/>
+      <c r="A12" s="105"/>
+      <c r="B12" s="108"/>
       <c r="C12" s="24" t="s">
         <v>10</v>
       </c>
@@ -4971,24 +4971,24 @@
       </c>
     </row>
     <row r="13" spans="1:30" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="99"/>
-      <c r="B13" s="102"/>
+      <c r="A13" s="106"/>
+      <c r="B13" s="109"/>
       <c r="C13" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="D13" s="107"/>
-      <c r="E13" s="108"/>
-      <c r="F13" s="108"/>
-      <c r="G13" s="108"/>
-      <c r="H13" s="108"/>
-      <c r="I13" s="108"/>
-      <c r="J13" s="108"/>
-      <c r="K13" s="108"/>
-      <c r="L13" s="108"/>
-      <c r="M13" s="108"/>
-      <c r="N13" s="108"/>
-      <c r="O13" s="108"/>
-      <c r="P13" s="109"/>
+      <c r="D13" s="100"/>
+      <c r="E13" s="101"/>
+      <c r="F13" s="101"/>
+      <c r="G13" s="101"/>
+      <c r="H13" s="101"/>
+      <c r="I13" s="101"/>
+      <c r="J13" s="101"/>
+      <c r="K13" s="101"/>
+      <c r="L13" s="101"/>
+      <c r="M13" s="101"/>
+      <c r="N13" s="101"/>
+      <c r="O13" s="101"/>
+      <c r="P13" s="102"/>
     </row>
     <row r="14" spans="1:30" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A14" s="30">
@@ -5956,21 +5956,21 @@
       <c r="N42" s="10"/>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="C43" s="96" t="s">
+      <c r="C43" s="103" t="s">
         <v>14</v>
       </c>
-      <c r="D43" s="96"/>
+      <c r="D43" s="103"/>
       <c r="F43" s="3"/>
       <c r="G43" s="3"/>
-      <c r="H43" s="96" t="s">
+      <c r="H43" s="103" t="s">
         <v>15</v>
       </c>
-      <c r="I43" s="96"/>
-      <c r="J43" s="96"/>
-      <c r="K43" s="96"/>
-      <c r="L43" s="96"/>
-      <c r="M43" s="96"/>
-      <c r="N43" s="96"/>
+      <c r="I43" s="103"/>
+      <c r="J43" s="103"/>
+      <c r="K43" s="103"/>
+      <c r="L43" s="103"/>
+      <c r="M43" s="103"/>
+      <c r="N43" s="103"/>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.35">
       <c r="F44" s="3"/>
@@ -5990,11 +5990,12 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="C1:N1"/>
-    <mergeCell ref="C2:N2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:N4"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="H43:N43"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:N8"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="B10:B13"/>
     <mergeCell ref="O10:O11"/>
     <mergeCell ref="P10:P11"/>
     <mergeCell ref="D13:P13"/>
@@ -6004,12 +6005,11 @@
     <mergeCell ref="E6:N6"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="E7:N7"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="H43:N43"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:N8"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="C1:N1"/>
+    <mergeCell ref="C2:N2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:N4"/>
   </mergeCells>
   <pageMargins left="0.59055118110236204" right="0" top="0" bottom="0.98425196850393704" header="0.59055118110236204" footer="0.39370078740157499"/>
   <pageSetup paperSize="9" scale="90" orientation="portrait" r:id="rId1"/>
@@ -6051,62 +6051,62 @@
     <row r="1" spans="1:37" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
-      <c r="C1" s="90" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="90"/>
-      <c r="E1" s="90"/>
-      <c r="F1" s="90"/>
-      <c r="G1" s="90"/>
-      <c r="H1" s="90"/>
-      <c r="I1" s="90"/>
-      <c r="J1" s="90"/>
-      <c r="K1" s="90"/>
-      <c r="L1" s="90"/>
-      <c r="M1" s="90"/>
-      <c r="N1" s="90"/>
-      <c r="O1" s="90"/>
-      <c r="P1" s="90"/>
-      <c r="Q1" s="90"/>
-      <c r="R1" s="90"/>
-      <c r="S1" s="90"/>
-      <c r="T1" s="90"/>
-      <c r="U1" s="90"/>
-      <c r="V1" s="90"/>
+      <c r="C1" s="95" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="95"/>
+      <c r="E1" s="95"/>
+      <c r="F1" s="95"/>
+      <c r="G1" s="95"/>
+      <c r="H1" s="95"/>
+      <c r="I1" s="95"/>
+      <c r="J1" s="95"/>
+      <c r="K1" s="95"/>
+      <c r="L1" s="95"/>
+      <c r="M1" s="95"/>
+      <c r="N1" s="95"/>
+      <c r="O1" s="95"/>
+      <c r="P1" s="95"/>
+      <c r="Q1" s="95"/>
+      <c r="R1" s="95"/>
+      <c r="S1" s="95"/>
+      <c r="T1" s="95"/>
+      <c r="U1" s="95"/>
+      <c r="V1" s="95"/>
     </row>
     <row r="2" spans="1:37" ht="25.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="5"/>
       <c r="B2" s="6"/>
-      <c r="C2" s="93" t="s">
+      <c r="C2" s="89" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="93"/>
-      <c r="E2" s="93"/>
-      <c r="F2" s="93"/>
-      <c r="G2" s="93"/>
-      <c r="H2" s="93"/>
-      <c r="I2" s="93"/>
-      <c r="J2" s="93"/>
-      <c r="K2" s="93"/>
-      <c r="L2" s="93"/>
-      <c r="M2" s="93"/>
-      <c r="N2" s="93"/>
-      <c r="O2" s="93"/>
-      <c r="P2" s="93"/>
-      <c r="Q2" s="93"/>
-      <c r="R2" s="93"/>
-      <c r="S2" s="93"/>
-      <c r="T2" s="93"/>
-      <c r="U2" s="93"/>
-      <c r="V2" s="93"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="89"/>
+      <c r="F2" s="89"/>
+      <c r="G2" s="89"/>
+      <c r="H2" s="89"/>
+      <c r="I2" s="89"/>
+      <c r="J2" s="89"/>
+      <c r="K2" s="89"/>
+      <c r="L2" s="89"/>
+      <c r="M2" s="89"/>
+      <c r="N2" s="89"/>
+      <c r="O2" s="89"/>
+      <c r="P2" s="89"/>
+      <c r="Q2" s="89"/>
+      <c r="R2" s="89"/>
+      <c r="S2" s="89"/>
+      <c r="T2" s="89"/>
+      <c r="U2" s="89"/>
+      <c r="V2" s="89"/>
     </row>
     <row r="3" spans="1:37" ht="25.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="38"/>
       <c r="B3" s="6"/>
-      <c r="C3" s="88" t="s">
+      <c r="C3" s="94" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="88"/>
+      <c r="D3" s="94"/>
       <c r="E3" s="56"/>
       <c r="F3" s="41" t="s">
         <v>29</v>
@@ -6146,30 +6146,30 @@
     <row r="4" spans="1:37" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="37"/>
       <c r="B4" s="37"/>
-      <c r="C4" s="88" t="s">
+      <c r="C4" s="94" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="88"/>
+      <c r="D4" s="94"/>
       <c r="E4" s="56"/>
-      <c r="F4" s="89" t="s">
+      <c r="F4" s="90" t="s">
         <v>27</v>
       </c>
-      <c r="G4" s="89"/>
-      <c r="H4" s="89"/>
-      <c r="I4" s="89"/>
-      <c r="J4" s="89"/>
-      <c r="K4" s="89"/>
-      <c r="L4" s="89"/>
-      <c r="M4" s="89"/>
-      <c r="N4" s="89"/>
-      <c r="O4" s="89"/>
-      <c r="P4" s="89"/>
-      <c r="Q4" s="89"/>
-      <c r="R4" s="89"/>
-      <c r="S4" s="89"/>
-      <c r="T4" s="89"/>
-      <c r="U4" s="89"/>
-      <c r="V4" s="89"/>
+      <c r="G4" s="90"/>
+      <c r="H4" s="90"/>
+      <c r="I4" s="90"/>
+      <c r="J4" s="90"/>
+      <c r="K4" s="90"/>
+      <c r="L4" s="90"/>
+      <c r="M4" s="90"/>
+      <c r="N4" s="90"/>
+      <c r="O4" s="90"/>
+      <c r="P4" s="90"/>
+      <c r="Q4" s="90"/>
+      <c r="R4" s="90"/>
+      <c r="S4" s="90"/>
+      <c r="T4" s="90"/>
+      <c r="U4" s="90"/>
+      <c r="V4" s="90"/>
       <c r="W4" s="41"/>
       <c r="X4" s="41"/>
       <c r="Y4" s="41"/>
@@ -6189,30 +6189,30 @@
     <row r="5" spans="1:37" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="37"/>
       <c r="B5" s="37"/>
-      <c r="C5" s="88" t="s">
+      <c r="C5" s="94" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="88"/>
+      <c r="D5" s="94"/>
       <c r="E5" s="56"/>
-      <c r="F5" s="94" t="s">
+      <c r="F5" s="91" t="s">
         <v>28</v>
       </c>
-      <c r="G5" s="94"/>
-      <c r="H5" s="94"/>
-      <c r="I5" s="94"/>
-      <c r="J5" s="94"/>
-      <c r="K5" s="94"/>
-      <c r="L5" s="94"/>
-      <c r="M5" s="94"/>
-      <c r="N5" s="94"/>
-      <c r="O5" s="94"/>
-      <c r="P5" s="94"/>
-      <c r="Q5" s="94"/>
-      <c r="R5" s="94"/>
-      <c r="S5" s="94"/>
-      <c r="T5" s="94"/>
-      <c r="U5" s="94"/>
-      <c r="V5" s="94"/>
+      <c r="G5" s="91"/>
+      <c r="H5" s="91"/>
+      <c r="I5" s="91"/>
+      <c r="J5" s="91"/>
+      <c r="K5" s="91"/>
+      <c r="L5" s="91"/>
+      <c r="M5" s="91"/>
+      <c r="N5" s="91"/>
+      <c r="O5" s="91"/>
+      <c r="P5" s="91"/>
+      <c r="Q5" s="91"/>
+      <c r="R5" s="91"/>
+      <c r="S5" s="91"/>
+      <c r="T5" s="91"/>
+      <c r="U5" s="91"/>
+      <c r="V5" s="91"/>
       <c r="W5" s="42"/>
       <c r="X5" s="42"/>
       <c r="Y5" s="42"/>
@@ -6232,86 +6232,86 @@
     <row r="6" spans="1:37" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="37"/>
       <c r="B6" s="37"/>
-      <c r="C6" s="88" t="s">
+      <c r="C6" s="94" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="88"/>
+      <c r="D6" s="94"/>
       <c r="E6" s="56"/>
-      <c r="F6" s="89" t="s">
+      <c r="F6" s="90" t="s">
         <v>95</v>
       </c>
-      <c r="G6" s="89"/>
-      <c r="H6" s="89"/>
-      <c r="I6" s="89"/>
-      <c r="J6" s="89"/>
-      <c r="K6" s="89"/>
-      <c r="L6" s="89"/>
-      <c r="M6" s="89"/>
-      <c r="N6" s="89"/>
-      <c r="O6" s="89"/>
-      <c r="P6" s="89"/>
-      <c r="Q6" s="89"/>
-      <c r="R6" s="89"/>
-      <c r="S6" s="89"/>
-      <c r="T6" s="89"/>
-      <c r="U6" s="89"/>
-      <c r="V6" s="89"/>
+      <c r="G6" s="90"/>
+      <c r="H6" s="90"/>
+      <c r="I6" s="90"/>
+      <c r="J6" s="90"/>
+      <c r="K6" s="90"/>
+      <c r="L6" s="90"/>
+      <c r="M6" s="90"/>
+      <c r="N6" s="90"/>
+      <c r="O6" s="90"/>
+      <c r="P6" s="90"/>
+      <c r="Q6" s="90"/>
+      <c r="R6" s="90"/>
+      <c r="S6" s="90"/>
+      <c r="T6" s="90"/>
+      <c r="U6" s="90"/>
+      <c r="V6" s="90"/>
     </row>
     <row r="7" spans="1:37" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="37"/>
       <c r="B7" s="37"/>
-      <c r="C7" s="88" t="s">
+      <c r="C7" s="94" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="88"/>
+      <c r="D7" s="94"/>
       <c r="E7" s="56"/>
-      <c r="F7" s="89" t="s">
+      <c r="F7" s="90" t="s">
         <v>92</v>
       </c>
-      <c r="G7" s="89"/>
-      <c r="H7" s="89"/>
-      <c r="I7" s="89"/>
-      <c r="J7" s="89"/>
-      <c r="K7" s="89"/>
-      <c r="L7" s="89"/>
-      <c r="M7" s="89"/>
-      <c r="N7" s="89"/>
-      <c r="O7" s="89"/>
-      <c r="P7" s="89"/>
-      <c r="Q7" s="89"/>
-      <c r="R7" s="89"/>
-      <c r="S7" s="89"/>
-      <c r="T7" s="89"/>
-      <c r="U7" s="89"/>
-      <c r="V7" s="89"/>
+      <c r="G7" s="90"/>
+      <c r="H7" s="90"/>
+      <c r="I7" s="90"/>
+      <c r="J7" s="90"/>
+      <c r="K7" s="90"/>
+      <c r="L7" s="90"/>
+      <c r="M7" s="90"/>
+      <c r="N7" s="90"/>
+      <c r="O7" s="90"/>
+      <c r="P7" s="90"/>
+      <c r="Q7" s="90"/>
+      <c r="R7" s="90"/>
+      <c r="S7" s="90"/>
+      <c r="T7" s="90"/>
+      <c r="U7" s="90"/>
+      <c r="V7" s="90"/>
     </row>
     <row r="8" spans="1:37" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="37"/>
       <c r="B8" s="37"/>
-      <c r="C8" s="88" t="s">
+      <c r="C8" s="94" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="88"/>
+      <c r="D8" s="94"/>
       <c r="E8" s="56"/>
-      <c r="F8" s="95" t="s">
+      <c r="F8" s="92" t="s">
         <v>96</v>
       </c>
-      <c r="G8" s="95"/>
-      <c r="H8" s="95"/>
-      <c r="I8" s="95"/>
-      <c r="J8" s="95"/>
-      <c r="K8" s="95"/>
-      <c r="L8" s="95"/>
-      <c r="M8" s="95"/>
-      <c r="N8" s="95"/>
-      <c r="O8" s="95"/>
-      <c r="P8" s="95"/>
-      <c r="Q8" s="95"/>
-      <c r="R8" s="95"/>
-      <c r="S8" s="95"/>
-      <c r="T8" s="95"/>
-      <c r="U8" s="95"/>
-      <c r="V8" s="95"/>
+      <c r="G8" s="92"/>
+      <c r="H8" s="92"/>
+      <c r="I8" s="92"/>
+      <c r="J8" s="92"/>
+      <c r="K8" s="92"/>
+      <c r="L8" s="92"/>
+      <c r="M8" s="92"/>
+      <c r="N8" s="92"/>
+      <c r="O8" s="92"/>
+      <c r="P8" s="92"/>
+      <c r="Q8" s="92"/>
+      <c r="R8" s="92"/>
+      <c r="S8" s="92"/>
+      <c r="T8" s="92"/>
+      <c r="U8" s="92"/>
+      <c r="V8" s="92"/>
     </row>
     <row r="9" spans="1:37" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="57"/>
@@ -6362,10 +6362,10 @@
       <c r="V10" s="1"/>
     </row>
     <row r="11" spans="1:37" ht="48" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="91" t="s">
+      <c r="A11" s="87" t="s">
         <v>1</v>
       </c>
-      <c r="B11" s="91" t="s">
+      <c r="B11" s="87" t="s">
         <v>3</v>
       </c>
       <c r="C11" s="22" t="s">
@@ -6402,16 +6402,16 @@
       <c r="T11" s="71"/>
       <c r="U11" s="71"/>
       <c r="V11" s="71"/>
-      <c r="W11" s="92" t="s">
+      <c r="W11" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="X11" s="92" t="s">
+      <c r="X11" s="88" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:37" ht="36.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="91"/>
-      <c r="B12" s="91"/>
+      <c r="A12" s="87"/>
+      <c r="B12" s="87"/>
       <c r="C12" s="22" t="s">
         <v>13</v>
       </c>
@@ -6434,12 +6434,12 @@
       <c r="T12" s="73"/>
       <c r="U12" s="73"/>
       <c r="V12" s="73"/>
-      <c r="W12" s="92"/>
-      <c r="X12" s="92"/>
+      <c r="W12" s="88"/>
+      <c r="X12" s="88"/>
     </row>
     <row r="13" spans="1:37" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="91"/>
-      <c r="B13" s="91"/>
+      <c r="A13" s="87"/>
+      <c r="B13" s="87"/>
       <c r="C13" s="22" t="s">
         <v>10</v>
       </c>
@@ -6483,30 +6483,30 @@
       </c>
     </row>
     <row r="14" spans="1:37" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="91"/>
-      <c r="B14" s="91"/>
+      <c r="A14" s="87"/>
+      <c r="B14" s="87"/>
       <c r="C14" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="D14" s="91"/>
-      <c r="E14" s="91"/>
-      <c r="F14" s="91"/>
-      <c r="G14" s="91"/>
-      <c r="H14" s="91"/>
-      <c r="I14" s="91"/>
-      <c r="J14" s="91"/>
-      <c r="K14" s="91"/>
-      <c r="L14" s="91"/>
-      <c r="M14" s="91"/>
-      <c r="N14" s="91"/>
-      <c r="O14" s="91"/>
-      <c r="P14" s="91"/>
-      <c r="Q14" s="91"/>
-      <c r="R14" s="91"/>
-      <c r="S14" s="91"/>
-      <c r="T14" s="91"/>
-      <c r="U14" s="91"/>
-      <c r="V14" s="91"/>
+      <c r="D14" s="87"/>
+      <c r="E14" s="87"/>
+      <c r="F14" s="87"/>
+      <c r="G14" s="87"/>
+      <c r="H14" s="87"/>
+      <c r="I14" s="87"/>
+      <c r="J14" s="87"/>
+      <c r="K14" s="87"/>
+      <c r="L14" s="87"/>
+      <c r="M14" s="87"/>
+      <c r="N14" s="87"/>
+      <c r="O14" s="87"/>
+      <c r="P14" s="87"/>
+      <c r="Q14" s="87"/>
+      <c r="R14" s="87"/>
+      <c r="S14" s="87"/>
+      <c r="T14" s="87"/>
+      <c r="U14" s="87"/>
+      <c r="V14" s="87"/>
       <c r="W14" s="9"/>
       <c r="X14" s="61"/>
     </row>
@@ -7932,10 +7932,10 @@
       <c r="AA43" s="15"/>
     </row>
     <row r="44" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="C44" s="96" t="s">
+      <c r="C44" s="103" t="s">
         <v>14</v>
       </c>
-      <c r="D44" s="96"/>
+      <c r="D44" s="103"/>
       <c r="E44" s="70"/>
       <c r="H44" s="3"/>
       <c r="I44" s="3"/>
@@ -8132,11 +8132,11 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="C1:V1"/>
-    <mergeCell ref="C2:V2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="F4:V4"/>
+    <mergeCell ref="W11:W12"/>
+    <mergeCell ref="X11:X12"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="F8:V8"/>
     <mergeCell ref="A11:A14"/>
     <mergeCell ref="B11:B14"/>
     <mergeCell ref="D14:V14"/>
@@ -8146,11 +8146,11 @@
     <mergeCell ref="F6:V6"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="F7:V7"/>
-    <mergeCell ref="W11:W12"/>
-    <mergeCell ref="X11:X12"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="F8:V8"/>
+    <mergeCell ref="C1:V1"/>
+    <mergeCell ref="C2:V2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="F4:V4"/>
   </mergeCells>
   <pageMargins left="0.59055118110236204" right="0" top="0" bottom="0.98425196850393704" header="0.59055118110236204" footer="0.39370078740157499"/>
   <pageSetup paperSize="9" scale="83" orientation="portrait" r:id="rId1"/>
@@ -8194,46 +8194,46 @@
     <row r="1" spans="1:30" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
-      <c r="C1" s="90" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="90"/>
-      <c r="E1" s="90"/>
-      <c r="F1" s="90"/>
-      <c r="G1" s="90"/>
-      <c r="H1" s="90"/>
-      <c r="I1" s="90"/>
-      <c r="J1" s="90"/>
-      <c r="K1" s="90"/>
-      <c r="L1" s="90"/>
-      <c r="M1" s="90"/>
-      <c r="N1" s="90"/>
+      <c r="C1" s="95" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="95"/>
+      <c r="E1" s="95"/>
+      <c r="F1" s="95"/>
+      <c r="G1" s="95"/>
+      <c r="H1" s="95"/>
+      <c r="I1" s="95"/>
+      <c r="J1" s="95"/>
+      <c r="K1" s="95"/>
+      <c r="L1" s="95"/>
+      <c r="M1" s="95"/>
+      <c r="N1" s="95"/>
     </row>
     <row r="2" spans="1:30" ht="25.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="5"/>
       <c r="B2" s="6"/>
-      <c r="C2" s="93" t="s">
+      <c r="C2" s="89" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="93"/>
-      <c r="E2" s="93"/>
-      <c r="F2" s="93"/>
-      <c r="G2" s="93"/>
-      <c r="H2" s="93"/>
-      <c r="I2" s="93"/>
-      <c r="J2" s="93"/>
-      <c r="K2" s="93"/>
-      <c r="L2" s="93"/>
-      <c r="M2" s="93"/>
-      <c r="N2" s="93"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="89"/>
+      <c r="F2" s="89"/>
+      <c r="G2" s="89"/>
+      <c r="H2" s="89"/>
+      <c r="I2" s="89"/>
+      <c r="J2" s="89"/>
+      <c r="K2" s="89"/>
+      <c r="L2" s="89"/>
+      <c r="M2" s="89"/>
+      <c r="N2" s="89"/>
     </row>
     <row r="3" spans="1:30" ht="25.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="38"/>
       <c r="B3" s="6"/>
-      <c r="C3" s="88" t="s">
+      <c r="C3" s="94" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="88"/>
+      <c r="D3" s="94"/>
       <c r="E3" s="41" t="s">
         <v>29</v>
       </c>
@@ -8266,22 +8266,22 @@
     <row r="4" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="37"/>
       <c r="B4" s="37"/>
-      <c r="C4" s="88" t="s">
+      <c r="C4" s="94" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="88"/>
-      <c r="E4" s="89" t="s">
+      <c r="D4" s="94"/>
+      <c r="E4" s="90" t="s">
         <v>27</v>
       </c>
-      <c r="F4" s="89"/>
-      <c r="G4" s="89"/>
-      <c r="H4" s="89"/>
-      <c r="I4" s="89"/>
-      <c r="J4" s="89"/>
-      <c r="K4" s="89"/>
-      <c r="L4" s="89"/>
-      <c r="M4" s="89"/>
-      <c r="N4" s="89"/>
+      <c r="F4" s="90"/>
+      <c r="G4" s="90"/>
+      <c r="H4" s="90"/>
+      <c r="I4" s="90"/>
+      <c r="J4" s="90"/>
+      <c r="K4" s="90"/>
+      <c r="L4" s="90"/>
+      <c r="M4" s="90"/>
+      <c r="N4" s="90"/>
       <c r="O4" s="41"/>
       <c r="P4" s="41"/>
       <c r="Q4" s="41"/>
@@ -8302,22 +8302,22 @@
     <row r="5" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="37"/>
       <c r="B5" s="37"/>
-      <c r="C5" s="88" t="s">
+      <c r="C5" s="94" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="88"/>
-      <c r="E5" s="94" t="s">
+      <c r="D5" s="94"/>
+      <c r="E5" s="91" t="s">
         <v>89</v>
       </c>
-      <c r="F5" s="94"/>
-      <c r="G5" s="94"/>
-      <c r="H5" s="94"/>
-      <c r="I5" s="94"/>
-      <c r="J5" s="94"/>
-      <c r="K5" s="94"/>
-      <c r="L5" s="94"/>
-      <c r="M5" s="94"/>
-      <c r="N5" s="94"/>
+      <c r="F5" s="91"/>
+      <c r="G5" s="91"/>
+      <c r="H5" s="91"/>
+      <c r="I5" s="91"/>
+      <c r="J5" s="91"/>
+      <c r="K5" s="91"/>
+      <c r="L5" s="91"/>
+      <c r="M5" s="91"/>
+      <c r="N5" s="91"/>
       <c r="O5" s="42"/>
       <c r="P5" s="42"/>
       <c r="Q5" s="42"/>
@@ -8338,56 +8338,56 @@
     <row r="6" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="37"/>
       <c r="B6" s="37"/>
-      <c r="C6" s="88" t="s">
+      <c r="C6" s="94" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="88"/>
-      <c r="E6" s="89"/>
-      <c r="F6" s="89"/>
-      <c r="G6" s="89"/>
-      <c r="H6" s="89"/>
-      <c r="I6" s="89"/>
-      <c r="J6" s="89"/>
-      <c r="K6" s="89"/>
-      <c r="L6" s="89"/>
-      <c r="M6" s="89"/>
-      <c r="N6" s="89"/>
+      <c r="D6" s="94"/>
+      <c r="E6" s="90"/>
+      <c r="F6" s="90"/>
+      <c r="G6" s="90"/>
+      <c r="H6" s="90"/>
+      <c r="I6" s="90"/>
+      <c r="J6" s="90"/>
+      <c r="K6" s="90"/>
+      <c r="L6" s="90"/>
+      <c r="M6" s="90"/>
+      <c r="N6" s="90"/>
     </row>
     <row r="7" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="37"/>
       <c r="B7" s="37"/>
-      <c r="C7" s="88" t="s">
+      <c r="C7" s="94" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="88"/>
-      <c r="E7" s="89"/>
-      <c r="F7" s="89"/>
-      <c r="G7" s="89"/>
-      <c r="H7" s="89"/>
-      <c r="I7" s="89"/>
-      <c r="J7" s="89"/>
-      <c r="K7" s="89"/>
-      <c r="L7" s="89"/>
-      <c r="M7" s="89"/>
-      <c r="N7" s="89"/>
+      <c r="D7" s="94"/>
+      <c r="E7" s="90"/>
+      <c r="F7" s="90"/>
+      <c r="G7" s="90"/>
+      <c r="H7" s="90"/>
+      <c r="I7" s="90"/>
+      <c r="J7" s="90"/>
+      <c r="K7" s="90"/>
+      <c r="L7" s="90"/>
+      <c r="M7" s="90"/>
+      <c r="N7" s="90"/>
     </row>
     <row r="8" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="37"/>
       <c r="B8" s="37"/>
-      <c r="C8" s="88" t="s">
+      <c r="C8" s="94" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="88"/>
-      <c r="E8" s="95"/>
-      <c r="F8" s="95"/>
-      <c r="G8" s="95"/>
-      <c r="H8" s="95"/>
-      <c r="I8" s="95"/>
-      <c r="J8" s="95"/>
-      <c r="K8" s="95"/>
-      <c r="L8" s="95"/>
-      <c r="M8" s="95"/>
-      <c r="N8" s="95"/>
+      <c r="D8" s="94"/>
+      <c r="E8" s="92"/>
+      <c r="F8" s="92"/>
+      <c r="G8" s="92"/>
+      <c r="H8" s="92"/>
+      <c r="I8" s="92"/>
+      <c r="J8" s="92"/>
+      <c r="K8" s="92"/>
+      <c r="L8" s="92"/>
+      <c r="M8" s="92"/>
+      <c r="N8" s="92"/>
     </row>
     <row r="9" spans="1:30" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="1"/>
@@ -8406,10 +8406,10 @@
       <c r="N9" s="1"/>
     </row>
     <row r="10" spans="1:30" ht="48" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="97" t="s">
+      <c r="A10" s="104" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="100" t="s">
+      <c r="B10" s="107" t="s">
         <v>85</v>
       </c>
       <c r="C10" s="22" t="s">
@@ -8426,16 +8426,16 @@
       <c r="L10" s="22"/>
       <c r="M10" s="22"/>
       <c r="N10" s="22"/>
-      <c r="O10" s="103" t="s">
+      <c r="O10" s="96" t="s">
         <v>9</v>
       </c>
-      <c r="P10" s="105" t="s">
+      <c r="P10" s="98" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:30" ht="36.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="98"/>
-      <c r="B11" s="101"/>
+      <c r="A11" s="105"/>
+      <c r="B11" s="108"/>
       <c r="C11" s="22" t="s">
         <v>13</v>
       </c>
@@ -8450,12 +8450,12 @@
       <c r="L11" s="25"/>
       <c r="M11" s="25"/>
       <c r="N11" s="25"/>
-      <c r="O11" s="104"/>
-      <c r="P11" s="106"/>
+      <c r="O11" s="97"/>
+      <c r="P11" s="99"/>
     </row>
     <row r="12" spans="1:30" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="98"/>
-      <c r="B12" s="101"/>
+      <c r="A12" s="105"/>
+      <c r="B12" s="108"/>
       <c r="C12" s="24" t="s">
         <v>10</v>
       </c>
@@ -8479,24 +8479,24 @@
       </c>
     </row>
     <row r="13" spans="1:30" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="99"/>
-      <c r="B13" s="102"/>
+      <c r="A13" s="106"/>
+      <c r="B13" s="109"/>
       <c r="C13" s="22" t="s">
         <v>86</v>
       </c>
-      <c r="D13" s="107"/>
-      <c r="E13" s="108"/>
-      <c r="F13" s="108"/>
-      <c r="G13" s="108"/>
-      <c r="H13" s="108"/>
-      <c r="I13" s="108"/>
-      <c r="J13" s="108"/>
-      <c r="K13" s="108"/>
-      <c r="L13" s="108"/>
-      <c r="M13" s="108"/>
-      <c r="N13" s="108"/>
-      <c r="O13" s="108"/>
-      <c r="P13" s="109"/>
+      <c r="D13" s="100"/>
+      <c r="E13" s="101"/>
+      <c r="F13" s="101"/>
+      <c r="G13" s="101"/>
+      <c r="H13" s="101"/>
+      <c r="I13" s="101"/>
+      <c r="J13" s="101"/>
+      <c r="K13" s="101"/>
+      <c r="L13" s="101"/>
+      <c r="M13" s="101"/>
+      <c r="N13" s="101"/>
+      <c r="O13" s="101"/>
+      <c r="P13" s="102"/>
     </row>
     <row r="14" spans="1:30" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="8">
@@ -10262,10 +10262,10 @@
       <c r="N77" s="10"/>
     </row>
     <row r="78" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="C78" s="96" t="s">
+      <c r="C78" s="103" t="s">
         <v>14</v>
       </c>
-      <c r="D78" s="96"/>
+      <c r="D78" s="103"/>
       <c r="F78" s="3"/>
       <c r="G78" s="3"/>
       <c r="H78" s="3"/>
@@ -10273,10 +10273,10 @@
       <c r="J78" s="3"/>
       <c r="K78" s="3"/>
       <c r="L78" s="3"/>
-      <c r="M78" s="96" t="s">
+      <c r="M78" s="103" t="s">
         <v>15</v>
       </c>
-      <c r="N78" s="96"/>
+      <c r="N78" s="103"/>
     </row>
     <row r="79" spans="1:16" x14ac:dyDescent="0.35">
       <c r="F79" s="3"/>
@@ -10311,11 +10311,12 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="C1:N1"/>
-    <mergeCell ref="C2:N2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:N4"/>
+    <mergeCell ref="C78:D78"/>
+    <mergeCell ref="M78:N78"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:N8"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="B10:B13"/>
     <mergeCell ref="O10:O11"/>
     <mergeCell ref="P10:P11"/>
     <mergeCell ref="D13:P13"/>
@@ -10325,12 +10326,11 @@
     <mergeCell ref="E6:N6"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="E7:N7"/>
-    <mergeCell ref="C78:D78"/>
-    <mergeCell ref="M78:N78"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:N8"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="C1:N1"/>
+    <mergeCell ref="C2:N2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:N4"/>
   </mergeCells>
   <pageMargins left="0.59055118110236204" right="0" top="0" bottom="0.98425196850393704" header="0.59055118110236204" footer="0.39370078740157499"/>
   <pageSetup paperSize="9" scale="64" orientation="portrait" r:id="rId1"/>
@@ -10372,26 +10372,26 @@
     <row r="1" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
-      <c r="C1" s="90" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="90"/>
-      <c r="E1" s="90"/>
-      <c r="F1" s="90"/>
-      <c r="G1" s="90"/>
-      <c r="H1" s="90"/>
+      <c r="C1" s="95" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="95"/>
+      <c r="E1" s="95"/>
+      <c r="F1" s="95"/>
+      <c r="G1" s="95"/>
+      <c r="H1" s="95"/>
     </row>
     <row r="2" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="5"/>
       <c r="B2" s="6"/>
-      <c r="C2" s="93" t="s">
+      <c r="C2" s="89" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="93"/>
-      <c r="E2" s="93"/>
-      <c r="F2" s="93"/>
-      <c r="G2" s="93"/>
-      <c r="H2" s="93"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="89"/>
+      <c r="F2" s="89"/>
+      <c r="G2" s="89"/>
+      <c r="H2" s="89"/>
     </row>
     <row r="3" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5"/>
@@ -10399,13 +10399,13 @@
       <c r="C3" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="89" t="s">
+      <c r="D3" s="90" t="s">
         <v>29</v>
       </c>
-      <c r="E3" s="89"/>
-      <c r="F3" s="89"/>
-      <c r="G3" s="89"/>
-      <c r="H3" s="89"/>
+      <c r="E3" s="90"/>
+      <c r="F3" s="90"/>
+      <c r="G3" s="90"/>
+      <c r="H3" s="90"/>
     </row>
     <row r="4" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1"/>
@@ -10413,13 +10413,13 @@
       <c r="C4" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="89" t="s">
+      <c r="D4" s="90" t="s">
         <v>90</v>
       </c>
-      <c r="E4" s="89"/>
-      <c r="F4" s="89"/>
-      <c r="G4" s="89"/>
-      <c r="H4" s="89"/>
+      <c r="E4" s="90"/>
+      <c r="F4" s="90"/>
+      <c r="G4" s="90"/>
+      <c r="H4" s="90"/>
     </row>
     <row r="5" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1"/>
@@ -10427,13 +10427,13 @@
       <c r="C5" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="89" t="s">
+      <c r="D5" s="90" t="s">
         <v>91</v>
       </c>
-      <c r="E5" s="89"/>
-      <c r="F5" s="89"/>
-      <c r="G5" s="89"/>
-      <c r="H5" s="89"/>
+      <c r="E5" s="90"/>
+      <c r="F5" s="90"/>
+      <c r="G5" s="90"/>
+      <c r="H5" s="90"/>
     </row>
     <row r="6" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1"/>
@@ -10441,13 +10441,13 @@
       <c r="C6" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="89" t="s">
+      <c r="D6" s="90" t="s">
         <v>92</v>
       </c>
-      <c r="E6" s="89"/>
-      <c r="F6" s="89"/>
-      <c r="G6" s="89"/>
-      <c r="H6" s="89"/>
+      <c r="E6" s="90"/>
+      <c r="F6" s="90"/>
+      <c r="G6" s="90"/>
+      <c r="H6" s="90"/>
     </row>
     <row r="7" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1"/>
@@ -10455,13 +10455,13 @@
       <c r="C7" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="95" t="s">
+      <c r="D7" s="92" t="s">
         <v>93</v>
       </c>
-      <c r="E7" s="95"/>
-      <c r="F7" s="95"/>
-      <c r="G7" s="95"/>
-      <c r="H7" s="95"/>
+      <c r="E7" s="92"/>
+      <c r="F7" s="92"/>
+      <c r="G7" s="92"/>
+      <c r="H7" s="92"/>
     </row>
     <row r="8" spans="1:9" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="1"/>
@@ -10474,51 +10474,51 @@
       <c r="H8" s="18"/>
     </row>
     <row r="9" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="113" t="s">
+      <c r="A9" s="110" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="113" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9" s="113" t="s">
+      <c r="B9" s="110" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="110" t="s">
         <v>87</v>
       </c>
-      <c r="D9" s="120" t="str">
+      <c r="D9" s="117" t="str">
         <f>September!E5</f>
         <v>September 2023</v>
       </c>
-      <c r="E9" s="120" t="str">
+      <c r="E9" s="117" t="str">
         <f>October!F5</f>
         <v>October 2023</v>
       </c>
-      <c r="F9" s="120" t="str">
+      <c r="F9" s="117" t="str">
         <f>'November &amp; December'!E5</f>
         <v>November/December 2023</v>
       </c>
-      <c r="G9" s="116" t="s">
+      <c r="G9" s="113" t="s">
         <v>9</v>
       </c>
-      <c r="H9" s="118" t="s">
+      <c r="H9" s="115" t="s">
         <v>11</v>
       </c>
-      <c r="I9" s="111" t="s">
+      <c r="I9" s="119" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="114"/>
-      <c r="B10" s="114"/>
-      <c r="C10" s="114"/>
-      <c r="D10" s="117"/>
-      <c r="E10" s="117"/>
-      <c r="F10" s="117"/>
-      <c r="G10" s="117"/>
-      <c r="H10" s="119"/>
-      <c r="I10" s="112"/>
+      <c r="A10" s="111"/>
+      <c r="B10" s="111"/>
+      <c r="C10" s="111"/>
+      <c r="D10" s="114"/>
+      <c r="E10" s="114"/>
+      <c r="F10" s="114"/>
+      <c r="G10" s="114"/>
+      <c r="H10" s="116"/>
+      <c r="I10" s="120"/>
     </row>
     <row r="11" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="115"/>
-      <c r="B11" s="115"/>
+      <c r="A11" s="112"/>
+      <c r="B11" s="112"/>
       <c r="C11" s="43" t="s">
         <v>10</v>
       </c>
@@ -10542,7 +10542,7 @@
         <f>(G11/$G$11)*100</f>
         <v>100</v>
       </c>
-      <c r="I11" s="112"/>
+      <c r="I11" s="120"/>
     </row>
     <row r="12" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="8">
@@ -11537,10 +11537,10 @@
     <row r="42" spans="1:9" x14ac:dyDescent="0.35">
       <c r="C42" s="36"/>
       <c r="E42" s="3"/>
-      <c r="F42" s="110" t="s">
+      <c r="F42" s="118" t="s">
         <v>15</v>
       </c>
-      <c r="G42" s="110"/>
+      <c r="G42" s="118"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.35">
       <c r="E43" s="3"/>
@@ -11555,14 +11555,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F9:F10"/>
     <mergeCell ref="F42:G42"/>
     <mergeCell ref="I9:I11"/>
     <mergeCell ref="C1:H1"/>
@@ -11572,6 +11564,14 @@
     <mergeCell ref="D5:H5"/>
     <mergeCell ref="D6:H6"/>
     <mergeCell ref="D7:H7"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
   </mergeCells>
   <pageMargins left="0.59055118110236204" right="0" top="0" bottom="0.98425196850393704" header="0.59055118110236204" footer="0.39370078740157499"/>
   <pageSetup paperSize="5" scale="90" orientation="portrait" r:id="rId1"/>

--- a/BASIC_ELECTRICAL_ENGINEERING_Attenance_FIRST_SEMESTER_2024.xlsx
+++ b/BASIC_ELECTRICAL_ENGINEERING_Attenance_FIRST_SEMESTER_2024.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hp\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A9E7ED3-B975-4D0E-B17D-065F6EC3F623}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7190"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feburary" sheetId="6" r:id="rId1"/>
@@ -19,28 +20,39 @@
     <sheet name="Overall Attendance" sheetId="11" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Feburary!$B$1:$AB$63</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Feburary!$B$1:$Y$61</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">'November &amp; December'!$A$1:$P$79</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">October!$A$1:$X$45</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">'Overall Attendance'!$A$1:$I$64</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">September!$A$1:$P$44</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Windows User</author>
   </authors>
   <commentList>
-    <comment ref="B33" authorId="0" shapeId="0">
+    <comment ref="B33" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
@@ -65,7 +77,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B36" authorId="0" shapeId="0">
+    <comment ref="B36" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
       <text>
         <r>
           <rPr>
@@ -94,12 +106,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Windows User</author>
   </authors>
   <commentList>
-    <comment ref="B34" authorId="0" shapeId="0">
+    <comment ref="B34" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
       <text>
         <r>
           <rPr>
@@ -124,7 +136,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B37" authorId="0" shapeId="0">
+    <comment ref="B37" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
       <text>
         <r>
           <rPr>
@@ -153,12 +165,12 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Windows User</author>
   </authors>
   <commentList>
-    <comment ref="B33" authorId="0" shapeId="0">
+    <comment ref="B33" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
       <text>
         <r>
           <rPr>
@@ -183,7 +195,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B36" authorId="0" shapeId="0">
+    <comment ref="B36" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000002000000}">
       <text>
         <r>
           <rPr>
@@ -212,12 +224,12 @@
 </file>
 
 <file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Windows User</author>
   </authors>
   <commentList>
-    <comment ref="B31" authorId="0" shapeId="0">
+    <comment ref="B31" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000001000000}">
       <text>
         <r>
           <rPr>
@@ -242,7 +254,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B34" authorId="0" shapeId="0">
+    <comment ref="B34" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000002000000}">
       <text>
         <r>
           <rPr>
@@ -271,7 +283,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="152">
   <si>
     <t>Balochistan University of Engineering &amp; Technology, Khuzdar</t>
   </si>
@@ -718,12 +730,21 @@
   </si>
   <si>
     <t>Salman Haleem</t>
+  </si>
+  <si>
+    <t>Mahnoor Saeed</t>
+  </si>
+  <si>
+    <t>Surab</t>
+  </si>
+  <si>
+    <t>Natasha Mustafa</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
@@ -1204,7 +1225,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="121">
+  <cellXfs count="107">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1292,23 +1313,8 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1332,31 +1338,21 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1364,7 +1360,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1378,10 +1374,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1391,35 +1383,40 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="18" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1429,21 +1426,32 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1466,26 +1474,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1511,19 +1504,13 @@
     <xf numFmtId="49" fontId="16" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1558,7 +1545,7 @@
         <xdr:cNvPr id="2" name="Picture 1" descr="C:\Users\user\Desktop\full final logo emboss.jpg">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1616,7 +1603,7 @@
         <xdr:cNvPr id="2" name="Picture 1" descr="C:\Users\user\Desktop\full final logo emboss.jpg">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{729AF3B9-A979-42F2-B73B-32BD11EBA159}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{729AF3B9-A979-42F2-B73B-32BD11EBA159}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1674,7 +1661,7 @@
         <xdr:cNvPr id="2" name="Picture 1" descr="C:\Users\user\Desktop\full final logo emboss.jpg">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{86D7EC8D-0704-4F42-935E-57EFB076D5C1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{86D7EC8D-0704-4F42-935E-57EFB076D5C1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1732,7 +1719,7 @@
         <xdr:cNvPr id="2" name="Picture 1" descr="C:\Users\user\Desktop\full final logo emboss.jpg">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F6CBCD2-51A0-4801-B304-440794D29BDB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F6CBCD2-51A0-4801-B304-440794D29BDB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1790,7 +1777,7 @@
         <xdr:cNvPr id="2" name="Picture 1" descr="C:\Users\user\Desktop\full final logo emboss.jpg">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{338DD727-CF14-41C0-9636-1FDE8148878E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{338DD727-CF14-41C0-9636-1FDE8148878E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2090,12 +2077,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="B1:AI63"/>
+  <dimension ref="B1:Y61"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A45" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="F56" sqref="F56"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="W47" sqref="W47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.09765625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -2108,260 +2095,236 @@
     <col min="6" max="6" width="13.5" style="4" customWidth="1"/>
     <col min="7" max="7" width="9.8984375" style="4" customWidth="1"/>
     <col min="8" max="8" width="6" style="4" customWidth="1"/>
-    <col min="9" max="23" width="5.8984375" style="4" customWidth="1"/>
-    <col min="24" max="24" width="5.8984375" style="4" hidden="1" customWidth="1"/>
-    <col min="25" max="25" width="5.8984375" style="4" customWidth="1"/>
-    <col min="26" max="26" width="9.296875" style="4" customWidth="1"/>
-    <col min="27" max="27" width="8.296875" style="4" customWidth="1"/>
-    <col min="28" max="29" width="9.09765625" style="4" customWidth="1"/>
-    <col min="30" max="16384" width="9.09765625" style="4"/>
+    <col min="9" max="20" width="5.8984375" style="4" customWidth="1"/>
+    <col min="21" max="21" width="5.8984375" style="4" hidden="1" customWidth="1"/>
+    <col min="22" max="22" width="5.8984375" style="4" customWidth="1"/>
+    <col min="23" max="23" width="9.296875" style="4" customWidth="1"/>
+    <col min="24" max="24" width="8.296875" style="4" customWidth="1"/>
+    <col min="25" max="26" width="9.09765625" style="4" customWidth="1"/>
+    <col min="27" max="16384" width="9.09765625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:28" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
-      <c r="D1" s="95" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="95"/>
-      <c r="F1" s="95"/>
-      <c r="G1" s="95"/>
-      <c r="H1" s="95"/>
-      <c r="I1" s="95"/>
-      <c r="J1" s="95"/>
-      <c r="K1" s="95"/>
-      <c r="L1" s="95"/>
-      <c r="M1" s="95"/>
-      <c r="N1" s="95"/>
-      <c r="O1" s="95"/>
-      <c r="P1" s="95"/>
-      <c r="Q1" s="95"/>
-      <c r="R1" s="95"/>
-      <c r="S1" s="95"/>
-      <c r="T1" s="95"/>
-      <c r="U1" s="95"/>
-      <c r="V1" s="95"/>
-      <c r="W1" s="95"/>
-      <c r="X1" s="95"/>
-      <c r="Y1" s="95"/>
-      <c r="Z1" s="95"/>
-    </row>
-    <row r="2" spans="2:28" ht="25.9" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D1" s="76" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="76"/>
+      <c r="K1" s="76"/>
+      <c r="L1" s="76"/>
+      <c r="M1" s="76"/>
+      <c r="N1" s="76"/>
+      <c r="O1" s="76"/>
+      <c r="P1" s="76"/>
+      <c r="Q1" s="76"/>
+      <c r="R1" s="76"/>
+      <c r="S1" s="76"/>
+      <c r="T1" s="76"/>
+      <c r="U1" s="76"/>
+      <c r="V1" s="76"/>
+      <c r="W1" s="76"/>
+    </row>
+    <row r="2" spans="2:25" ht="25.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B2" s="5"/>
       <c r="C2" s="6"/>
-      <c r="D2" s="89" t="s">
+      <c r="D2" s="79" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="89"/>
-      <c r="F2" s="89"/>
-      <c r="G2" s="89"/>
-      <c r="H2" s="89"/>
-      <c r="I2" s="89"/>
-      <c r="J2" s="89"/>
-      <c r="K2" s="89"/>
-      <c r="L2" s="89"/>
-      <c r="M2" s="89"/>
-      <c r="N2" s="89"/>
-      <c r="O2" s="89"/>
-      <c r="P2" s="89"/>
-      <c r="Q2" s="89"/>
-      <c r="R2" s="89"/>
-      <c r="S2" s="89"/>
-      <c r="T2" s="89"/>
-      <c r="U2" s="89"/>
-      <c r="V2" s="89"/>
-      <c r="W2" s="89"/>
-      <c r="X2" s="89"/>
-      <c r="Y2" s="89"/>
-      <c r="Z2" s="89"/>
-    </row>
-    <row r="3" spans="2:28" ht="25.9" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E2" s="79"/>
+      <c r="F2" s="79"/>
+      <c r="G2" s="79"/>
+      <c r="H2" s="79"/>
+      <c r="I2" s="79"/>
+      <c r="J2" s="79"/>
+      <c r="K2" s="79"/>
+      <c r="L2" s="79"/>
+      <c r="M2" s="79"/>
+      <c r="N2" s="79"/>
+      <c r="O2" s="79"/>
+      <c r="P2" s="79"/>
+      <c r="Q2" s="79"/>
+      <c r="R2" s="79"/>
+      <c r="S2" s="79"/>
+      <c r="T2" s="79"/>
+      <c r="U2" s="79"/>
+      <c r="V2" s="79"/>
+      <c r="W2" s="79"/>
+    </row>
+    <row r="3" spans="2:25" ht="25.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="5"/>
       <c r="C3" s="6"/>
-      <c r="D3" s="94" t="s">
+      <c r="D3" s="74" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="94"/>
-      <c r="F3" s="90" t="s">
+      <c r="E3" s="74"/>
+      <c r="F3" s="75" t="s">
         <v>102</v>
       </c>
-      <c r="G3" s="90"/>
-      <c r="H3" s="90"/>
-      <c r="I3" s="90"/>
-      <c r="J3" s="90"/>
-      <c r="K3" s="90"/>
-      <c r="L3" s="90"/>
-      <c r="M3" s="90"/>
-      <c r="N3" s="90"/>
-      <c r="O3" s="90"/>
-      <c r="P3" s="90"/>
-      <c r="Q3" s="90"/>
-      <c r="R3" s="90"/>
-      <c r="S3" s="90"/>
-      <c r="T3" s="90"/>
-      <c r="U3" s="90"/>
-      <c r="V3" s="90"/>
-      <c r="W3" s="90"/>
-      <c r="X3" s="90"/>
-      <c r="Y3" s="90"/>
-      <c r="Z3" s="90"/>
-    </row>
-    <row r="4" spans="2:28" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G3" s="75"/>
+      <c r="H3" s="75"/>
+      <c r="I3" s="75"/>
+      <c r="J3" s="75"/>
+      <c r="K3" s="75"/>
+      <c r="L3" s="75"/>
+      <c r="M3" s="75"/>
+      <c r="N3" s="75"/>
+      <c r="O3" s="75"/>
+      <c r="P3" s="75"/>
+      <c r="Q3" s="75"/>
+      <c r="R3" s="75"/>
+      <c r="S3" s="75"/>
+      <c r="T3" s="75"/>
+      <c r="U3" s="75"/>
+      <c r="V3" s="75"/>
+      <c r="W3" s="75"/>
+    </row>
+    <row r="4" spans="2:25" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
-      <c r="D4" s="94" t="s">
-        <v>4</v>
-      </c>
-      <c r="E4" s="94"/>
-      <c r="F4" s="90" t="s">
+      <c r="D4" s="74" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="74"/>
+      <c r="F4" s="75" t="s">
         <v>103</v>
       </c>
-      <c r="G4" s="90"/>
-      <c r="H4" s="90"/>
-      <c r="I4" s="90"/>
-      <c r="J4" s="90"/>
-      <c r="K4" s="90"/>
-      <c r="L4" s="90"/>
-      <c r="M4" s="90"/>
-      <c r="N4" s="90"/>
-      <c r="O4" s="90"/>
-      <c r="P4" s="90"/>
-      <c r="Q4" s="90"/>
-      <c r="R4" s="90"/>
-      <c r="S4" s="90"/>
-      <c r="T4" s="90"/>
-      <c r="U4" s="90"/>
-      <c r="V4" s="90"/>
-      <c r="W4" s="90"/>
-      <c r="X4" s="90"/>
-      <c r="Y4" s="90"/>
-      <c r="Z4" s="90"/>
-    </row>
-    <row r="5" spans="2:28" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G4" s="75"/>
+      <c r="H4" s="75"/>
+      <c r="I4" s="75"/>
+      <c r="J4" s="75"/>
+      <c r="K4" s="75"/>
+      <c r="L4" s="75"/>
+      <c r="M4" s="75"/>
+      <c r="N4" s="75"/>
+      <c r="O4" s="75"/>
+      <c r="P4" s="75"/>
+      <c r="Q4" s="75"/>
+      <c r="R4" s="75"/>
+      <c r="S4" s="75"/>
+      <c r="T4" s="75"/>
+      <c r="U4" s="75"/>
+      <c r="V4" s="75"/>
+      <c r="W4" s="75"/>
+    </row>
+    <row r="5" spans="2:25" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
-      <c r="D5" s="94" t="s">
+      <c r="D5" s="74" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="94"/>
-      <c r="F5" s="91" t="s">
+      <c r="E5" s="74"/>
+      <c r="F5" s="80" t="s">
         <v>110</v>
       </c>
-      <c r="G5" s="91"/>
-      <c r="H5" s="91"/>
-      <c r="I5" s="91"/>
-      <c r="J5" s="91"/>
-      <c r="K5" s="91"/>
-      <c r="L5" s="91"/>
-      <c r="M5" s="91"/>
-      <c r="N5" s="91"/>
-      <c r="O5" s="91"/>
-      <c r="P5" s="91"/>
-      <c r="Q5" s="91"/>
-      <c r="R5" s="91"/>
-      <c r="S5" s="91"/>
-      <c r="T5" s="91"/>
-      <c r="U5" s="91"/>
-      <c r="V5" s="91"/>
-      <c r="W5" s="91"/>
-      <c r="X5" s="91"/>
-      <c r="Y5" s="91"/>
-      <c r="Z5" s="91"/>
-    </row>
-    <row r="6" spans="2:28" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G5" s="80"/>
+      <c r="H5" s="80"/>
+      <c r="I5" s="80"/>
+      <c r="J5" s="80"/>
+      <c r="K5" s="80"/>
+      <c r="L5" s="80"/>
+      <c r="M5" s="80"/>
+      <c r="N5" s="80"/>
+      <c r="O5" s="80"/>
+      <c r="P5" s="80"/>
+      <c r="Q5" s="80"/>
+      <c r="R5" s="80"/>
+      <c r="S5" s="80"/>
+      <c r="T5" s="80"/>
+      <c r="U5" s="80"/>
+      <c r="V5" s="80"/>
+      <c r="W5" s="80"/>
+    </row>
+    <row r="6" spans="2:25" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
-      <c r="D6" s="94" t="s">
+      <c r="D6" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="94"/>
-      <c r="F6" s="90" t="s">
+      <c r="E6" s="74"/>
+      <c r="F6" s="75" t="s">
         <v>104</v>
       </c>
-      <c r="G6" s="90"/>
-      <c r="H6" s="90"/>
-      <c r="I6" s="90"/>
-      <c r="J6" s="90"/>
-      <c r="K6" s="90"/>
-      <c r="L6" s="90"/>
-      <c r="M6" s="90"/>
-      <c r="N6" s="90"/>
-      <c r="O6" s="90"/>
-      <c r="P6" s="90"/>
-      <c r="Q6" s="90"/>
-      <c r="R6" s="90"/>
-      <c r="S6" s="90"/>
-      <c r="T6" s="90"/>
-      <c r="U6" s="90"/>
-      <c r="V6" s="90"/>
-      <c r="W6" s="90"/>
-      <c r="X6" s="90"/>
-      <c r="Y6" s="90"/>
-      <c r="Z6" s="90"/>
-    </row>
-    <row r="7" spans="2:28" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G6" s="75"/>
+      <c r="H6" s="75"/>
+      <c r="I6" s="75"/>
+      <c r="J6" s="75"/>
+      <c r="K6" s="75"/>
+      <c r="L6" s="75"/>
+      <c r="M6" s="75"/>
+      <c r="N6" s="75"/>
+      <c r="O6" s="75"/>
+      <c r="P6" s="75"/>
+      <c r="Q6" s="75"/>
+      <c r="R6" s="75"/>
+      <c r="S6" s="75"/>
+      <c r="T6" s="75"/>
+      <c r="U6" s="75"/>
+      <c r="V6" s="75"/>
+      <c r="W6" s="75"/>
+    </row>
+    <row r="7" spans="2:25" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
-      <c r="D7" s="94" t="s">
+      <c r="D7" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="94"/>
-      <c r="F7" s="90" t="s">
+      <c r="E7" s="74"/>
+      <c r="F7" s="75" t="s">
         <v>105</v>
       </c>
-      <c r="G7" s="90"/>
-      <c r="H7" s="90"/>
-      <c r="I7" s="90"/>
-      <c r="J7" s="90"/>
-      <c r="K7" s="90"/>
-      <c r="L7" s="90"/>
-      <c r="M7" s="90"/>
-      <c r="N7" s="90"/>
-      <c r="O7" s="90"/>
-      <c r="P7" s="90"/>
-      <c r="Q7" s="90"/>
-      <c r="R7" s="90"/>
-      <c r="S7" s="90"/>
-      <c r="T7" s="90"/>
-      <c r="U7" s="90"/>
-      <c r="V7" s="90"/>
-      <c r="W7" s="90"/>
-      <c r="X7" s="90"/>
-      <c r="Y7" s="90"/>
-      <c r="Z7" s="90"/>
-    </row>
-    <row r="8" spans="2:28" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G7" s="75"/>
+      <c r="H7" s="75"/>
+      <c r="I7" s="75"/>
+      <c r="J7" s="75"/>
+      <c r="K7" s="75"/>
+      <c r="L7" s="75"/>
+      <c r="M7" s="75"/>
+      <c r="N7" s="75"/>
+      <c r="O7" s="75"/>
+      <c r="P7" s="75"/>
+      <c r="Q7" s="75"/>
+      <c r="R7" s="75"/>
+      <c r="S7" s="75"/>
+      <c r="T7" s="75"/>
+      <c r="U7" s="75"/>
+      <c r="V7" s="75"/>
+      <c r="W7" s="75"/>
+    </row>
+    <row r="8" spans="2:25" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
-      <c r="D8" s="94" t="s">
+      <c r="D8" s="74" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="94"/>
-      <c r="F8" s="92" t="s">
+      <c r="E8" s="74"/>
+      <c r="F8" s="81" t="s">
         <v>106</v>
       </c>
-      <c r="G8" s="92"/>
-      <c r="H8" s="92"/>
-      <c r="I8" s="92"/>
-      <c r="J8" s="92"/>
-      <c r="K8" s="92"/>
-      <c r="L8" s="92"/>
-      <c r="M8" s="92"/>
-      <c r="N8" s="92"/>
-      <c r="O8" s="92"/>
-      <c r="P8" s="92"/>
-      <c r="Q8" s="92"/>
-      <c r="R8" s="92"/>
-      <c r="S8" s="92"/>
-      <c r="T8" s="92"/>
-      <c r="U8" s="92"/>
-      <c r="V8" s="92"/>
-      <c r="W8" s="92"/>
-      <c r="X8" s="92"/>
-      <c r="Y8" s="92"/>
-      <c r="Z8" s="92"/>
-    </row>
-    <row r="9" spans="2:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G8" s="81"/>
+      <c r="H8" s="81"/>
+      <c r="I8" s="81"/>
+      <c r="J8" s="81"/>
+      <c r="K8" s="81"/>
+      <c r="L8" s="81"/>
+      <c r="M8" s="81"/>
+      <c r="N8" s="81"/>
+      <c r="O8" s="81"/>
+      <c r="P8" s="81"/>
+      <c r="Q8" s="81"/>
+      <c r="R8" s="81"/>
+      <c r="S8" s="81"/>
+      <c r="T8" s="81"/>
+      <c r="U8" s="81"/>
+      <c r="V8" s="81"/>
+      <c r="W8" s="81"/>
+    </row>
+    <row r="9" spans="2:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="7"/>
@@ -2384,15 +2347,12 @@
       <c r="U9" s="1"/>
       <c r="V9" s="1"/>
       <c r="W9" s="1"/>
-      <c r="X9" s="1"/>
-      <c r="Y9" s="1"/>
-      <c r="Z9" s="1"/>
-    </row>
-    <row r="10" spans="2:28" ht="48" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="87" t="s">
+    </row>
+    <row r="10" spans="2:25" ht="48" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="77" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="87" t="s">
+      <c r="C10" s="77" t="s">
         <v>2</v>
       </c>
       <c r="D10" s="22" t="s">
@@ -2404,7 +2364,9 @@
       <c r="F10" s="23">
         <v>8</v>
       </c>
-      <c r="G10" s="35"/>
+      <c r="G10" s="23">
+        <v>22</v>
+      </c>
       <c r="H10" s="22"/>
       <c r="I10" s="22"/>
       <c r="J10" s="22"/>
@@ -2421,29 +2383,28 @@
       <c r="U10" s="22"/>
       <c r="V10" s="22"/>
       <c r="W10" s="22"/>
-      <c r="X10" s="22"/>
-      <c r="Y10" s="22"/>
-      <c r="Z10" s="22"/>
-      <c r="AA10" s="88" t="s">
+      <c r="X10" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="AB10" s="88" t="s">
+      <c r="Y10" s="78" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="2:28" ht="36.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="87"/>
-      <c r="C11" s="87"/>
+    <row r="11" spans="2:25" ht="36.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="77"/>
+      <c r="C11" s="77"/>
       <c r="D11" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="E11" s="75" t="s">
+      <c r="E11" s="63" t="s">
         <v>107</v>
       </c>
-      <c r="F11" s="75" t="s">
+      <c r="F11" s="63" t="s">
         <v>107</v>
       </c>
-      <c r="G11" s="27"/>
+      <c r="G11" s="63" t="s">
+        <v>107</v>
+      </c>
       <c r="H11" s="25"/>
       <c r="I11" s="25"/>
       <c r="J11" s="25"/>
@@ -2460,15 +2421,12 @@
       <c r="U11" s="25"/>
       <c r="V11" s="25"/>
       <c r="W11" s="25"/>
-      <c r="X11" s="25"/>
-      <c r="Y11" s="25"/>
-      <c r="Z11" s="25"/>
-      <c r="AA11" s="88"/>
-      <c r="AB11" s="88"/>
-    </row>
-    <row r="12" spans="2:28" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="87"/>
-      <c r="C12" s="87"/>
+      <c r="X11" s="78"/>
+      <c r="Y11" s="78"/>
+    </row>
+    <row r="12" spans="2:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="77"/>
+      <c r="C12" s="77"/>
       <c r="D12" s="22" t="s">
         <v>10</v>
       </c>
@@ -2478,81 +2436,69 @@
       <c r="F12" s="23">
         <v>3</v>
       </c>
-      <c r="G12" s="23"/>
-      <c r="H12" s="23">
-        <v>3</v>
-      </c>
+      <c r="G12" s="23">
+        <v>3</v>
+      </c>
+      <c r="H12" s="23"/>
       <c r="I12" s="23"/>
       <c r="J12" s="23"/>
       <c r="K12" s="23"/>
       <c r="L12" s="23"/>
       <c r="M12" s="23"/>
       <c r="N12" s="23"/>
-      <c r="O12" s="23">
-        <v>3</v>
-      </c>
-      <c r="P12" s="23">
-        <v>3</v>
-      </c>
-      <c r="Q12" s="23">
-        <v>3</v>
-      </c>
+      <c r="O12" s="23"/>
+      <c r="P12" s="23"/>
+      <c r="Q12" s="23"/>
       <c r="R12" s="23"/>
       <c r="S12" s="23"/>
       <c r="T12" s="23"/>
       <c r="U12" s="23"/>
       <c r="V12" s="23"/>
       <c r="W12" s="23"/>
-      <c r="X12" s="23"/>
-      <c r="Y12" s="23"/>
-      <c r="Z12" s="23"/>
-      <c r="AA12" s="74">
+      <c r="X12" s="51">
         <v>18</v>
       </c>
-      <c r="AB12" s="61">
-        <f>(AA12/$AA$12)*100</f>
+      <c r="Y12" s="52">
+        <f>(X12/$X$12)*100</f>
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="2:28" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="87"/>
-      <c r="C13" s="87"/>
+    <row r="13" spans="2:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="77"/>
+      <c r="C13" s="77"/>
       <c r="D13" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="E13" s="87"/>
-      <c r="F13" s="87"/>
-      <c r="G13" s="87"/>
-      <c r="H13" s="87"/>
-      <c r="I13" s="87"/>
-      <c r="J13" s="87"/>
-      <c r="K13" s="87"/>
-      <c r="L13" s="87"/>
-      <c r="M13" s="87"/>
-      <c r="N13" s="87"/>
-      <c r="O13" s="87"/>
-      <c r="P13" s="87"/>
-      <c r="Q13" s="87"/>
-      <c r="R13" s="87"/>
-      <c r="S13" s="87"/>
-      <c r="T13" s="87"/>
-      <c r="U13" s="87"/>
-      <c r="V13" s="87"/>
-      <c r="W13" s="87"/>
-      <c r="X13" s="87"/>
-      <c r="Y13" s="87"/>
-      <c r="Z13" s="87"/>
-      <c r="AA13" s="87"/>
-      <c r="AB13" s="87"/>
-    </row>
-    <row r="14" spans="2:28" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="E13" s="77"/>
+      <c r="F13" s="77"/>
+      <c r="G13" s="77"/>
+      <c r="H13" s="77"/>
+      <c r="I13" s="77"/>
+      <c r="J13" s="77"/>
+      <c r="K13" s="77"/>
+      <c r="L13" s="77"/>
+      <c r="M13" s="77"/>
+      <c r="N13" s="77"/>
+      <c r="O13" s="77"/>
+      <c r="P13" s="77"/>
+      <c r="Q13" s="77"/>
+      <c r="R13" s="77"/>
+      <c r="S13" s="77"/>
+      <c r="T13" s="77"/>
+      <c r="U13" s="77"/>
+      <c r="V13" s="77"/>
+      <c r="W13" s="77"/>
+      <c r="X13" s="77"/>
+      <c r="Y13" s="77"/>
+    </row>
+    <row r="14" spans="2:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B14" s="30">
         <v>1</v>
       </c>
-      <c r="C14" s="82" t="s">
+      <c r="C14" s="69" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="82" t="s">
+      <c r="D14" s="69" t="s">
         <v>123</v>
       </c>
       <c r="E14" s="9">
@@ -2561,7 +2507,9 @@
       <c r="F14" s="9">
         <v>3</v>
       </c>
-      <c r="G14" s="9"/>
+      <c r="G14" s="106">
+        <v>3</v>
+      </c>
       <c r="H14" s="9"/>
       <c r="I14" s="13"/>
       <c r="J14" s="13"/>
@@ -2573,31 +2521,28 @@
       <c r="P14" s="13"/>
       <c r="Q14" s="13"/>
       <c r="R14" s="13"/>
-      <c r="S14" s="67"/>
-      <c r="T14" s="67"/>
-      <c r="U14" s="67"/>
+      <c r="S14" s="58"/>
+      <c r="T14" s="58"/>
+      <c r="U14" s="13"/>
       <c r="V14" s="13"/>
       <c r="W14" s="13"/>
-      <c r="X14" s="13"/>
-      <c r="Y14" s="13"/>
-      <c r="Z14" s="13"/>
-      <c r="AA14" s="74">
-        <f t="shared" ref="AA14:AA40" si="0">SUM(E14:Z14)</f>
-        <v>6</v>
-      </c>
-      <c r="AB14" s="68">
-        <f t="shared" ref="AB14:AB40" si="1">(AA14/$AA$12)*100</f>
-        <v>33.333333333333329</v>
-      </c>
-    </row>
-    <row r="15" spans="2:28" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="X14" s="51">
+        <f>SUM(E14:W14)</f>
+        <v>9</v>
+      </c>
+      <c r="Y14" s="59">
+        <f t="shared" ref="Y14:Y40" si="0">(X14/$X$12)*100</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="2:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B15" s="30">
         <v>2</v>
       </c>
-      <c r="C15" s="82" t="s">
+      <c r="C15" s="69" t="s">
         <v>33</v>
       </c>
-      <c r="D15" s="82" t="s">
+      <c r="D15" s="69" t="s">
         <v>124</v>
       </c>
       <c r="E15" s="9">
@@ -2606,7 +2551,9 @@
       <c r="F15" s="9">
         <v>3</v>
       </c>
-      <c r="G15" s="9"/>
+      <c r="G15" s="106">
+        <v>3</v>
+      </c>
       <c r="H15" s="9"/>
       <c r="I15" s="13"/>
       <c r="J15" s="13"/>
@@ -2618,31 +2565,28 @@
       <c r="P15" s="13"/>
       <c r="Q15" s="13"/>
       <c r="R15" s="13"/>
-      <c r="S15" s="67"/>
-      <c r="T15" s="67"/>
-      <c r="U15" s="67"/>
+      <c r="S15" s="58"/>
+      <c r="T15" s="58"/>
+      <c r="U15" s="13"/>
       <c r="V15" s="13"/>
       <c r="W15" s="13"/>
-      <c r="X15" s="13"/>
-      <c r="Y15" s="13"/>
-      <c r="Z15" s="13"/>
-      <c r="AA15" s="74">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="AB15" s="68">
-        <f t="shared" si="1"/>
-        <v>33.333333333333329</v>
-      </c>
-    </row>
-    <row r="16" spans="2:28" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="X15" s="51">
+        <f>SUM(E15:W15)</f>
+        <v>9</v>
+      </c>
+      <c r="Y15" s="59">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="2:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B16" s="30">
         <v>3</v>
       </c>
-      <c r="C16" s="82" t="s">
+      <c r="C16" s="69" t="s">
         <v>35</v>
       </c>
-      <c r="D16" s="82" t="s">
+      <c r="D16" s="69" t="s">
         <v>125</v>
       </c>
       <c r="E16" s="9">
@@ -2651,7 +2595,9 @@
       <c r="F16" s="9">
         <v>3</v>
       </c>
-      <c r="G16" s="9"/>
+      <c r="G16" s="106">
+        <v>3</v>
+      </c>
       <c r="H16" s="9"/>
       <c r="I16" s="13"/>
       <c r="J16" s="13"/>
@@ -2663,38 +2609,37 @@
       <c r="P16" s="13"/>
       <c r="Q16" s="13"/>
       <c r="R16" s="13"/>
-      <c r="S16" s="67"/>
-      <c r="T16" s="67"/>
-      <c r="U16" s="67"/>
+      <c r="S16" s="58"/>
+      <c r="T16" s="58"/>
+      <c r="U16" s="13"/>
       <c r="V16" s="13"/>
       <c r="W16" s="13"/>
-      <c r="X16" s="13"/>
-      <c r="Y16" s="13"/>
-      <c r="Z16" s="13"/>
-      <c r="AA16" s="74">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="AB16" s="68">
-        <f t="shared" si="1"/>
-        <v>33.333333333333329</v>
-      </c>
-    </row>
-    <row r="17" spans="2:28" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="X16" s="51">
+        <f>SUM(E16:W16)</f>
+        <v>9</v>
+      </c>
+      <c r="Y16" s="59">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="2:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B17" s="30">
         <v>4</v>
       </c>
-      <c r="C17" s="82" t="s">
+      <c r="C17" s="69" t="s">
         <v>37</v>
       </c>
-      <c r="D17" s="82"/>
+      <c r="D17" s="69"/>
       <c r="E17" s="9">
         <v>0</v>
       </c>
       <c r="F17" s="9">
         <v>0</v>
       </c>
-      <c r="G17" s="9"/>
+      <c r="G17" s="106">
+        <v>0</v>
+      </c>
       <c r="H17" s="9"/>
       <c r="I17" s="13"/>
       <c r="J17" s="13"/>
@@ -2706,38 +2651,37 @@
       <c r="P17" s="13"/>
       <c r="Q17" s="13"/>
       <c r="R17" s="13"/>
-      <c r="S17" s="67"/>
-      <c r="T17" s="67"/>
-      <c r="U17" s="67"/>
+      <c r="S17" s="58"/>
+      <c r="T17" s="58"/>
+      <c r="U17" s="13"/>
       <c r="V17" s="13"/>
       <c r="W17" s="13"/>
-      <c r="X17" s="13"/>
-      <c r="Y17" s="13"/>
-      <c r="Z17" s="13"/>
-      <c r="AA17" s="74">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AB17" s="68">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="2:28" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="X17" s="51">
+        <f>SUM(E17:W17)</f>
+        <v>0</v>
+      </c>
+      <c r="Y17" s="59">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B18" s="30">
         <v>5</v>
       </c>
-      <c r="C18" s="82" t="s">
+      <c r="C18" s="69" t="s">
         <v>39</v>
       </c>
-      <c r="D18" s="82"/>
+      <c r="D18" s="69"/>
       <c r="E18" s="9">
         <v>3</v>
       </c>
       <c r="F18" s="9">
         <v>3</v>
       </c>
-      <c r="G18" s="9"/>
+      <c r="G18" s="106">
+        <v>3</v>
+      </c>
       <c r="H18" s="9"/>
       <c r="I18" s="13"/>
       <c r="J18" s="13"/>
@@ -2749,38 +2693,37 @@
       <c r="P18" s="13"/>
       <c r="Q18" s="13"/>
       <c r="R18" s="13"/>
-      <c r="S18" s="67"/>
-      <c r="T18" s="67"/>
-      <c r="U18" s="67"/>
+      <c r="S18" s="58"/>
+      <c r="T18" s="58"/>
+      <c r="U18" s="13"/>
       <c r="V18" s="13"/>
       <c r="W18" s="13"/>
-      <c r="X18" s="13"/>
-      <c r="Y18" s="13"/>
-      <c r="Z18" s="13"/>
-      <c r="AA18" s="74">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="AB18" s="68">
-        <f t="shared" si="1"/>
-        <v>33.333333333333329</v>
-      </c>
-    </row>
-    <row r="19" spans="2:28" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="X18" s="51">
+        <f>SUM(E18:W18)</f>
+        <v>9</v>
+      </c>
+      <c r="Y18" s="59">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="2:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B19" s="30">
         <v>6</v>
       </c>
-      <c r="C19" s="82" t="s">
+      <c r="C19" s="69" t="s">
         <v>41</v>
       </c>
-      <c r="D19" s="82"/>
+      <c r="D19" s="69"/>
       <c r="E19" s="9">
         <v>0</v>
       </c>
       <c r="F19" s="9">
         <v>0</v>
       </c>
-      <c r="G19" s="9"/>
+      <c r="G19" s="106">
+        <v>3</v>
+      </c>
       <c r="H19" s="9"/>
       <c r="I19" s="13"/>
       <c r="J19" s="13"/>
@@ -2792,38 +2735,37 @@
       <c r="P19" s="13"/>
       <c r="Q19" s="13"/>
       <c r="R19" s="13"/>
-      <c r="S19" s="67"/>
-      <c r="T19" s="67"/>
-      <c r="U19" s="67"/>
+      <c r="S19" s="58"/>
+      <c r="T19" s="58"/>
+      <c r="U19" s="13"/>
       <c r="V19" s="13"/>
       <c r="W19" s="13"/>
-      <c r="X19" s="13"/>
-      <c r="Y19" s="13"/>
-      <c r="Z19" s="13"/>
-      <c r="AA19" s="74">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AB19" s="68">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="2:28" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="X19" s="51">
+        <f>SUM(E19:W19)</f>
+        <v>3</v>
+      </c>
+      <c r="Y19" s="59">
+        <f t="shared" si="0"/>
+        <v>16.666666666666664</v>
+      </c>
+    </row>
+    <row r="20" spans="2:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B20" s="30">
         <v>7</v>
       </c>
-      <c r="C20" s="82" t="s">
+      <c r="C20" s="69" t="s">
         <v>43</v>
       </c>
-      <c r="D20" s="82"/>
+      <c r="D20" s="69"/>
       <c r="E20" s="9">
         <v>0</v>
       </c>
       <c r="F20" s="9">
         <v>0</v>
       </c>
-      <c r="G20" s="9"/>
+      <c r="G20" s="106">
+        <v>0</v>
+      </c>
       <c r="H20" s="9"/>
       <c r="I20" s="13"/>
       <c r="J20" s="13"/>
@@ -2835,39 +2777,38 @@
       <c r="P20" s="13"/>
       <c r="Q20" s="13"/>
       <c r="R20" s="13"/>
-      <c r="S20" s="67"/>
-      <c r="T20" s="67"/>
-      <c r="U20" s="67"/>
+      <c r="S20" s="58"/>
+      <c r="T20" s="58"/>
+      <c r="U20" s="13"/>
       <c r="V20" s="13"/>
       <c r="W20" s="13"/>
-      <c r="X20" s="13"/>
-      <c r="Y20" s="13"/>
-      <c r="Z20" s="13"/>
-      <c r="AA20" s="74">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AB20" s="68">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="2:28" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="X20" s="51">
+        <f>SUM(E20:W20)</f>
+        <v>0</v>
+      </c>
+      <c r="Y20" s="59">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B21" s="30">
         <v>8</v>
       </c>
-      <c r="C21" s="82" t="s">
+      <c r="C21" s="69" t="s">
         <v>45</v>
       </c>
-      <c r="D21" s="82"/>
+      <c r="D21" s="69"/>
       <c r="E21" s="9">
         <v>3</v>
       </c>
       <c r="F21" s="9">
         <v>3</v>
       </c>
-      <c r="G21" s="13"/>
-      <c r="H21" s="67"/>
+      <c r="G21" s="106">
+        <v>0</v>
+      </c>
+      <c r="H21" s="58"/>
       <c r="I21" s="13"/>
       <c r="J21" s="13"/>
       <c r="K21" s="13"/>
@@ -2878,39 +2819,38 @@
       <c r="P21" s="13"/>
       <c r="Q21" s="13"/>
       <c r="R21" s="13"/>
-      <c r="S21" s="67"/>
-      <c r="T21" s="67"/>
-      <c r="U21" s="67"/>
+      <c r="S21" s="58"/>
+      <c r="T21" s="58"/>
+      <c r="U21" s="13"/>
       <c r="V21" s="13"/>
       <c r="W21" s="13"/>
-      <c r="X21" s="13"/>
-      <c r="Y21" s="13"/>
-      <c r="Z21" s="13"/>
-      <c r="AA21" s="74">
-        <f t="shared" si="0"/>
+      <c r="X21" s="51">
+        <f>SUM(E21:W21)</f>
         <v>6</v>
       </c>
-      <c r="AB21" s="68">
-        <f t="shared" si="1"/>
+      <c r="Y21" s="59">
+        <f t="shared" si="0"/>
         <v>33.333333333333329</v>
       </c>
     </row>
-    <row r="22" spans="2:28" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B22" s="30">
         <v>9</v>
       </c>
-      <c r="C22" s="82" t="s">
+      <c r="C22" s="69" t="s">
         <v>47</v>
       </c>
-      <c r="D22" s="82"/>
+      <c r="D22" s="69"/>
       <c r="E22" s="9">
         <v>3</v>
       </c>
       <c r="F22" s="9">
         <v>3</v>
       </c>
-      <c r="G22" s="13"/>
-      <c r="H22" s="67"/>
+      <c r="G22" s="106">
+        <v>3</v>
+      </c>
+      <c r="H22" s="58"/>
       <c r="I22" s="13"/>
       <c r="J22" s="13"/>
       <c r="K22" s="13"/>
@@ -2921,31 +2861,28 @@
       <c r="P22" s="13"/>
       <c r="Q22" s="13"/>
       <c r="R22" s="13"/>
-      <c r="S22" s="67"/>
-      <c r="T22" s="67"/>
-      <c r="U22" s="67"/>
+      <c r="S22" s="58"/>
+      <c r="T22" s="58"/>
+      <c r="U22" s="13"/>
       <c r="V22" s="13"/>
       <c r="W22" s="13"/>
-      <c r="X22" s="13"/>
-      <c r="Y22" s="13"/>
-      <c r="Z22" s="13"/>
-      <c r="AA22" s="74">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="AB22" s="68">
-        <f t="shared" si="1"/>
-        <v>33.333333333333329</v>
-      </c>
-    </row>
-    <row r="23" spans="2:28" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="X22" s="51">
+        <f>SUM(E22:W22)</f>
+        <v>9</v>
+      </c>
+      <c r="Y22" s="59">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="2:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B23" s="30">
         <v>10</v>
       </c>
-      <c r="C23" s="82" t="s">
+      <c r="C23" s="69" t="s">
         <v>49</v>
       </c>
-      <c r="D23" s="82" t="s">
+      <c r="D23" s="69" t="s">
         <v>126</v>
       </c>
       <c r="E23" s="9">
@@ -2954,8 +2891,10 @@
       <c r="F23" s="9">
         <v>3</v>
       </c>
-      <c r="G23" s="13"/>
-      <c r="H23" s="67"/>
+      <c r="G23" s="106">
+        <v>3</v>
+      </c>
+      <c r="H23" s="58"/>
       <c r="I23" s="13"/>
       <c r="J23" s="13"/>
       <c r="K23" s="13"/>
@@ -2966,31 +2905,28 @@
       <c r="P23" s="13"/>
       <c r="Q23" s="13"/>
       <c r="R23" s="13"/>
-      <c r="S23" s="67"/>
-      <c r="T23" s="67"/>
-      <c r="U23" s="67"/>
+      <c r="S23" s="58"/>
+      <c r="T23" s="58"/>
+      <c r="U23" s="13"/>
       <c r="V23" s="13"/>
       <c r="W23" s="13"/>
-      <c r="X23" s="13"/>
-      <c r="Y23" s="13"/>
-      <c r="Z23" s="13"/>
-      <c r="AA23" s="74">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="AB23" s="68">
-        <f t="shared" si="1"/>
-        <v>33.333333333333329</v>
-      </c>
-    </row>
-    <row r="24" spans="2:28" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="X23" s="51">
+        <f>SUM(E23:W23)</f>
+        <v>9</v>
+      </c>
+      <c r="Y23" s="59">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="2:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B24" s="30">
         <v>11</v>
       </c>
-      <c r="C24" s="82" t="s">
+      <c r="C24" s="69" t="s">
         <v>51</v>
       </c>
-      <c r="D24" s="82" t="s">
+      <c r="D24" s="69" t="s">
         <v>127</v>
       </c>
       <c r="E24" s="9">
@@ -2999,8 +2935,10 @@
       <c r="F24" s="9">
         <v>3</v>
       </c>
-      <c r="G24" s="13"/>
-      <c r="H24" s="67"/>
+      <c r="G24" s="106">
+        <v>3</v>
+      </c>
+      <c r="H24" s="58"/>
       <c r="I24" s="13"/>
       <c r="J24" s="13"/>
       <c r="K24" s="13"/>
@@ -3011,39 +2949,40 @@
       <c r="P24" s="13"/>
       <c r="Q24" s="13"/>
       <c r="R24" s="13"/>
-      <c r="S24" s="67"/>
-      <c r="T24" s="67"/>
-      <c r="U24" s="67"/>
+      <c r="S24" s="58"/>
+      <c r="T24" s="58"/>
+      <c r="U24" s="13"/>
       <c r="V24" s="13"/>
       <c r="W24" s="13"/>
-      <c r="X24" s="13"/>
-      <c r="Y24" s="13"/>
-      <c r="Z24" s="13"/>
-      <c r="AA24" s="74">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="AB24" s="68">
-        <f t="shared" si="1"/>
-        <v>33.333333333333329</v>
-      </c>
-    </row>
-    <row r="25" spans="2:28" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="X24" s="51">
+        <f>SUM(E24:W24)</f>
+        <v>9</v>
+      </c>
+      <c r="Y24" s="59">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" spans="2:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B25" s="30">
         <v>12</v>
       </c>
-      <c r="C25" s="82" t="s">
+      <c r="C25" s="69" t="s">
         <v>53</v>
       </c>
-      <c r="D25" s="82"/>
+      <c r="D25" s="69" t="s">
+        <v>149</v>
+      </c>
       <c r="E25" s="9">
         <v>3</v>
       </c>
       <c r="F25" s="9">
         <v>3</v>
       </c>
-      <c r="G25" s="13"/>
-      <c r="H25" s="67"/>
+      <c r="G25" s="106">
+        <v>3</v>
+      </c>
+      <c r="H25" s="58"/>
       <c r="I25" s="13"/>
       <c r="J25" s="13"/>
       <c r="K25" s="13"/>
@@ -3054,31 +2993,28 @@
       <c r="P25" s="13"/>
       <c r="Q25" s="13"/>
       <c r="R25" s="13"/>
-      <c r="S25" s="67"/>
-      <c r="T25" s="67"/>
-      <c r="U25" s="67"/>
+      <c r="S25" s="58"/>
+      <c r="T25" s="58"/>
+      <c r="U25" s="13"/>
       <c r="V25" s="13"/>
       <c r="W25" s="13"/>
-      <c r="X25" s="13"/>
-      <c r="Y25" s="13"/>
-      <c r="Z25" s="13"/>
-      <c r="AA25" s="74">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="AB25" s="68">
-        <f t="shared" si="1"/>
-        <v>33.333333333333329</v>
-      </c>
-    </row>
-    <row r="26" spans="2:28" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="X25" s="51">
+        <f>SUM(E25:W25)</f>
+        <v>9</v>
+      </c>
+      <c r="Y25" s="59">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="2:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B26" s="30">
         <v>13</v>
       </c>
-      <c r="C26" s="82" t="s">
+      <c r="C26" s="69" t="s">
         <v>111</v>
       </c>
-      <c r="D26" s="82" t="s">
+      <c r="D26" s="69" t="s">
         <v>128</v>
       </c>
       <c r="E26" s="9">
@@ -3087,8 +3023,10 @@
       <c r="F26" s="9">
         <v>3</v>
       </c>
-      <c r="G26" s="13"/>
-      <c r="H26" s="67"/>
+      <c r="G26" s="106">
+        <v>3</v>
+      </c>
+      <c r="H26" s="58"/>
       <c r="I26" s="13"/>
       <c r="J26" s="13"/>
       <c r="K26" s="13"/>
@@ -3099,31 +3037,28 @@
       <c r="P26" s="13"/>
       <c r="Q26" s="13"/>
       <c r="R26" s="13"/>
-      <c r="S26" s="67"/>
-      <c r="T26" s="67"/>
-      <c r="U26" s="67"/>
+      <c r="S26" s="58"/>
+      <c r="T26" s="58"/>
+      <c r="U26" s="13"/>
       <c r="V26" s="13"/>
       <c r="W26" s="13"/>
-      <c r="X26" s="13"/>
-      <c r="Y26" s="13"/>
-      <c r="Z26" s="13"/>
-      <c r="AA26" s="74">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="AB26" s="68">
-        <f t="shared" si="1"/>
-        <v>33.333333333333329</v>
-      </c>
-    </row>
-    <row r="27" spans="2:28" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="X26" s="51">
+        <f>SUM(E26:W26)</f>
+        <v>9</v>
+      </c>
+      <c r="Y26" s="59">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="2:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B27" s="30">
         <v>14</v>
       </c>
-      <c r="C27" s="82" t="s">
+      <c r="C27" s="69" t="s">
         <v>55</v>
       </c>
-      <c r="D27" s="82" t="s">
+      <c r="D27" s="69" t="s">
         <v>129</v>
       </c>
       <c r="E27" s="9">
@@ -3132,8 +3067,10 @@
       <c r="F27" s="9">
         <v>3</v>
       </c>
-      <c r="G27" s="13"/>
-      <c r="H27" s="67"/>
+      <c r="G27" s="106">
+        <v>3</v>
+      </c>
+      <c r="H27" s="58"/>
       <c r="I27" s="13"/>
       <c r="J27" s="13"/>
       <c r="K27" s="13"/>
@@ -3144,31 +3081,28 @@
       <c r="P27" s="13"/>
       <c r="Q27" s="13"/>
       <c r="R27" s="13"/>
-      <c r="S27" s="67"/>
-      <c r="T27" s="67"/>
-      <c r="U27" s="67"/>
+      <c r="S27" s="58"/>
+      <c r="T27" s="58"/>
+      <c r="U27" s="13"/>
       <c r="V27" s="13"/>
       <c r="W27" s="13"/>
-      <c r="X27" s="13"/>
-      <c r="Y27" s="13"/>
-      <c r="Z27" s="13"/>
-      <c r="AA27" s="74">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="AB27" s="68">
-        <f t="shared" si="1"/>
-        <v>33.333333333333329</v>
-      </c>
-    </row>
-    <row r="28" spans="2:28" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="X27" s="51">
+        <f>SUM(E27:W27)</f>
+        <v>9</v>
+      </c>
+      <c r="Y27" s="59">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28" spans="2:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B28" s="30">
         <v>15</v>
       </c>
-      <c r="C28" s="82" t="s">
+      <c r="C28" s="69" t="s">
         <v>57</v>
       </c>
-      <c r="D28" s="82" t="s">
+      <c r="D28" s="69" t="s">
         <v>48</v>
       </c>
       <c r="E28" s="9">
@@ -3177,8 +3111,10 @@
       <c r="F28" s="9">
         <v>3</v>
       </c>
-      <c r="G28" s="13"/>
-      <c r="H28" s="67"/>
+      <c r="G28" s="106">
+        <v>3</v>
+      </c>
+      <c r="H28" s="58"/>
       <c r="I28" s="13"/>
       <c r="J28" s="13"/>
       <c r="K28" s="13"/>
@@ -3189,31 +3125,28 @@
       <c r="P28" s="13"/>
       <c r="Q28" s="13"/>
       <c r="R28" s="13"/>
-      <c r="S28" s="67"/>
-      <c r="T28" s="67"/>
-      <c r="U28" s="67"/>
+      <c r="S28" s="58"/>
+      <c r="T28" s="58"/>
+      <c r="U28" s="13"/>
       <c r="V28" s="13"/>
       <c r="W28" s="13"/>
-      <c r="X28" s="13"/>
-      <c r="Y28" s="13"/>
-      <c r="Z28" s="13"/>
-      <c r="AA28" s="74">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="AB28" s="68">
-        <f t="shared" si="1"/>
-        <v>33.333333333333329</v>
-      </c>
-    </row>
-    <row r="29" spans="2:28" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="X28" s="51">
+        <f>SUM(E28:W28)</f>
+        <v>9</v>
+      </c>
+      <c r="Y28" s="59">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29" spans="2:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B29" s="30">
         <v>16</v>
       </c>
-      <c r="C29" s="82" t="s">
+      <c r="C29" s="69" t="s">
         <v>59</v>
       </c>
-      <c r="D29" s="82" t="s">
+      <c r="D29" s="69" t="s">
         <v>109</v>
       </c>
       <c r="E29" s="9">
@@ -3222,8 +3155,10 @@
       <c r="F29" s="9">
         <v>3</v>
       </c>
-      <c r="G29" s="13"/>
-      <c r="H29" s="67"/>
+      <c r="G29" s="106">
+        <v>3</v>
+      </c>
+      <c r="H29" s="58"/>
       <c r="I29" s="13"/>
       <c r="J29" s="13"/>
       <c r="K29" s="13"/>
@@ -3234,39 +3169,38 @@
       <c r="P29" s="13"/>
       <c r="Q29" s="13"/>
       <c r="R29" s="13"/>
-      <c r="S29" s="67"/>
-      <c r="T29" s="67"/>
-      <c r="U29" s="67"/>
+      <c r="S29" s="58"/>
+      <c r="T29" s="58"/>
+      <c r="U29" s="13"/>
       <c r="V29" s="13"/>
       <c r="W29" s="13"/>
-      <c r="X29" s="13"/>
-      <c r="Y29" s="13"/>
-      <c r="Z29" s="13"/>
-      <c r="AA29" s="74">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="AB29" s="68">
-        <f t="shared" si="1"/>
-        <v>33.333333333333329</v>
-      </c>
-    </row>
-    <row r="30" spans="2:28" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="X29" s="51">
+        <f>SUM(E29:W29)</f>
+        <v>9</v>
+      </c>
+      <c r="Y29" s="59">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="30" spans="2:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B30" s="30">
         <v>17</v>
       </c>
-      <c r="C30" s="82" t="s">
+      <c r="C30" s="69" t="s">
         <v>61</v>
       </c>
-      <c r="D30" s="82"/>
+      <c r="D30" s="69"/>
       <c r="E30" s="9">
         <v>0</v>
       </c>
       <c r="F30" s="9">
         <v>0</v>
       </c>
-      <c r="G30" s="13"/>
-      <c r="H30" s="67"/>
+      <c r="G30" s="106">
+        <v>0</v>
+      </c>
+      <c r="H30" s="58"/>
       <c r="I30" s="13"/>
       <c r="J30" s="13"/>
       <c r="K30" s="13"/>
@@ -3277,31 +3211,28 @@
       <c r="P30" s="13"/>
       <c r="Q30" s="13"/>
       <c r="R30" s="13"/>
-      <c r="S30" s="67"/>
-      <c r="T30" s="67"/>
-      <c r="U30" s="67"/>
+      <c r="S30" s="58"/>
+      <c r="T30" s="58"/>
+      <c r="U30" s="13"/>
       <c r="V30" s="13"/>
       <c r="W30" s="13"/>
-      <c r="X30" s="13"/>
-      <c r="Y30" s="13"/>
-      <c r="Z30" s="13"/>
-      <c r="AA30" s="74">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AB30" s="68">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="2:28" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="X30" s="51">
+        <f>SUM(E30:W30)</f>
+        <v>0</v>
+      </c>
+      <c r="Y30" s="59">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="2:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B31" s="30">
         <v>18</v>
       </c>
-      <c r="C31" s="82" t="s">
+      <c r="C31" s="69" t="s">
         <v>63</v>
       </c>
-      <c r="D31" s="82" t="s">
+      <c r="D31" s="69" t="s">
         <v>130</v>
       </c>
       <c r="E31" s="9">
@@ -3310,8 +3241,10 @@
       <c r="F31" s="9">
         <v>3</v>
       </c>
-      <c r="G31" s="13"/>
-      <c r="H31" s="67"/>
+      <c r="G31" s="106">
+        <v>3</v>
+      </c>
+      <c r="H31" s="58"/>
       <c r="I31" s="13"/>
       <c r="J31" s="13"/>
       <c r="K31" s="13"/>
@@ -3322,39 +3255,38 @@
       <c r="P31" s="13"/>
       <c r="Q31" s="13"/>
       <c r="R31" s="13"/>
-      <c r="S31" s="67"/>
-      <c r="T31" s="67"/>
-      <c r="U31" s="67"/>
+      <c r="S31" s="58"/>
+      <c r="T31" s="58"/>
+      <c r="U31" s="13"/>
       <c r="V31" s="13"/>
       <c r="W31" s="13"/>
-      <c r="X31" s="13"/>
-      <c r="Y31" s="13"/>
-      <c r="Z31" s="13"/>
-      <c r="AA31" s="74">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="AB31" s="68">
-        <f t="shared" si="1"/>
-        <v>33.333333333333329</v>
-      </c>
-    </row>
-    <row r="32" spans="2:28" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="X31" s="51">
+        <f>SUM(E31:W31)</f>
+        <v>9</v>
+      </c>
+      <c r="Y31" s="59">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="32" spans="2:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B32" s="30">
         <v>19</v>
       </c>
-      <c r="C32" s="82" t="s">
+      <c r="C32" s="69" t="s">
         <v>65</v>
       </c>
-      <c r="D32" s="82"/>
+      <c r="D32" s="69"/>
       <c r="E32" s="9">
         <v>3</v>
       </c>
       <c r="F32" s="9">
         <v>3</v>
       </c>
-      <c r="G32" s="13"/>
-      <c r="H32" s="67"/>
+      <c r="G32" s="106">
+        <v>3</v>
+      </c>
+      <c r="H32" s="58"/>
       <c r="I32" s="13"/>
       <c r="J32" s="13"/>
       <c r="K32" s="13"/>
@@ -3365,31 +3297,28 @@
       <c r="P32" s="13"/>
       <c r="Q32" s="13"/>
       <c r="R32" s="13"/>
-      <c r="S32" s="67"/>
-      <c r="T32" s="67"/>
-      <c r="U32" s="67"/>
+      <c r="S32" s="58"/>
+      <c r="T32" s="58"/>
+      <c r="U32" s="13"/>
       <c r="V32" s="13"/>
       <c r="W32" s="13"/>
-      <c r="X32" s="13"/>
-      <c r="Y32" s="13"/>
-      <c r="Z32" s="13"/>
-      <c r="AA32" s="74">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="AB32" s="68">
-        <f t="shared" si="1"/>
-        <v>33.333333333333329</v>
-      </c>
-    </row>
-    <row r="33" spans="2:28" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="X32" s="51">
+        <f>SUM(E32:W32)</f>
+        <v>9</v>
+      </c>
+      <c r="Y32" s="59">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="33" spans="2:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B33" s="30">
         <v>20</v>
       </c>
-      <c r="C33" s="82" t="s">
+      <c r="C33" s="69" t="s">
         <v>112</v>
       </c>
-      <c r="D33" s="82" t="s">
+      <c r="D33" s="69" t="s">
         <v>131</v>
       </c>
       <c r="E33" s="9">
@@ -3398,8 +3327,10 @@
       <c r="F33" s="9">
         <v>3</v>
       </c>
-      <c r="G33" s="13"/>
-      <c r="H33" s="67"/>
+      <c r="G33" s="106">
+        <v>3</v>
+      </c>
+      <c r="H33" s="58"/>
       <c r="I33" s="13"/>
       <c r="J33" s="13"/>
       <c r="K33" s="13"/>
@@ -3410,39 +3341,40 @@
       <c r="P33" s="13"/>
       <c r="Q33" s="13"/>
       <c r="R33" s="13"/>
-      <c r="S33" s="67"/>
-      <c r="T33" s="67"/>
-      <c r="U33" s="67"/>
+      <c r="S33" s="58"/>
+      <c r="T33" s="58"/>
+      <c r="U33" s="13"/>
       <c r="V33" s="13"/>
       <c r="W33" s="13"/>
-      <c r="X33" s="13"/>
-      <c r="Y33" s="13"/>
-      <c r="Z33" s="13"/>
-      <c r="AA33" s="74">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="AB33" s="68">
-        <f t="shared" si="1"/>
-        <v>33.333333333333329</v>
-      </c>
-    </row>
-    <row r="34" spans="2:28" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="X33" s="51">
+        <f>SUM(E33:W33)</f>
+        <v>9</v>
+      </c>
+      <c r="Y33" s="59">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="34" spans="2:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B34" s="30">
         <v>21</v>
       </c>
-      <c r="C34" s="82" t="s">
+      <c r="C34" s="69" t="s">
         <v>66</v>
       </c>
-      <c r="D34" s="82"/>
+      <c r="D34" s="69" t="s">
+        <v>146</v>
+      </c>
       <c r="E34" s="9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F34" s="9">
-        <v>0</v>
-      </c>
-      <c r="G34" s="13"/>
-      <c r="H34" s="67"/>
+        <v>3</v>
+      </c>
+      <c r="G34" s="106">
+        <v>3</v>
+      </c>
+      <c r="H34" s="58"/>
       <c r="I34" s="13"/>
       <c r="J34" s="13"/>
       <c r="K34" s="13"/>
@@ -3453,31 +3385,28 @@
       <c r="P34" s="13"/>
       <c r="Q34" s="13"/>
       <c r="R34" s="13"/>
-      <c r="S34" s="67"/>
-      <c r="T34" s="67"/>
-      <c r="U34" s="67"/>
+      <c r="S34" s="58"/>
+      <c r="T34" s="58"/>
+      <c r="U34" s="13"/>
       <c r="V34" s="13"/>
       <c r="W34" s="13"/>
-      <c r="X34" s="13"/>
-      <c r="Y34" s="13"/>
-      <c r="Z34" s="13"/>
-      <c r="AA34" s="74">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AB34" s="68">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="2:28" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="X34" s="51">
+        <f>SUM(E34:W34)</f>
+        <v>9</v>
+      </c>
+      <c r="Y34" s="59">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B35" s="30">
         <v>22</v>
       </c>
-      <c r="C35" s="82" t="s">
+      <c r="C35" s="69" t="s">
         <v>68</v>
       </c>
-      <c r="D35" s="82" t="s">
+      <c r="D35" s="69" t="s">
         <v>132</v>
       </c>
       <c r="E35" s="9">
@@ -3486,8 +3415,10 @@
       <c r="F35" s="9">
         <v>3</v>
       </c>
-      <c r="G35" s="13"/>
-      <c r="H35" s="67"/>
+      <c r="G35" s="106">
+        <v>3</v>
+      </c>
+      <c r="H35" s="58"/>
       <c r="I35" s="13"/>
       <c r="J35" s="13"/>
       <c r="K35" s="13"/>
@@ -3498,39 +3429,38 @@
       <c r="P35" s="13"/>
       <c r="Q35" s="13"/>
       <c r="R35" s="13"/>
-      <c r="S35" s="67"/>
-      <c r="T35" s="67"/>
-      <c r="U35" s="67"/>
+      <c r="S35" s="58"/>
+      <c r="T35" s="58"/>
+      <c r="U35" s="13"/>
       <c r="V35" s="13"/>
       <c r="W35" s="13"/>
-      <c r="X35" s="13"/>
-      <c r="Y35" s="13"/>
-      <c r="Z35" s="13"/>
-      <c r="AA35" s="74">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="AB35" s="68">
-        <f t="shared" si="1"/>
-        <v>33.333333333333329</v>
-      </c>
-    </row>
-    <row r="36" spans="2:28" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="X35" s="51">
+        <f>SUM(E35:W35)</f>
+        <v>9</v>
+      </c>
+      <c r="Y35" s="59">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="36" spans="2:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B36" s="30">
         <v>23</v>
       </c>
-      <c r="C36" s="82" t="s">
+      <c r="C36" s="69" t="s">
         <v>113</v>
       </c>
-      <c r="D36" s="82"/>
+      <c r="D36" s="69"/>
       <c r="E36" s="9">
         <v>3</v>
       </c>
       <c r="F36" s="9">
         <v>3</v>
       </c>
-      <c r="G36" s="13"/>
-      <c r="H36" s="67"/>
+      <c r="G36" s="106">
+        <v>3</v>
+      </c>
+      <c r="H36" s="58"/>
       <c r="I36" s="13"/>
       <c r="J36" s="13"/>
       <c r="K36" s="13"/>
@@ -3541,31 +3471,28 @@
       <c r="P36" s="13"/>
       <c r="Q36" s="13"/>
       <c r="R36" s="13"/>
-      <c r="S36" s="67"/>
-      <c r="T36" s="67"/>
-      <c r="U36" s="67"/>
+      <c r="S36" s="58"/>
+      <c r="T36" s="58"/>
+      <c r="U36" s="13"/>
       <c r="V36" s="13"/>
       <c r="W36" s="13"/>
-      <c r="X36" s="13"/>
-      <c r="Y36" s="13"/>
-      <c r="Z36" s="13"/>
-      <c r="AA36" s="74">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="AB36" s="68">
-        <f t="shared" si="1"/>
-        <v>33.333333333333329</v>
-      </c>
-    </row>
-    <row r="37" spans="2:28" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="X36" s="51">
+        <f>SUM(E36:W36)</f>
+        <v>9</v>
+      </c>
+      <c r="Y36" s="59">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="37" spans="2:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B37" s="30">
         <v>24</v>
       </c>
-      <c r="C37" s="82" t="s">
+      <c r="C37" s="69" t="s">
         <v>70</v>
       </c>
-      <c r="D37" s="82" t="s">
+      <c r="D37" s="69" t="s">
         <v>108</v>
       </c>
       <c r="E37" s="9">
@@ -3574,8 +3501,10 @@
       <c r="F37" s="9">
         <v>3</v>
       </c>
-      <c r="G37" s="13"/>
-      <c r="H37" s="67"/>
+      <c r="G37" s="106">
+        <v>3</v>
+      </c>
+      <c r="H37" s="58"/>
       <c r="I37" s="13"/>
       <c r="J37" s="13"/>
       <c r="K37" s="13"/>
@@ -3586,31 +3515,28 @@
       <c r="P37" s="13"/>
       <c r="Q37" s="13"/>
       <c r="R37" s="13"/>
-      <c r="S37" s="67"/>
-      <c r="T37" s="67"/>
-      <c r="U37" s="67"/>
+      <c r="S37" s="58"/>
+      <c r="T37" s="58"/>
+      <c r="U37" s="13"/>
       <c r="V37" s="13"/>
       <c r="W37" s="13"/>
-      <c r="X37" s="13"/>
-      <c r="Y37" s="13"/>
-      <c r="Z37" s="13"/>
-      <c r="AA37" s="74">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="AB37" s="68">
-        <f t="shared" si="1"/>
-        <v>33.333333333333329</v>
-      </c>
-    </row>
-    <row r="38" spans="2:28" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="X37" s="51">
+        <f>SUM(E37:W37)</f>
+        <v>9</v>
+      </c>
+      <c r="Y37" s="59">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="38" spans="2:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B38" s="30">
         <v>25</v>
       </c>
-      <c r="C38" s="82" t="s">
+      <c r="C38" s="69" t="s">
         <v>72</v>
       </c>
-      <c r="D38" s="82" t="s">
+      <c r="D38" s="69" t="s">
         <v>133</v>
       </c>
       <c r="E38" s="9">
@@ -3619,8 +3545,10 @@
       <c r="F38" s="9">
         <v>3</v>
       </c>
-      <c r="G38" s="13"/>
-      <c r="H38" s="67"/>
+      <c r="G38" s="106">
+        <v>3</v>
+      </c>
+      <c r="H38" s="58"/>
       <c r="I38" s="13"/>
       <c r="J38" s="13"/>
       <c r="K38" s="13"/>
@@ -3631,31 +3559,28 @@
       <c r="P38" s="13"/>
       <c r="Q38" s="13"/>
       <c r="R38" s="13"/>
-      <c r="S38" s="67"/>
-      <c r="T38" s="67"/>
-      <c r="U38" s="67"/>
+      <c r="S38" s="58"/>
+      <c r="T38" s="58"/>
+      <c r="U38" s="13"/>
       <c r="V38" s="13"/>
       <c r="W38" s="13"/>
-      <c r="X38" s="13"/>
-      <c r="Y38" s="13"/>
-      <c r="Z38" s="13"/>
-      <c r="AA38" s="74">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="AB38" s="68">
-        <f t="shared" si="1"/>
-        <v>33.333333333333329</v>
-      </c>
-    </row>
-    <row r="39" spans="2:28" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="X38" s="51">
+        <f>SUM(E38:W38)</f>
+        <v>9</v>
+      </c>
+      <c r="Y38" s="59">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="39" spans="2:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B39" s="30">
         <v>26</v>
       </c>
-      <c r="C39" s="82" t="s">
+      <c r="C39" s="69" t="s">
         <v>74</v>
       </c>
-      <c r="D39" s="82" t="s">
+      <c r="D39" s="69" t="s">
         <v>134</v>
       </c>
       <c r="E39" s="9">
@@ -3664,8 +3589,10 @@
       <c r="F39" s="9">
         <v>3</v>
       </c>
-      <c r="G39" s="13"/>
-      <c r="H39" s="67"/>
+      <c r="G39" s="106">
+        <v>3</v>
+      </c>
+      <c r="H39" s="58"/>
       <c r="I39" s="13"/>
       <c r="J39" s="13"/>
       <c r="K39" s="13"/>
@@ -3676,31 +3603,28 @@
       <c r="P39" s="13"/>
       <c r="Q39" s="13"/>
       <c r="R39" s="13"/>
-      <c r="S39" s="67"/>
-      <c r="T39" s="67"/>
-      <c r="U39" s="67"/>
+      <c r="S39" s="58"/>
+      <c r="T39" s="58"/>
+      <c r="U39" s="13"/>
       <c r="V39" s="13"/>
       <c r="W39" s="13"/>
-      <c r="X39" s="13"/>
-      <c r="Y39" s="13"/>
-      <c r="Z39" s="13"/>
-      <c r="AA39" s="74">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="AB39" s="68">
-        <f t="shared" si="1"/>
-        <v>33.333333333333329</v>
-      </c>
-    </row>
-    <row r="40" spans="2:28" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="X39" s="51">
+        <f>SUM(E39:W39)</f>
+        <v>9</v>
+      </c>
+      <c r="Y39" s="59">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="40" spans="2:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B40" s="30">
         <v>27</v>
       </c>
-      <c r="C40" s="82" t="s">
+      <c r="C40" s="69" t="s">
         <v>76</v>
       </c>
-      <c r="D40" s="82" t="s">
+      <c r="D40" s="69" t="s">
         <v>135</v>
       </c>
       <c r="E40" s="9">
@@ -3709,8 +3633,10 @@
       <c r="F40" s="9">
         <v>3</v>
       </c>
-      <c r="G40" s="13"/>
-      <c r="H40" s="67"/>
+      <c r="G40" s="106">
+        <v>3</v>
+      </c>
+      <c r="H40" s="58"/>
       <c r="I40" s="13"/>
       <c r="J40" s="13"/>
       <c r="K40" s="13"/>
@@ -3721,31 +3647,28 @@
       <c r="P40" s="13"/>
       <c r="Q40" s="13"/>
       <c r="R40" s="13"/>
-      <c r="S40" s="67"/>
-      <c r="T40" s="67"/>
-      <c r="U40" s="67"/>
+      <c r="S40" s="58"/>
+      <c r="T40" s="58"/>
+      <c r="U40" s="13"/>
       <c r="V40" s="13"/>
       <c r="W40" s="13"/>
-      <c r="X40" s="13"/>
-      <c r="Y40" s="13"/>
-      <c r="Z40" s="13"/>
-      <c r="AA40" s="74">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="AB40" s="68">
-        <f t="shared" si="1"/>
-        <v>33.333333333333329</v>
-      </c>
-    </row>
-    <row r="41" spans="2:28" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="X40" s="51">
+        <f>SUM(E40:W40)</f>
+        <v>9</v>
+      </c>
+      <c r="Y40" s="59">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="41" spans="2:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B41" s="30">
         <v>28</v>
       </c>
-      <c r="C41" s="82" t="s">
+      <c r="C41" s="69" t="s">
         <v>114</v>
       </c>
-      <c r="D41" s="82" t="s">
+      <c r="D41" s="69" t="s">
         <v>136</v>
       </c>
       <c r="E41" s="9">
@@ -3754,8 +3677,10 @@
       <c r="F41" s="9">
         <v>3</v>
       </c>
-      <c r="G41" s="13"/>
-      <c r="H41" s="67"/>
+      <c r="G41" s="106">
+        <v>3</v>
+      </c>
+      <c r="H41" s="58"/>
       <c r="I41" s="13"/>
       <c r="J41" s="13"/>
       <c r="K41" s="13"/>
@@ -3766,29 +3691,26 @@
       <c r="P41" s="13"/>
       <c r="Q41" s="13"/>
       <c r="R41" s="13"/>
-      <c r="S41" s="67"/>
-      <c r="T41" s="67"/>
-      <c r="U41" s="67"/>
+      <c r="S41" s="58"/>
+      <c r="T41" s="58"/>
+      <c r="U41" s="13"/>
       <c r="V41" s="13"/>
       <c r="W41" s="13"/>
-      <c r="X41" s="13"/>
-      <c r="Y41" s="13"/>
-      <c r="Z41" s="13"/>
-      <c r="AA41" s="74">
+      <c r="X41" s="51">
         <v>6</v>
       </c>
-      <c r="AB41" s="68">
+      <c r="Y41" s="59">
         <v>100</v>
       </c>
     </row>
-    <row r="42" spans="2:28" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="42" spans="2:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B42" s="30">
         <v>29</v>
       </c>
-      <c r="C42" s="82" t="s">
+      <c r="C42" s="69" t="s">
         <v>78</v>
       </c>
-      <c r="D42" s="82" t="s">
+      <c r="D42" s="69" t="s">
         <v>137</v>
       </c>
       <c r="E42" s="9">
@@ -3797,8 +3719,10 @@
       <c r="F42" s="9">
         <v>3</v>
       </c>
-      <c r="G42" s="13"/>
-      <c r="H42" s="67"/>
+      <c r="G42" s="106">
+        <v>3</v>
+      </c>
+      <c r="H42" s="58"/>
       <c r="I42" s="13"/>
       <c r="J42" s="13"/>
       <c r="K42" s="13"/>
@@ -3809,31 +3733,28 @@
       <c r="P42" s="13"/>
       <c r="Q42" s="13"/>
       <c r="R42" s="13"/>
-      <c r="S42" s="67"/>
-      <c r="T42" s="67"/>
-      <c r="U42" s="67"/>
+      <c r="S42" s="58"/>
+      <c r="T42" s="58"/>
+      <c r="U42" s="13"/>
       <c r="V42" s="13"/>
       <c r="W42" s="13"/>
-      <c r="X42" s="13"/>
-      <c r="Y42" s="13"/>
-      <c r="Z42" s="13"/>
-      <c r="AA42" s="74">
-        <f t="shared" ref="AA42:AA44" si="2">SUM(E42:Z42)</f>
-        <v>6</v>
-      </c>
-      <c r="AB42" s="68">
-        <f t="shared" ref="AB42:AB44" si="3">(AA42/$AA$12)*100</f>
-        <v>33.333333333333329</v>
-      </c>
-    </row>
-    <row r="43" spans="2:28" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="X42" s="51">
+        <f>SUM(E42:W42)</f>
+        <v>9</v>
+      </c>
+      <c r="Y42" s="59">
+        <f t="shared" ref="Y42:Y44" si="1">(X42/$X$12)*100</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B43" s="30">
         <v>30</v>
       </c>
-      <c r="C43" s="82" t="s">
+      <c r="C43" s="69" t="s">
         <v>115</v>
       </c>
-      <c r="D43" s="82" t="s">
+      <c r="D43" s="69" t="s">
         <v>138</v>
       </c>
       <c r="E43" s="9">
@@ -3842,8 +3763,10 @@
       <c r="F43" s="9">
         <v>3</v>
       </c>
-      <c r="G43" s="13"/>
-      <c r="H43" s="67"/>
+      <c r="G43" s="106">
+        <v>3</v>
+      </c>
+      <c r="H43" s="58"/>
       <c r="I43" s="13"/>
       <c r="J43" s="13"/>
       <c r="K43" s="13"/>
@@ -3854,31 +3777,28 @@
       <c r="P43" s="13"/>
       <c r="Q43" s="13"/>
       <c r="R43" s="13"/>
-      <c r="S43" s="67"/>
-      <c r="T43" s="67"/>
-      <c r="U43" s="67"/>
+      <c r="S43" s="58"/>
+      <c r="T43" s="58"/>
+      <c r="U43" s="13"/>
       <c r="V43" s="13"/>
       <c r="W43" s="13"/>
-      <c r="X43" s="13"/>
-      <c r="Y43" s="13"/>
-      <c r="Z43" s="13"/>
-      <c r="AA43" s="74">
-        <f t="shared" si="2"/>
-        <v>6</v>
-      </c>
-      <c r="AB43" s="68">
-        <f t="shared" si="3"/>
-        <v>33.333333333333329</v>
-      </c>
-    </row>
-    <row r="44" spans="2:28" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="X43" s="51">
+        <f>SUM(E43:W43)</f>
+        <v>9</v>
+      </c>
+      <c r="Y43" s="59">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="44" spans="2:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B44" s="30">
         <v>31</v>
       </c>
-      <c r="C44" s="82" t="s">
+      <c r="C44" s="69" t="s">
         <v>80</v>
       </c>
-      <c r="D44" s="82" t="s">
+      <c r="D44" s="69" t="s">
         <v>139</v>
       </c>
       <c r="E44" s="9">
@@ -3887,8 +3807,10 @@
       <c r="F44" s="9">
         <v>3</v>
       </c>
-      <c r="G44" s="13"/>
-      <c r="H44" s="67"/>
+      <c r="G44" s="106">
+        <v>0</v>
+      </c>
+      <c r="H44" s="58"/>
       <c r="I44" s="13"/>
       <c r="J44" s="13"/>
       <c r="K44" s="13"/>
@@ -3899,31 +3821,28 @@
       <c r="P44" s="13"/>
       <c r="Q44" s="13"/>
       <c r="R44" s="13"/>
-      <c r="S44" s="67"/>
-      <c r="T44" s="67"/>
-      <c r="U44" s="67"/>
+      <c r="S44" s="58"/>
+      <c r="T44" s="58"/>
+      <c r="U44" s="13"/>
       <c r="V44" s="13"/>
       <c r="W44" s="13"/>
-      <c r="X44" s="13"/>
-      <c r="Y44" s="13"/>
-      <c r="Z44" s="13"/>
-      <c r="AA44" s="74">
-        <f t="shared" si="2"/>
+      <c r="X44" s="51">
+        <f>SUM(E44:W44)</f>
         <v>6</v>
       </c>
-      <c r="AB44" s="68">
-        <f t="shared" si="3"/>
+      <c r="Y44" s="59">
+        <f t="shared" si="1"/>
         <v>33.333333333333329</v>
       </c>
     </row>
-    <row r="45" spans="2:28" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="45" spans="2:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B45" s="30">
         <v>32</v>
       </c>
-      <c r="C45" s="82" t="s">
+      <c r="C45" s="69" t="s">
         <v>82</v>
       </c>
-      <c r="D45" s="82" t="s">
+      <c r="D45" s="69" t="s">
         <v>140</v>
       </c>
       <c r="E45" s="9">
@@ -3932,8 +3851,10 @@
       <c r="F45" s="9">
         <v>3</v>
       </c>
-      <c r="G45" s="13"/>
-      <c r="H45" s="67"/>
+      <c r="G45" s="106">
+        <v>3</v>
+      </c>
+      <c r="H45" s="58"/>
       <c r="I45" s="13"/>
       <c r="J45" s="13"/>
       <c r="K45" s="13"/>
@@ -3944,29 +3865,26 @@
       <c r="P45" s="13"/>
       <c r="Q45" s="13"/>
       <c r="R45" s="13"/>
-      <c r="S45" s="67"/>
-      <c r="T45" s="67"/>
-      <c r="U45" s="67"/>
+      <c r="S45" s="58"/>
+      <c r="T45" s="58"/>
+      <c r="U45" s="13"/>
       <c r="V45" s="13"/>
       <c r="W45" s="13"/>
-      <c r="X45" s="13"/>
-      <c r="Y45" s="13"/>
-      <c r="Z45" s="13"/>
-      <c r="AA45" s="74">
+      <c r="X45" s="51">
         <v>6</v>
       </c>
-      <c r="AB45" s="68">
+      <c r="Y45" s="59">
         <v>100</v>
       </c>
     </row>
-    <row r="46" spans="2:28" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="46" spans="2:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B46" s="30">
         <v>33</v>
       </c>
-      <c r="C46" s="82" t="s">
+      <c r="C46" s="69" t="s">
         <v>84</v>
       </c>
-      <c r="D46" s="82" t="s">
+      <c r="D46" s="69" t="s">
         <v>141</v>
       </c>
       <c r="E46" s="9">
@@ -3975,8 +3893,10 @@
       <c r="F46" s="9">
         <v>0</v>
       </c>
-      <c r="G46" s="13"/>
-      <c r="H46" s="67"/>
+      <c r="G46" s="106">
+        <v>3</v>
+      </c>
+      <c r="H46" s="58"/>
       <c r="I46" s="13"/>
       <c r="J46" s="13"/>
       <c r="K46" s="13"/>
@@ -3987,39 +3907,38 @@
       <c r="P46" s="13"/>
       <c r="Q46" s="13"/>
       <c r="R46" s="13"/>
-      <c r="S46" s="67"/>
-      <c r="T46" s="67"/>
-      <c r="U46" s="67"/>
+      <c r="S46" s="58"/>
+      <c r="T46" s="58"/>
+      <c r="U46" s="13"/>
       <c r="V46" s="13"/>
       <c r="W46" s="13"/>
-      <c r="X46" s="13"/>
-      <c r="Y46" s="13"/>
-      <c r="Z46" s="13"/>
-      <c r="AA46" s="74">
-        <f t="shared" ref="AA46:AA48" si="4">SUM(E46:Z46)</f>
-        <v>0</v>
-      </c>
-      <c r="AB46" s="68">
-        <f t="shared" ref="AB46:AB48" si="5">(AA46/$AA$12)*100</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="2:28" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="X46" s="51">
+        <f>SUM(E46:W46)</f>
+        <v>3</v>
+      </c>
+      <c r="Y46" s="59">
+        <f t="shared" ref="Y46:Y48" si="2">(X46/$X$12)*100</f>
+        <v>16.666666666666664</v>
+      </c>
+    </row>
+    <row r="47" spans="2:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B47" s="30">
         <v>34</v>
       </c>
-      <c r="C47" s="82" t="s">
+      <c r="C47" s="69" t="s">
         <v>116</v>
       </c>
-      <c r="D47" s="82"/>
+      <c r="D47" s="69"/>
       <c r="E47" s="9">
         <v>3</v>
       </c>
       <c r="F47" s="9">
         <v>3</v>
       </c>
-      <c r="G47" s="13"/>
-      <c r="H47" s="67"/>
+      <c r="G47" s="106">
+        <v>3</v>
+      </c>
+      <c r="H47" s="58"/>
       <c r="I47" s="13"/>
       <c r="J47" s="13"/>
       <c r="K47" s="13"/>
@@ -4030,39 +3949,40 @@
       <c r="P47" s="13"/>
       <c r="Q47" s="13"/>
       <c r="R47" s="13"/>
-      <c r="S47" s="67"/>
-      <c r="T47" s="67"/>
-      <c r="U47" s="67"/>
+      <c r="S47" s="58"/>
+      <c r="T47" s="58"/>
+      <c r="U47" s="13"/>
       <c r="V47" s="13"/>
       <c r="W47" s="13"/>
-      <c r="X47" s="13"/>
-      <c r="Y47" s="13"/>
-      <c r="Z47" s="13"/>
-      <c r="AA47" s="74">
-        <f t="shared" si="4"/>
-        <v>6</v>
-      </c>
-      <c r="AB47" s="68">
-        <f t="shared" si="5"/>
-        <v>33.333333333333329</v>
-      </c>
-    </row>
-    <row r="48" spans="2:28" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="X47" s="51">
+        <f>SUM(E47:W47)</f>
+        <v>9</v>
+      </c>
+      <c r="Y47" s="59">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="48" spans="2:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B48" s="30">
         <v>35</v>
       </c>
-      <c r="C48" s="82" t="s">
+      <c r="C48" s="69" t="s">
         <v>117</v>
       </c>
-      <c r="D48" s="82"/>
+      <c r="D48" s="69" t="s">
+        <v>150</v>
+      </c>
       <c r="E48" s="9">
         <v>0</v>
       </c>
       <c r="F48" s="9">
         <v>0</v>
       </c>
-      <c r="G48" s="13"/>
-      <c r="H48" s="67"/>
+      <c r="G48" s="106">
+        <v>3</v>
+      </c>
+      <c r="H48" s="58"/>
       <c r="I48" s="13"/>
       <c r="J48" s="13"/>
       <c r="K48" s="13"/>
@@ -4073,39 +3993,40 @@
       <c r="P48" s="13"/>
       <c r="Q48" s="13"/>
       <c r="R48" s="13"/>
-      <c r="S48" s="67"/>
-      <c r="T48" s="67"/>
-      <c r="U48" s="67"/>
+      <c r="S48" s="58"/>
+      <c r="T48" s="58"/>
+      <c r="U48" s="13"/>
       <c r="V48" s="13"/>
       <c r="W48" s="13"/>
-      <c r="X48" s="13"/>
-      <c r="Y48" s="13"/>
-      <c r="Z48" s="13"/>
-      <c r="AA48" s="74">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AB48" s="68">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="2:35" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="X48" s="51">
+        <f>SUM(E48:W48)</f>
+        <v>3</v>
+      </c>
+      <c r="Y48" s="59">
+        <f t="shared" si="2"/>
+        <v>16.666666666666664</v>
+      </c>
+    </row>
+    <row r="49" spans="2:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B49" s="30">
         <v>36</v>
       </c>
-      <c r="C49" s="82" t="s">
+      <c r="C49" s="69" t="s">
         <v>118</v>
       </c>
-      <c r="D49" s="82"/>
+      <c r="D49" s="69" t="s">
+        <v>151</v>
+      </c>
       <c r="E49" s="9">
         <v>0</v>
       </c>
       <c r="F49" s="9">
         <v>0</v>
       </c>
-      <c r="G49" s="13"/>
-      <c r="H49" s="67"/>
+      <c r="G49" s="106">
+        <v>3</v>
+      </c>
+      <c r="H49" s="58"/>
       <c r="I49" s="13"/>
       <c r="J49" s="13"/>
       <c r="K49" s="13"/>
@@ -4116,29 +4037,26 @@
       <c r="P49" s="13"/>
       <c r="Q49" s="13"/>
       <c r="R49" s="13"/>
-      <c r="S49" s="67"/>
-      <c r="T49" s="67"/>
-      <c r="U49" s="67"/>
+      <c r="S49" s="58"/>
+      <c r="T49" s="58"/>
+      <c r="U49" s="13"/>
       <c r="V49" s="13"/>
       <c r="W49" s="13"/>
-      <c r="X49" s="13"/>
-      <c r="Y49" s="13"/>
-      <c r="Z49" s="13"/>
-      <c r="AA49" s="74">
+      <c r="X49" s="51">
         <v>6</v>
       </c>
-      <c r="AB49" s="68">
+      <c r="Y49" s="59">
         <v>100</v>
       </c>
     </row>
-    <row r="50" spans="2:35" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="50" spans="2:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B50" s="30">
         <v>37</v>
       </c>
-      <c r="C50" s="82" t="s">
+      <c r="C50" s="69" t="s">
         <v>119</v>
       </c>
-      <c r="D50" s="82" t="s">
+      <c r="D50" s="69" t="s">
         <v>142</v>
       </c>
       <c r="E50" s="9">
@@ -4147,8 +4065,10 @@
       <c r="F50" s="9">
         <v>3</v>
       </c>
-      <c r="G50" s="13"/>
-      <c r="H50" s="67"/>
+      <c r="G50" s="106">
+        <v>3</v>
+      </c>
+      <c r="H50" s="58"/>
       <c r="I50" s="13"/>
       <c r="J50" s="13"/>
       <c r="K50" s="13"/>
@@ -4159,31 +4079,28 @@
       <c r="P50" s="13"/>
       <c r="Q50" s="13"/>
       <c r="R50" s="13"/>
-      <c r="S50" s="67"/>
-      <c r="T50" s="67"/>
-      <c r="U50" s="67"/>
+      <c r="S50" s="58"/>
+      <c r="T50" s="58"/>
+      <c r="U50" s="13"/>
       <c r="V50" s="13"/>
       <c r="W50" s="13"/>
-      <c r="X50" s="13"/>
-      <c r="Y50" s="13"/>
-      <c r="Z50" s="13"/>
-      <c r="AA50" s="74">
-        <f t="shared" ref="AA50:AA52" si="6">SUM(E50:Z50)</f>
-        <v>6</v>
-      </c>
-      <c r="AB50" s="68">
-        <f t="shared" ref="AB50:AB52" si="7">(AA50/$AA$12)*100</f>
-        <v>33.333333333333329</v>
-      </c>
-    </row>
-    <row r="51" spans="2:35" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="X50" s="51">
+        <f>SUM(E50:W50)</f>
+        <v>9</v>
+      </c>
+      <c r="Y50" s="59">
+        <f t="shared" ref="Y50:Y52" si="3">(X50/$X$12)*100</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="51" spans="2:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B51" s="30">
         <v>38</v>
       </c>
-      <c r="C51" s="82" t="s">
+      <c r="C51" s="69" t="s">
         <v>120</v>
       </c>
-      <c r="D51" s="82" t="s">
+      <c r="D51" s="69" t="s">
         <v>143</v>
       </c>
       <c r="E51" s="9">
@@ -4192,8 +4109,10 @@
       <c r="F51" s="9">
         <v>3</v>
       </c>
-      <c r="G51" s="13"/>
-      <c r="H51" s="67"/>
+      <c r="G51" s="106">
+        <v>3</v>
+      </c>
+      <c r="H51" s="58"/>
       <c r="I51" s="13"/>
       <c r="J51" s="13"/>
       <c r="K51" s="13"/>
@@ -4204,31 +4123,28 @@
       <c r="P51" s="13"/>
       <c r="Q51" s="13"/>
       <c r="R51" s="13"/>
-      <c r="S51" s="67"/>
-      <c r="T51" s="67"/>
-      <c r="U51" s="67"/>
+      <c r="S51" s="58"/>
+      <c r="T51" s="58"/>
+      <c r="U51" s="13"/>
       <c r="V51" s="13"/>
       <c r="W51" s="13"/>
-      <c r="X51" s="13"/>
-      <c r="Y51" s="13"/>
-      <c r="Z51" s="13"/>
-      <c r="AA51" s="74">
-        <f t="shared" si="6"/>
-        <v>6</v>
-      </c>
-      <c r="AB51" s="68">
-        <f t="shared" si="7"/>
-        <v>33.333333333333329</v>
-      </c>
-    </row>
-    <row r="52" spans="2:35" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="X51" s="51">
+        <f>SUM(E51:W51)</f>
+        <v>9</v>
+      </c>
+      <c r="Y51" s="59">
+        <f t="shared" si="3"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="2:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B52" s="30">
         <v>39</v>
       </c>
-      <c r="C52" s="82" t="s">
+      <c r="C52" s="69" t="s">
         <v>121</v>
       </c>
-      <c r="D52" s="82" t="s">
+      <c r="D52" s="69" t="s">
         <v>144</v>
       </c>
       <c r="E52" s="9">
@@ -4237,8 +4153,10 @@
       <c r="F52" s="9">
         <v>3</v>
       </c>
-      <c r="G52" s="13"/>
-      <c r="H52" s="67"/>
+      <c r="G52" s="106">
+        <v>3</v>
+      </c>
+      <c r="H52" s="58"/>
       <c r="I52" s="13"/>
       <c r="J52" s="13"/>
       <c r="K52" s="13"/>
@@ -4249,31 +4167,28 @@
       <c r="P52" s="13"/>
       <c r="Q52" s="13"/>
       <c r="R52" s="13"/>
-      <c r="S52" s="67"/>
-      <c r="T52" s="67"/>
-      <c r="U52" s="67"/>
+      <c r="S52" s="58"/>
+      <c r="T52" s="58"/>
+      <c r="U52" s="13"/>
       <c r="V52" s="13"/>
       <c r="W52" s="13"/>
-      <c r="X52" s="13"/>
-      <c r="Y52" s="13"/>
-      <c r="Z52" s="13"/>
-      <c r="AA52" s="74">
-        <f t="shared" si="6"/>
-        <v>6</v>
-      </c>
-      <c r="AB52" s="68">
-        <f t="shared" si="7"/>
-        <v>33.333333333333329</v>
-      </c>
-    </row>
-    <row r="53" spans="2:35" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="X52" s="51">
+        <f>SUM(E52:W52)</f>
+        <v>9</v>
+      </c>
+      <c r="Y52" s="59">
+        <f t="shared" si="3"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="53" spans="2:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B53" s="30">
         <v>40</v>
       </c>
-      <c r="C53" s="82" t="s">
+      <c r="C53" s="69" t="s">
         <v>122</v>
       </c>
-      <c r="D53" s="82" t="s">
+      <c r="D53" s="69" t="s">
         <v>145</v>
       </c>
       <c r="E53" s="9">
@@ -4282,8 +4197,10 @@
       <c r="F53" s="9">
         <v>0</v>
       </c>
-      <c r="G53" s="13"/>
-      <c r="H53" s="67"/>
+      <c r="G53" s="106">
+        <v>3</v>
+      </c>
+      <c r="H53" s="58"/>
       <c r="I53" s="13"/>
       <c r="J53" s="13"/>
       <c r="K53" s="13"/>
@@ -4294,234 +4211,176 @@
       <c r="P53" s="13"/>
       <c r="Q53" s="13"/>
       <c r="R53" s="13"/>
-      <c r="S53" s="67"/>
-      <c r="T53" s="67"/>
-      <c r="U53" s="67"/>
+      <c r="S53" s="58"/>
+      <c r="T53" s="58"/>
+      <c r="U53" s="13"/>
       <c r="V53" s="13"/>
       <c r="W53" s="13"/>
-      <c r="X53" s="13"/>
-      <c r="Y53" s="13"/>
-      <c r="Z53" s="13"/>
-      <c r="AA53" s="74">
+      <c r="X53" s="51">
         <v>6</v>
       </c>
-      <c r="AB53" s="68">
+      <c r="Y53" s="59">
         <v>100</v>
       </c>
     </row>
-    <row r="54" spans="2:35" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B54" s="76"/>
-      <c r="C54" s="83"/>
-      <c r="D54" s="86" t="s">
-        <v>146</v>
-      </c>
-      <c r="E54" s="69">
-        <v>3</v>
-      </c>
-      <c r="F54" s="69">
-        <v>3</v>
-      </c>
-      <c r="G54" s="70"/>
-      <c r="H54" s="79"/>
-      <c r="I54" s="70"/>
-      <c r="J54" s="70"/>
-      <c r="K54" s="70"/>
-      <c r="L54" s="70"/>
-      <c r="M54" s="70"/>
-      <c r="N54" s="70"/>
-      <c r="O54" s="70"/>
-      <c r="P54" s="70"/>
-      <c r="Q54" s="70"/>
-      <c r="R54" s="70"/>
-      <c r="S54" s="79"/>
-      <c r="T54" s="79"/>
-      <c r="U54" s="79"/>
-      <c r="V54" s="70"/>
-      <c r="W54" s="70"/>
+    <row r="54" spans="2:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B54" s="64"/>
+      <c r="C54"/>
+      <c r="D54" s="72" t="s">
+        <v>148</v>
+      </c>
+      <c r="E54" s="4">
+        <v>3</v>
+      </c>
+      <c r="F54" s="4">
+        <v>3</v>
+      </c>
+      <c r="G54" s="106">
+        <v>0</v>
+      </c>
+      <c r="H54" s="67"/>
+      <c r="I54" s="33"/>
+      <c r="J54" s="33"/>
+      <c r="K54" s="33"/>
+      <c r="L54" s="33"/>
+      <c r="M54" s="33"/>
+      <c r="N54" s="33"/>
+      <c r="O54" s="33"/>
+      <c r="P54" s="33"/>
+      <c r="Q54" s="33"/>
+      <c r="R54" s="33"/>
+      <c r="S54" s="67"/>
+      <c r="T54" s="67"/>
+      <c r="U54" s="33"/>
+      <c r="V54" s="33"/>
+      <c r="W54" s="33"/>
       <c r="X54" s="70"/>
-      <c r="Y54" s="70"/>
-      <c r="Z54" s="70"/>
-      <c r="AA54" s="84"/>
-      <c r="AB54" s="85"/>
-    </row>
-    <row r="55" spans="2:35" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B55" s="76"/>
-      <c r="C55" s="83"/>
-      <c r="D55" s="86" t="s">
-        <v>144</v>
-      </c>
-      <c r="E55" s="69">
-        <v>3</v>
-      </c>
-      <c r="F55" s="69">
-        <v>3</v>
-      </c>
-      <c r="G55" s="70"/>
-      <c r="H55" s="79"/>
-      <c r="I55" s="70"/>
-      <c r="J55" s="70"/>
-      <c r="K55" s="70"/>
-      <c r="L55" s="70"/>
-      <c r="M55" s="70"/>
-      <c r="N55" s="70"/>
-      <c r="O55" s="70"/>
-      <c r="P55" s="70"/>
-      <c r="Q55" s="70"/>
-      <c r="R55" s="70"/>
-      <c r="S55" s="79"/>
-      <c r="T55" s="79"/>
-      <c r="U55" s="79"/>
-      <c r="V55" s="70"/>
-      <c r="W55" s="70"/>
+      <c r="Y54" s="71"/>
+    </row>
+    <row r="55" spans="2:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B55" s="64"/>
+      <c r="C55"/>
+      <c r="D55" s="72" t="s">
+        <v>147</v>
+      </c>
+      <c r="E55" s="4">
+        <v>3</v>
+      </c>
+      <c r="F55" s="4">
+        <v>3</v>
+      </c>
+      <c r="G55" s="106">
+        <v>3</v>
+      </c>
+      <c r="H55" s="67"/>
+      <c r="I55" s="33"/>
+      <c r="J55" s="33"/>
+      <c r="K55" s="33"/>
+      <c r="L55" s="33"/>
+      <c r="M55" s="33"/>
+      <c r="N55" s="33"/>
+      <c r="O55" s="33"/>
+      <c r="P55" s="33"/>
+      <c r="Q55" s="33"/>
+      <c r="R55" s="33"/>
+      <c r="S55" s="67"/>
+      <c r="T55" s="67"/>
+      <c r="U55" s="33"/>
+      <c r="V55" s="33"/>
+      <c r="W55" s="33"/>
       <c r="X55" s="70"/>
-      <c r="Y55" s="70"/>
-      <c r="Z55" s="70"/>
-      <c r="AA55" s="84"/>
-      <c r="AB55" s="85"/>
-    </row>
-    <row r="56" spans="2:35" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B56" s="76"/>
-      <c r="C56" s="83"/>
-      <c r="D56" s="86" t="s">
-        <v>148</v>
-      </c>
-      <c r="E56" s="69">
-        <v>3</v>
-      </c>
-      <c r="F56" s="69">
-        <v>3</v>
-      </c>
-      <c r="G56" s="70"/>
-      <c r="H56" s="79"/>
-      <c r="I56" s="70"/>
-      <c r="J56" s="70"/>
-      <c r="K56" s="70"/>
-      <c r="L56" s="70"/>
-      <c r="M56" s="70"/>
-      <c r="N56" s="70"/>
-      <c r="O56" s="70"/>
-      <c r="P56" s="70"/>
-      <c r="Q56" s="70"/>
-      <c r="R56" s="70"/>
-      <c r="S56" s="79"/>
-      <c r="T56" s="79"/>
-      <c r="U56" s="79"/>
-      <c r="V56" s="70"/>
-      <c r="W56" s="70"/>
-      <c r="X56" s="70"/>
-      <c r="Y56" s="70"/>
-      <c r="Z56" s="70"/>
-      <c r="AA56" s="84"/>
-      <c r="AB56" s="85"/>
-    </row>
-    <row r="57" spans="2:35" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B57" s="76"/>
-      <c r="C57" s="83"/>
-      <c r="D57" s="86" t="s">
-        <v>147</v>
-      </c>
-      <c r="E57" s="69">
-        <v>3</v>
-      </c>
-      <c r="F57" s="69">
-        <v>3</v>
-      </c>
-      <c r="G57" s="70"/>
-      <c r="H57" s="79"/>
-      <c r="I57" s="70"/>
-      <c r="J57" s="70"/>
-      <c r="K57" s="70"/>
-      <c r="L57" s="70"/>
-      <c r="M57" s="70"/>
-      <c r="N57" s="70"/>
-      <c r="O57" s="70"/>
-      <c r="P57" s="70"/>
-      <c r="Q57" s="70"/>
-      <c r="R57" s="70"/>
-      <c r="S57" s="79"/>
-      <c r="T57" s="79"/>
-      <c r="U57" s="79"/>
-      <c r="V57" s="70"/>
-      <c r="W57" s="70"/>
-      <c r="X57" s="70"/>
-      <c r="Y57" s="70"/>
-      <c r="Z57" s="70"/>
-      <c r="AA57" s="84"/>
-      <c r="AB57" s="85"/>
-    </row>
-    <row r="58" spans="2:35" ht="46.9" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B58" s="76"/>
-      <c r="C58" s="77"/>
-      <c r="D58" s="78"/>
-      <c r="E58" s="79"/>
-      <c r="F58" s="79"/>
-      <c r="G58" s="70"/>
-      <c r="H58" s="79"/>
-      <c r="I58" s="69"/>
-      <c r="J58" s="69"/>
-      <c r="K58" s="69"/>
-      <c r="L58" s="69"/>
-      <c r="M58" s="69"/>
-      <c r="N58" s="69"/>
-      <c r="O58" s="69"/>
-      <c r="P58" s="69"/>
-      <c r="Q58" s="69"/>
-      <c r="R58" s="69"/>
-      <c r="S58" s="69"/>
-      <c r="T58" s="69"/>
-      <c r="U58" s="69"/>
-      <c r="V58" s="69"/>
-      <c r="W58" s="69"/>
-      <c r="X58" s="69"/>
-      <c r="Y58" s="69"/>
-      <c r="Z58" s="69"/>
-      <c r="AA58" s="69"/>
-      <c r="AB58" s="69"/>
-      <c r="AC58" s="69"/>
-      <c r="AD58" s="69"/>
-      <c r="AE58" s="69"/>
-      <c r="AF58" s="69"/>
-      <c r="AG58" s="69"/>
-      <c r="AH58" s="69"/>
-      <c r="AI58" s="69"/>
-    </row>
-    <row r="59" spans="2:35" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="B59" s="76"/>
-      <c r="C59" s="77"/>
-      <c r="D59" s="78"/>
-      <c r="E59" s="79"/>
-      <c r="F59" s="79"/>
-      <c r="G59" s="70"/>
-      <c r="H59" s="79"/>
-      <c r="I59" s="93" t="s">
+      <c r="Y55" s="71"/>
+    </row>
+    <row r="56" spans="2:25" ht="46.9" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B56" s="64"/>
+      <c r="C56" s="65"/>
+      <c r="D56" s="66"/>
+      <c r="E56" s="67"/>
+      <c r="F56" s="67"/>
+      <c r="G56" s="33"/>
+      <c r="H56" s="67"/>
+    </row>
+    <row r="57" spans="2:25" x14ac:dyDescent="0.35">
+      <c r="B57" s="73" t="s">
         <v>23</v>
       </c>
-      <c r="J59" s="93"/>
-      <c r="K59" s="93"/>
-      <c r="L59" s="93"/>
-      <c r="M59" s="93"/>
-      <c r="N59" s="93"/>
-      <c r="O59" s="93"/>
-      <c r="P59" s="93"/>
-      <c r="Q59" s="93"/>
-      <c r="R59" s="93"/>
-      <c r="S59" s="93"/>
-      <c r="T59" s="93"/>
-      <c r="U59" s="93"/>
-      <c r="V59" s="93"/>
-      <c r="W59" s="93"/>
-      <c r="X59" s="93"/>
-      <c r="Y59" s="93"/>
-      <c r="Z59" s="93"/>
-    </row>
-    <row r="60" spans="2:35" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="B60" s="76"/>
-      <c r="C60" s="80"/>
-      <c r="D60" s="80"/>
-      <c r="E60" s="80"/>
-      <c r="F60" s="69"/>
-      <c r="G60" s="81"/>
-      <c r="H60" s="81"/>
+      <c r="C57" s="73"/>
+      <c r="D57" s="73"/>
+      <c r="E57" s="73"/>
+      <c r="F57" s="73"/>
+      <c r="G57" s="73"/>
+      <c r="H57" s="73"/>
+      <c r="I57" s="73"/>
+      <c r="J57" s="73"/>
+      <c r="K57" s="73"/>
+      <c r="L57" s="73"/>
+      <c r="M57" s="73"/>
+      <c r="N57" s="73"/>
+      <c r="O57" s="73"/>
+      <c r="P57" s="73"/>
+      <c r="Q57" s="73"/>
+      <c r="R57" s="73"/>
+      <c r="S57" s="73"/>
+      <c r="T57" s="73"/>
+      <c r="U57" s="73"/>
+      <c r="V57" s="73"/>
+      <c r="W57" s="73"/>
+      <c r="X57" s="73"/>
+      <c r="Y57" s="73"/>
+    </row>
+    <row r="58" spans="2:25" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="B58" s="64"/>
+      <c r="C58" s="68"/>
+      <c r="D58" s="68"/>
+      <c r="E58" s="68"/>
+      <c r="G58" s="3"/>
+      <c r="H58" s="3"/>
+      <c r="I58" s="33"/>
+      <c r="J58" s="33"/>
+      <c r="K58" s="33"/>
+      <c r="L58" s="33"/>
+      <c r="M58" s="33"/>
+      <c r="N58" s="33"/>
+      <c r="O58" s="33"/>
+      <c r="P58" s="33"/>
+      <c r="Q58" s="33"/>
+      <c r="R58" s="33"/>
+      <c r="S58" s="33"/>
+      <c r="T58" s="33"/>
+      <c r="U58" s="33"/>
+      <c r="V58" s="33"/>
+      <c r="W58" s="33"/>
+    </row>
+    <row r="59" spans="2:25" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="B59" s="64"/>
+      <c r="C59" s="68"/>
+      <c r="D59" s="68"/>
+      <c r="E59" s="68"/>
+      <c r="G59" s="3"/>
+      <c r="H59" s="3"/>
+      <c r="I59" s="33"/>
+      <c r="J59" s="33"/>
+      <c r="K59" s="33"/>
+      <c r="L59" s="33"/>
+      <c r="M59" s="33"/>
+      <c r="N59" s="33"/>
+      <c r="O59" s="33"/>
+      <c r="P59" s="33"/>
+      <c r="Q59" s="33"/>
+      <c r="R59" s="33"/>
+      <c r="S59" s="33"/>
+      <c r="T59" s="33"/>
+      <c r="U59" s="33"/>
+      <c r="V59" s="33"/>
+      <c r="W59" s="33"/>
+    </row>
+    <row r="60" spans="2:25" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="B60" s="64"/>
+      <c r="C60" s="68"/>
+      <c r="D60" s="68"/>
+      <c r="E60" s="68"/>
+      <c r="G60" s="3"/>
+      <c r="H60" s="3"/>
       <c r="I60" s="33"/>
       <c r="J60" s="33"/>
       <c r="K60" s="33"/>
@@ -4537,98 +4396,40 @@
       <c r="U60" s="33"/>
       <c r="V60" s="33"/>
       <c r="W60" s="33"/>
-      <c r="X60" s="33"/>
-      <c r="Y60" s="33"/>
-      <c r="Z60" s="33"/>
-    </row>
-    <row r="61" spans="2:35" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="B61" s="76"/>
-      <c r="C61" s="80"/>
-      <c r="D61" s="80"/>
-      <c r="E61" s="80"/>
-      <c r="F61" s="69"/>
-      <c r="G61" s="81"/>
-      <c r="H61" s="81"/>
-      <c r="I61" s="33"/>
-      <c r="J61" s="33"/>
-      <c r="K61" s="33"/>
-      <c r="L61" s="33"/>
-      <c r="M61" s="33"/>
-      <c r="N61" s="33"/>
-      <c r="O61" s="33"/>
-      <c r="P61" s="33"/>
-      <c r="Q61" s="33"/>
-      <c r="R61" s="33"/>
-      <c r="S61" s="33"/>
-      <c r="T61" s="33"/>
-      <c r="U61" s="33"/>
-      <c r="V61" s="33"/>
-      <c r="W61" s="33"/>
-      <c r="X61" s="33"/>
-      <c r="Y61" s="33"/>
-      <c r="Z61" s="33"/>
-    </row>
-    <row r="62" spans="2:35" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="B62" s="76"/>
-      <c r="C62" s="80"/>
-      <c r="D62" s="80"/>
-      <c r="E62" s="80"/>
-      <c r="F62" s="69"/>
-      <c r="G62" s="81"/>
-      <c r="H62" s="81"/>
-      <c r="I62" s="33"/>
-      <c r="J62" s="33"/>
-      <c r="K62" s="33"/>
-      <c r="L62" s="33"/>
-      <c r="M62" s="33"/>
-      <c r="N62" s="33"/>
-      <c r="O62" s="33"/>
-      <c r="P62" s="33"/>
-      <c r="Q62" s="33"/>
-      <c r="R62" s="33"/>
-      <c r="S62" s="33"/>
-      <c r="T62" s="33"/>
-      <c r="U62" s="33"/>
-      <c r="V62" s="33"/>
-      <c r="W62" s="33"/>
-      <c r="X62" s="33"/>
-      <c r="Y62" s="33"/>
-      <c r="Z62" s="33"/>
-    </row>
-    <row r="63" spans="2:35" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="B63" s="76"/>
-      <c r="C63" s="80"/>
-      <c r="D63" s="80"/>
-      <c r="E63" s="80"/>
-      <c r="F63" s="69"/>
-      <c r="G63" s="81"/>
-      <c r="H63" s="81"/>
+    </row>
+    <row r="61" spans="2:25" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="B61" s="64"/>
+      <c r="C61" s="68"/>
+      <c r="D61" s="68"/>
+      <c r="E61" s="68"/>
+      <c r="G61" s="3"/>
+      <c r="H61" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="I59:Z59"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="C10:C13"/>
+    <mergeCell ref="E13:Y13"/>
+    <mergeCell ref="Y10:Y11"/>
+    <mergeCell ref="D2:W2"/>
+    <mergeCell ref="F7:W7"/>
+    <mergeCell ref="F4:W4"/>
+    <mergeCell ref="F5:W5"/>
+    <mergeCell ref="F6:W6"/>
+    <mergeCell ref="F8:W8"/>
+    <mergeCell ref="X10:X11"/>
     <mergeCell ref="D3:E3"/>
-    <mergeCell ref="F3:Z3"/>
-    <mergeCell ref="D1:Z1"/>
+    <mergeCell ref="F3:W3"/>
+    <mergeCell ref="D1:W1"/>
     <mergeCell ref="D4:E4"/>
     <mergeCell ref="D5:E5"/>
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="D8:E8"/>
     <mergeCell ref="D7:E7"/>
-    <mergeCell ref="B10:B13"/>
-    <mergeCell ref="C10:C13"/>
-    <mergeCell ref="E13:AB13"/>
-    <mergeCell ref="AB10:AB11"/>
-    <mergeCell ref="D2:Z2"/>
-    <mergeCell ref="F7:Z7"/>
-    <mergeCell ref="F4:Z4"/>
-    <mergeCell ref="F5:Z5"/>
-    <mergeCell ref="F6:Z6"/>
-    <mergeCell ref="F8:Z8"/>
-    <mergeCell ref="AA10:AA11"/>
+    <mergeCell ref="B57:Y57"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Linked Value" error="Entering data in this cell may cause error. " promptTitle="Linked Value" prompt="This cell is linked with Mid Term Award, kindly do changes in Mid Term award only, that will reflect here automatically" sqref="C60:E63">
+    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Linked Value" error="Entering data in this cell may cause error. " promptTitle="Linked Value" prompt="This cell is linked with Mid Term Award, kindly do changes in Mid Term award only, that will reflect here automatically" sqref="C58:E61" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>2000</formula1>
       <formula2>4000</formula2>
     </dataValidation>
@@ -4643,7 +4444,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:AD49"/>
   <sheetViews>
@@ -4668,206 +4469,206 @@
     <row r="1" spans="1:30" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
-      <c r="C1" s="95" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="95"/>
-      <c r="E1" s="95"/>
-      <c r="F1" s="95"/>
-      <c r="G1" s="95"/>
-      <c r="H1" s="95"/>
-      <c r="I1" s="95"/>
-      <c r="J1" s="95"/>
-      <c r="K1" s="95"/>
-      <c r="L1" s="95"/>
-      <c r="M1" s="95"/>
-      <c r="N1" s="95"/>
+      <c r="C1" s="76" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="76"/>
+      <c r="K1" s="76"/>
+      <c r="L1" s="76"/>
+      <c r="M1" s="76"/>
+      <c r="N1" s="76"/>
     </row>
     <row r="2" spans="1:30" ht="25.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="5"/>
       <c r="B2" s="6"/>
-      <c r="C2" s="89" t="s">
+      <c r="C2" s="79" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="89"/>
-      <c r="E2" s="89"/>
-      <c r="F2" s="89"/>
-      <c r="G2" s="89"/>
-      <c r="H2" s="89"/>
-      <c r="I2" s="89"/>
-      <c r="J2" s="89"/>
-      <c r="K2" s="89"/>
-      <c r="L2" s="89"/>
-      <c r="M2" s="89"/>
-      <c r="N2" s="89"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="79"/>
+      <c r="G2" s="79"/>
+      <c r="H2" s="79"/>
+      <c r="I2" s="79"/>
+      <c r="J2" s="79"/>
+      <c r="K2" s="79"/>
+      <c r="L2" s="79"/>
+      <c r="M2" s="79"/>
+      <c r="N2" s="79"/>
     </row>
     <row r="3" spans="1:30" ht="25.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5"/>
       <c r="B3" s="6"/>
-      <c r="C3" s="94" t="s">
+      <c r="C3" s="74" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="94"/>
-      <c r="E3" s="41" t="s">
+      <c r="D3" s="74"/>
+      <c r="E3" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="41"/>
-      <c r="I3" s="41"/>
-      <c r="J3" s="41"/>
-      <c r="K3" s="41"/>
-      <c r="L3" s="41"/>
-      <c r="M3" s="41"/>
-      <c r="N3" s="41"/>
-      <c r="O3" s="41"/>
-      <c r="P3" s="41"/>
-      <c r="Q3" s="41"/>
-      <c r="R3" s="41"/>
-      <c r="S3" s="41"/>
-      <c r="T3" s="41"/>
-      <c r="U3" s="41"/>
-      <c r="V3" s="41"/>
-      <c r="W3" s="41"/>
-      <c r="X3" s="41"/>
-      <c r="Y3" s="41"/>
-      <c r="Z3" s="41"/>
-      <c r="AA3" s="41"/>
-      <c r="AB3" s="41"/>
-      <c r="AC3" s="41"/>
-      <c r="AD3" s="41"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="36"/>
+      <c r="I3" s="36"/>
+      <c r="J3" s="36"/>
+      <c r="K3" s="36"/>
+      <c r="L3" s="36"/>
+      <c r="M3" s="36"/>
+      <c r="N3" s="36"/>
+      <c r="O3" s="36"/>
+      <c r="P3" s="36"/>
+      <c r="Q3" s="36"/>
+      <c r="R3" s="36"/>
+      <c r="S3" s="36"/>
+      <c r="T3" s="36"/>
+      <c r="U3" s="36"/>
+      <c r="V3" s="36"/>
+      <c r="W3" s="36"/>
+      <c r="X3" s="36"/>
+      <c r="Y3" s="36"/>
+      <c r="Z3" s="36"/>
+      <c r="AA3" s="36"/>
+      <c r="AB3" s="36"/>
+      <c r="AC3" s="36"/>
+      <c r="AD3" s="36"/>
     </row>
     <row r="4" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
-      <c r="C4" s="94" t="s">
+      <c r="C4" s="74" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="94"/>
-      <c r="E4" s="90" t="s">
+      <c r="D4" s="74"/>
+      <c r="E4" s="75" t="s">
         <v>27</v>
       </c>
-      <c r="F4" s="90"/>
-      <c r="G4" s="90"/>
-      <c r="H4" s="90"/>
-      <c r="I4" s="90"/>
-      <c r="J4" s="90"/>
-      <c r="K4" s="90"/>
-      <c r="L4" s="90"/>
-      <c r="M4" s="90"/>
-      <c r="N4" s="90"/>
-      <c r="O4" s="41"/>
-      <c r="P4" s="41"/>
-      <c r="Q4" s="41"/>
-      <c r="R4" s="41"/>
-      <c r="S4" s="41"/>
-      <c r="T4" s="41"/>
-      <c r="U4" s="41"/>
-      <c r="V4" s="41"/>
-      <c r="W4" s="41"/>
-      <c r="X4" s="41"/>
-      <c r="Y4" s="41"/>
-      <c r="Z4" s="41"/>
-      <c r="AA4" s="41"/>
-      <c r="AB4" s="41"/>
-      <c r="AC4" s="41"/>
-      <c r="AD4" s="41"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="75"/>
+      <c r="I4" s="75"/>
+      <c r="J4" s="75"/>
+      <c r="K4" s="75"/>
+      <c r="L4" s="75"/>
+      <c r="M4" s="75"/>
+      <c r="N4" s="75"/>
+      <c r="O4" s="36"/>
+      <c r="P4" s="36"/>
+      <c r="Q4" s="36"/>
+      <c r="R4" s="36"/>
+      <c r="S4" s="36"/>
+      <c r="T4" s="36"/>
+      <c r="U4" s="36"/>
+      <c r="V4" s="36"/>
+      <c r="W4" s="36"/>
+      <c r="X4" s="36"/>
+      <c r="Y4" s="36"/>
+      <c r="Z4" s="36"/>
+      <c r="AA4" s="36"/>
+      <c r="AB4" s="36"/>
+      <c r="AC4" s="36"/>
+      <c r="AD4" s="36"/>
     </row>
     <row r="5" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
-      <c r="C5" s="94" t="s">
+      <c r="C5" s="74" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="94"/>
-      <c r="E5" s="91" t="s">
+      <c r="D5" s="74"/>
+      <c r="E5" s="80" t="s">
         <v>88</v>
       </c>
-      <c r="F5" s="91"/>
-      <c r="G5" s="91"/>
-      <c r="H5" s="91"/>
-      <c r="I5" s="91"/>
-      <c r="J5" s="91"/>
-      <c r="K5" s="91"/>
-      <c r="L5" s="91"/>
-      <c r="M5" s="91"/>
-      <c r="N5" s="91"/>
-      <c r="O5" s="42"/>
-      <c r="P5" s="42"/>
-      <c r="Q5" s="42"/>
-      <c r="R5" s="42"/>
-      <c r="S5" s="42"/>
-      <c r="T5" s="42"/>
-      <c r="U5" s="42"/>
-      <c r="V5" s="42"/>
-      <c r="W5" s="42"/>
-      <c r="X5" s="42"/>
-      <c r="Y5" s="42"/>
-      <c r="Z5" s="42"/>
-      <c r="AA5" s="42"/>
-      <c r="AB5" s="42"/>
-      <c r="AC5" s="42"/>
-      <c r="AD5" s="42"/>
+      <c r="F5" s="80"/>
+      <c r="G5" s="80"/>
+      <c r="H5" s="80"/>
+      <c r="I5" s="80"/>
+      <c r="J5" s="80"/>
+      <c r="K5" s="80"/>
+      <c r="L5" s="80"/>
+      <c r="M5" s="80"/>
+      <c r="N5" s="80"/>
+      <c r="O5" s="37"/>
+      <c r="P5" s="37"/>
+      <c r="Q5" s="37"/>
+      <c r="R5" s="37"/>
+      <c r="S5" s="37"/>
+      <c r="T5" s="37"/>
+      <c r="U5" s="37"/>
+      <c r="V5" s="37"/>
+      <c r="W5" s="37"/>
+      <c r="X5" s="37"/>
+      <c r="Y5" s="37"/>
+      <c r="Z5" s="37"/>
+      <c r="AA5" s="37"/>
+      <c r="AB5" s="37"/>
+      <c r="AC5" s="37"/>
+      <c r="AD5" s="37"/>
     </row>
     <row r="6" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
-      <c r="C6" s="94" t="s">
+      <c r="C6" s="74" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="94"/>
-      <c r="E6" s="90" t="s">
+      <c r="D6" s="74"/>
+      <c r="E6" s="75" t="s">
         <v>95</v>
       </c>
-      <c r="F6" s="90"/>
-      <c r="G6" s="90"/>
-      <c r="H6" s="90"/>
-      <c r="I6" s="90"/>
-      <c r="J6" s="90"/>
-      <c r="K6" s="90"/>
-      <c r="L6" s="90"/>
-      <c r="M6" s="90"/>
-      <c r="N6" s="90"/>
+      <c r="F6" s="75"/>
+      <c r="G6" s="75"/>
+      <c r="H6" s="75"/>
+      <c r="I6" s="75"/>
+      <c r="J6" s="75"/>
+      <c r="K6" s="75"/>
+      <c r="L6" s="75"/>
+      <c r="M6" s="75"/>
+      <c r="N6" s="75"/>
     </row>
     <row r="7" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
-      <c r="C7" s="94" t="s">
+      <c r="C7" s="74" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="94"/>
-      <c r="E7" s="90" t="s">
+      <c r="D7" s="74"/>
+      <c r="E7" s="75" t="s">
         <v>92</v>
       </c>
-      <c r="F7" s="90"/>
-      <c r="G7" s="90"/>
-      <c r="H7" s="90"/>
-      <c r="I7" s="90"/>
-      <c r="J7" s="90"/>
-      <c r="K7" s="90"/>
-      <c r="L7" s="90"/>
-      <c r="M7" s="90"/>
-      <c r="N7" s="90"/>
+      <c r="F7" s="75"/>
+      <c r="G7" s="75"/>
+      <c r="H7" s="75"/>
+      <c r="I7" s="75"/>
+      <c r="J7" s="75"/>
+      <c r="K7" s="75"/>
+      <c r="L7" s="75"/>
+      <c r="M7" s="75"/>
+      <c r="N7" s="75"/>
     </row>
     <row r="8" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
-      <c r="C8" s="94" t="s">
+      <c r="C8" s="74" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="94"/>
-      <c r="E8" s="92" t="s">
+      <c r="D8" s="74"/>
+      <c r="E8" s="81" t="s">
         <v>96</v>
       </c>
-      <c r="F8" s="92"/>
-      <c r="G8" s="92"/>
-      <c r="H8" s="92"/>
-      <c r="I8" s="92"/>
-      <c r="J8" s="92"/>
-      <c r="K8" s="92"/>
-      <c r="L8" s="92"/>
-      <c r="M8" s="92"/>
-      <c r="N8" s="92"/>
+      <c r="F8" s="81"/>
+      <c r="G8" s="81"/>
+      <c r="H8" s="81"/>
+      <c r="I8" s="81"/>
+      <c r="J8" s="81"/>
+      <c r="K8" s="81"/>
+      <c r="L8" s="81"/>
+      <c r="M8" s="81"/>
+      <c r="N8" s="81"/>
     </row>
     <row r="9" spans="1:30" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="1"/>
@@ -4878,18 +4679,18 @@
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="1"/>
-      <c r="I9" s="40"/>
-      <c r="J9" s="40"/>
-      <c r="K9" s="40"/>
-      <c r="L9" s="40"/>
-      <c r="M9" s="40"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
       <c r="N9" s="1"/>
     </row>
     <row r="10" spans="1:30" ht="48" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="104" t="s">
+      <c r="A10" s="83" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="107" t="s">
+      <c r="B10" s="86" t="s">
         <v>3</v>
       </c>
       <c r="C10" s="22" t="s">
@@ -4910,16 +4711,16 @@
       <c r="L10" s="22"/>
       <c r="M10" s="22"/>
       <c r="N10" s="22"/>
-      <c r="O10" s="96" t="s">
+      <c r="O10" s="89" t="s">
         <v>9</v>
       </c>
-      <c r="P10" s="98" t="s">
+      <c r="P10" s="91" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:30" ht="36.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="105"/>
-      <c r="B11" s="108"/>
+      <c r="A11" s="84"/>
+      <c r="B11" s="87"/>
       <c r="C11" s="22" t="s">
         <v>13</v>
       </c>
@@ -4938,12 +4739,12 @@
       <c r="L11" s="32"/>
       <c r="M11" s="32"/>
       <c r="N11" s="25"/>
-      <c r="O11" s="97"/>
-      <c r="P11" s="99"/>
+      <c r="O11" s="90"/>
+      <c r="P11" s="92"/>
     </row>
     <row r="12" spans="1:30" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="105"/>
-      <c r="B12" s="108"/>
+      <c r="A12" s="84"/>
+      <c r="B12" s="87"/>
       <c r="C12" s="24" t="s">
         <v>10</v>
       </c>
@@ -4971,33 +4772,33 @@
       </c>
     </row>
     <row r="13" spans="1:30" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="106"/>
-      <c r="B13" s="109"/>
+      <c r="A13" s="85"/>
+      <c r="B13" s="88"/>
       <c r="C13" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="D13" s="100"/>
-      <c r="E13" s="101"/>
-      <c r="F13" s="101"/>
-      <c r="G13" s="101"/>
-      <c r="H13" s="101"/>
-      <c r="I13" s="101"/>
-      <c r="J13" s="101"/>
-      <c r="K13" s="101"/>
-      <c r="L13" s="101"/>
-      <c r="M13" s="101"/>
-      <c r="N13" s="101"/>
-      <c r="O13" s="101"/>
-      <c r="P13" s="102"/>
+      <c r="D13" s="93"/>
+      <c r="E13" s="94"/>
+      <c r="F13" s="94"/>
+      <c r="G13" s="94"/>
+      <c r="H13" s="94"/>
+      <c r="I13" s="94"/>
+      <c r="J13" s="94"/>
+      <c r="K13" s="94"/>
+      <c r="L13" s="94"/>
+      <c r="M13" s="94"/>
+      <c r="N13" s="94"/>
+      <c r="O13" s="94"/>
+      <c r="P13" s="95"/>
     </row>
     <row r="14" spans="1:30" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A14" s="30">
         <v>1</v>
       </c>
-      <c r="B14" s="49" t="s">
+      <c r="B14" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="50" t="s">
+      <c r="C14" s="45" t="s">
         <v>31</v>
       </c>
       <c r="D14" s="34">
@@ -5028,10 +4829,10 @@
       <c r="A15" s="30">
         <v>2</v>
       </c>
-      <c r="B15" s="51" t="s">
+      <c r="B15" s="46" t="s">
         <v>32</v>
       </c>
-      <c r="C15" s="50" t="s">
+      <c r="C15" s="45" t="s">
         <v>33</v>
       </c>
       <c r="D15" s="34">
@@ -5062,10 +4863,10 @@
       <c r="A16" s="30">
         <v>3</v>
       </c>
-      <c r="B16" s="51" t="s">
+      <c r="B16" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="C16" s="50" t="s">
+      <c r="C16" s="45" t="s">
         <v>35</v>
       </c>
       <c r="D16" s="34">
@@ -5096,10 +4897,10 @@
       <c r="A17" s="30">
         <v>4</v>
       </c>
-      <c r="B17" s="51" t="s">
+      <c r="B17" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="C17" s="50" t="s">
+      <c r="C17" s="45" t="s">
         <v>37</v>
       </c>
       <c r="D17" s="34">
@@ -5130,10 +4931,10 @@
       <c r="A18" s="30">
         <v>5</v>
       </c>
-      <c r="B18" s="51" t="s">
+      <c r="B18" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="C18" s="50" t="s">
+      <c r="C18" s="45" t="s">
         <v>39</v>
       </c>
       <c r="D18" s="34">
@@ -5164,10 +4965,10 @@
       <c r="A19" s="30">
         <v>6</v>
       </c>
-      <c r="B19" s="51" t="s">
+      <c r="B19" s="46" t="s">
         <v>40</v>
       </c>
-      <c r="C19" s="50" t="s">
+      <c r="C19" s="45" t="s">
         <v>41</v>
       </c>
       <c r="D19" s="34">
@@ -5198,10 +4999,10 @@
       <c r="A20" s="30">
         <v>7</v>
       </c>
-      <c r="B20" s="51" t="s">
+      <c r="B20" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="C20" s="50" t="s">
+      <c r="C20" s="45" t="s">
         <v>43</v>
       </c>
       <c r="D20" s="34">
@@ -5232,10 +5033,10 @@
       <c r="A21" s="30">
         <v>8</v>
       </c>
-      <c r="B21" s="51" t="s">
+      <c r="B21" s="46" t="s">
         <v>44</v>
       </c>
-      <c r="C21" s="50" t="s">
+      <c r="C21" s="45" t="s">
         <v>45</v>
       </c>
       <c r="D21" s="34">
@@ -5266,10 +5067,10 @@
       <c r="A22" s="30">
         <v>9</v>
       </c>
-      <c r="B22" s="51" t="s">
+      <c r="B22" s="46" t="s">
         <v>46</v>
       </c>
-      <c r="C22" s="50" t="s">
+      <c r="C22" s="45" t="s">
         <v>47</v>
       </c>
       <c r="D22" s="34">
@@ -5300,10 +5101,10 @@
       <c r="A23" s="30">
         <v>10</v>
       </c>
-      <c r="B23" s="51" t="s">
+      <c r="B23" s="46" t="s">
         <v>48</v>
       </c>
-      <c r="C23" s="50" t="s">
+      <c r="C23" s="45" t="s">
         <v>49</v>
       </c>
       <c r="D23" s="34">
@@ -5334,10 +5135,10 @@
       <c r="A24" s="30">
         <v>11</v>
       </c>
-      <c r="B24" s="51" t="s">
+      <c r="B24" s="46" t="s">
         <v>50</v>
       </c>
-      <c r="C24" s="50" t="s">
+      <c r="C24" s="45" t="s">
         <v>51</v>
       </c>
       <c r="D24" s="34">
@@ -5368,10 +5169,10 @@
       <c r="A25" s="30">
         <v>12</v>
       </c>
-      <c r="B25" s="51" t="s">
+      <c r="B25" s="46" t="s">
         <v>52</v>
       </c>
-      <c r="C25" s="50" t="s">
+      <c r="C25" s="45" t="s">
         <v>53</v>
       </c>
       <c r="D25" s="34">
@@ -5402,10 +5203,10 @@
       <c r="A26" s="30">
         <v>13</v>
       </c>
-      <c r="B26" s="51" t="s">
+      <c r="B26" s="46" t="s">
         <v>54</v>
       </c>
-      <c r="C26" s="50" t="s">
+      <c r="C26" s="45" t="s">
         <v>55</v>
       </c>
       <c r="D26" s="34">
@@ -5436,10 +5237,10 @@
       <c r="A27" s="30">
         <v>14</v>
       </c>
-      <c r="B27" s="49" t="s">
+      <c r="B27" s="44" t="s">
         <v>56</v>
       </c>
-      <c r="C27" s="50" t="s">
+      <c r="C27" s="45" t="s">
         <v>57</v>
       </c>
       <c r="D27" s="34">
@@ -5470,10 +5271,10 @@
       <c r="A28" s="30">
         <v>15</v>
       </c>
-      <c r="B28" s="51" t="s">
+      <c r="B28" s="46" t="s">
         <v>58</v>
       </c>
-      <c r="C28" s="50" t="s">
+      <c r="C28" s="45" t="s">
         <v>59</v>
       </c>
       <c r="D28" s="34">
@@ -5504,10 +5305,10 @@
       <c r="A29" s="30">
         <v>16</v>
       </c>
-      <c r="B29" s="51" t="s">
+      <c r="B29" s="46" t="s">
         <v>60</v>
       </c>
-      <c r="C29" s="50" t="s">
+      <c r="C29" s="45" t="s">
         <v>61</v>
       </c>
       <c r="D29" s="34">
@@ -5538,10 +5339,10 @@
       <c r="A30" s="30">
         <v>17</v>
       </c>
-      <c r="B30" s="51" t="s">
+      <c r="B30" s="46" t="s">
         <v>62</v>
       </c>
-      <c r="C30" s="50" t="s">
+      <c r="C30" s="45" t="s">
         <v>63</v>
       </c>
       <c r="D30" s="34">
@@ -5572,10 +5373,10 @@
       <c r="A31" s="30">
         <v>18</v>
       </c>
-      <c r="B31" s="51" t="s">
+      <c r="B31" s="46" t="s">
         <v>64</v>
       </c>
-      <c r="C31" s="50" t="s">
+      <c r="C31" s="45" t="s">
         <v>65</v>
       </c>
       <c r="D31" s="34">
@@ -5606,10 +5407,10 @@
       <c r="A32" s="30">
         <v>19</v>
       </c>
-      <c r="B32" s="51" t="s">
+      <c r="B32" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="C32" s="50" t="s">
+      <c r="C32" s="45" t="s">
         <v>66</v>
       </c>
       <c r="D32" s="34">
@@ -5640,10 +5441,10 @@
       <c r="A33" s="30">
         <v>20</v>
       </c>
-      <c r="B33" s="51" t="s">
+      <c r="B33" s="46" t="s">
         <v>67</v>
       </c>
-      <c r="C33" s="50" t="s">
+      <c r="C33" s="45" t="s">
         <v>68</v>
       </c>
       <c r="D33" s="34">
@@ -5674,10 +5475,10 @@
       <c r="A34" s="30">
         <v>21</v>
       </c>
-      <c r="B34" s="52" t="s">
+      <c r="B34" s="47" t="s">
         <v>69</v>
       </c>
-      <c r="C34" s="50" t="s">
+      <c r="C34" s="45" t="s">
         <v>70</v>
       </c>
       <c r="D34" s="34">
@@ -5708,10 +5509,10 @@
       <c r="A35" s="30">
         <v>22</v>
       </c>
-      <c r="B35" s="49" t="s">
+      <c r="B35" s="44" t="s">
         <v>71</v>
       </c>
-      <c r="C35" s="50" t="s">
+      <c r="C35" s="45" t="s">
         <v>72</v>
       </c>
       <c r="D35" s="34">
@@ -5742,10 +5543,10 @@
       <c r="A36" s="30">
         <v>23</v>
       </c>
-      <c r="B36" s="51" t="s">
+      <c r="B36" s="46" t="s">
         <v>73</v>
       </c>
-      <c r="C36" s="50" t="s">
+      <c r="C36" s="45" t="s">
         <v>74</v>
       </c>
       <c r="D36" s="34">
@@ -5776,10 +5577,10 @@
       <c r="A37" s="30">
         <v>24</v>
       </c>
-      <c r="B37" s="51" t="s">
+      <c r="B37" s="46" t="s">
         <v>75</v>
       </c>
-      <c r="C37" s="50" t="s">
+      <c r="C37" s="45" t="s">
         <v>76</v>
       </c>
       <c r="D37" s="34">
@@ -5810,10 +5611,10 @@
       <c r="A38" s="30">
         <v>25</v>
       </c>
-      <c r="B38" s="49" t="s">
+      <c r="B38" s="44" t="s">
         <v>77</v>
       </c>
-      <c r="C38" s="50" t="s">
+      <c r="C38" s="45" t="s">
         <v>78</v>
       </c>
       <c r="D38" s="34">
@@ -5844,10 +5645,10 @@
       <c r="A39" s="30">
         <v>26</v>
       </c>
-      <c r="B39" s="53" t="s">
+      <c r="B39" s="48" t="s">
         <v>79</v>
       </c>
-      <c r="C39" s="50" t="s">
+      <c r="C39" s="45" t="s">
         <v>80</v>
       </c>
       <c r="D39" s="34">
@@ -5878,32 +5679,32 @@
       <c r="A40" s="30">
         <v>27</v>
       </c>
-      <c r="B40" s="62" t="s">
+      <c r="B40" s="53" t="s">
         <v>81</v>
       </c>
-      <c r="C40" s="63" t="s">
+      <c r="C40" s="54" t="s">
         <v>82</v>
       </c>
-      <c r="D40" s="64">
-        <v>3</v>
-      </c>
-      <c r="E40" s="64">
-        <v>4</v>
-      </c>
-      <c r="F40" s="65"/>
-      <c r="G40" s="65"/>
-      <c r="H40" s="65"/>
-      <c r="I40" s="65"/>
-      <c r="J40" s="65"/>
-      <c r="K40" s="65"/>
-      <c r="L40" s="65"/>
-      <c r="M40" s="65"/>
-      <c r="N40" s="65"/>
+      <c r="D40" s="55">
+        <v>3</v>
+      </c>
+      <c r="E40" s="55">
+        <v>4</v>
+      </c>
+      <c r="F40" s="56"/>
+      <c r="G40" s="56"/>
+      <c r="H40" s="56"/>
+      <c r="I40" s="56"/>
+      <c r="J40" s="56"/>
+      <c r="K40" s="56"/>
+      <c r="L40" s="56"/>
+      <c r="M40" s="56"/>
+      <c r="N40" s="56"/>
       <c r="O40" s="20">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="P40" s="66">
+      <c r="P40" s="57">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
@@ -5912,16 +5713,16 @@
       <c r="A41" s="30">
         <v>28</v>
       </c>
-      <c r="B41" s="55" t="s">
+      <c r="B41" s="44" t="s">
         <v>83</v>
       </c>
-      <c r="C41" s="50" t="s">
+      <c r="C41" s="45" t="s">
         <v>84</v>
       </c>
-      <c r="D41" s="67">
-        <v>3</v>
-      </c>
-      <c r="E41" s="67">
+      <c r="D41" s="58">
+        <v>3</v>
+      </c>
+      <c r="E41" s="58">
         <v>4</v>
       </c>
       <c r="F41" s="13"/>
@@ -5933,11 +5734,11 @@
       <c r="L41" s="13"/>
       <c r="M41" s="13"/>
       <c r="N41" s="13"/>
-      <c r="O41" s="60">
+      <c r="O41" s="51">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="P41" s="68">
+      <c r="P41" s="59">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
@@ -5956,21 +5757,21 @@
       <c r="N42" s="10"/>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="C43" s="103" t="s">
+      <c r="C43" s="82" t="s">
         <v>14</v>
       </c>
-      <c r="D43" s="103"/>
+      <c r="D43" s="82"/>
       <c r="F43" s="3"/>
       <c r="G43" s="3"/>
-      <c r="H43" s="103" t="s">
+      <c r="H43" s="82" t="s">
         <v>15</v>
       </c>
-      <c r="I43" s="103"/>
-      <c r="J43" s="103"/>
-      <c r="K43" s="103"/>
-      <c r="L43" s="103"/>
-      <c r="M43" s="103"/>
-      <c r="N43" s="103"/>
+      <c r="I43" s="82"/>
+      <c r="J43" s="82"/>
+      <c r="K43" s="82"/>
+      <c r="L43" s="82"/>
+      <c r="M43" s="82"/>
+      <c r="N43" s="82"/>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.35">
       <c r="F44" s="3"/>
@@ -5990,12 +5791,11 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="H43:N43"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:N8"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="C1:N1"/>
+    <mergeCell ref="C2:N2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:N4"/>
     <mergeCell ref="O10:O11"/>
     <mergeCell ref="P10:P11"/>
     <mergeCell ref="D13:P13"/>
@@ -6005,11 +5805,12 @@
     <mergeCell ref="E6:N6"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="E7:N7"/>
-    <mergeCell ref="C1:N1"/>
-    <mergeCell ref="C2:N2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:N4"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="H43:N43"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:N8"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="B10:B13"/>
   </mergeCells>
   <pageMargins left="0.59055118110236204" right="0" top="0" bottom="0.98425196850393704" header="0.59055118110236204" footer="0.39370078740157499"/>
   <pageSetup paperSize="9" scale="90" orientation="portrait" r:id="rId1"/>
@@ -6022,7 +5823,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:AK87"/>
   <sheetViews>
@@ -6051,298 +5852,298 @@
     <row r="1" spans="1:37" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
-      <c r="C1" s="95" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="95"/>
-      <c r="E1" s="95"/>
-      <c r="F1" s="95"/>
-      <c r="G1" s="95"/>
-      <c r="H1" s="95"/>
-      <c r="I1" s="95"/>
-      <c r="J1" s="95"/>
-      <c r="K1" s="95"/>
-      <c r="L1" s="95"/>
-      <c r="M1" s="95"/>
-      <c r="N1" s="95"/>
-      <c r="O1" s="95"/>
-      <c r="P1" s="95"/>
-      <c r="Q1" s="95"/>
-      <c r="R1" s="95"/>
-      <c r="S1" s="95"/>
-      <c r="T1" s="95"/>
-      <c r="U1" s="95"/>
-      <c r="V1" s="95"/>
+      <c r="C1" s="76" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="76"/>
+      <c r="K1" s="76"/>
+      <c r="L1" s="76"/>
+      <c r="M1" s="76"/>
+      <c r="N1" s="76"/>
+      <c r="O1" s="76"/>
+      <c r="P1" s="76"/>
+      <c r="Q1" s="76"/>
+      <c r="R1" s="76"/>
+      <c r="S1" s="76"/>
+      <c r="T1" s="76"/>
+      <c r="U1" s="76"/>
+      <c r="V1" s="76"/>
     </row>
     <row r="2" spans="1:37" ht="25.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="5"/>
       <c r="B2" s="6"/>
-      <c r="C2" s="89" t="s">
+      <c r="C2" s="79" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="89"/>
-      <c r="E2" s="89"/>
-      <c r="F2" s="89"/>
-      <c r="G2" s="89"/>
-      <c r="H2" s="89"/>
-      <c r="I2" s="89"/>
-      <c r="J2" s="89"/>
-      <c r="K2" s="89"/>
-      <c r="L2" s="89"/>
-      <c r="M2" s="89"/>
-      <c r="N2" s="89"/>
-      <c r="O2" s="89"/>
-      <c r="P2" s="89"/>
-      <c r="Q2" s="89"/>
-      <c r="R2" s="89"/>
-      <c r="S2" s="89"/>
-      <c r="T2" s="89"/>
-      <c r="U2" s="89"/>
-      <c r="V2" s="89"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="79"/>
+      <c r="G2" s="79"/>
+      <c r="H2" s="79"/>
+      <c r="I2" s="79"/>
+      <c r="J2" s="79"/>
+      <c r="K2" s="79"/>
+      <c r="L2" s="79"/>
+      <c r="M2" s="79"/>
+      <c r="N2" s="79"/>
+      <c r="O2" s="79"/>
+      <c r="P2" s="79"/>
+      <c r="Q2" s="79"/>
+      <c r="R2" s="79"/>
+      <c r="S2" s="79"/>
+      <c r="T2" s="79"/>
+      <c r="U2" s="79"/>
+      <c r="V2" s="79"/>
     </row>
     <row r="3" spans="1:37" ht="25.9" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="38"/>
+      <c r="A3" s="5"/>
       <c r="B3" s="6"/>
-      <c r="C3" s="94" t="s">
+      <c r="C3" s="74" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="94"/>
-      <c r="E3" s="56"/>
-      <c r="F3" s="41" t="s">
+      <c r="D3" s="74"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="G3" s="41"/>
-      <c r="H3" s="41"/>
-      <c r="I3" s="41"/>
-      <c r="J3" s="41"/>
-      <c r="K3" s="41"/>
-      <c r="L3" s="41"/>
-      <c r="M3" s="41"/>
-      <c r="N3" s="41"/>
-      <c r="O3" s="41"/>
-      <c r="P3" s="41"/>
-      <c r="Q3" s="41"/>
-      <c r="R3" s="41"/>
-      <c r="S3" s="41"/>
-      <c r="T3" s="41"/>
-      <c r="U3" s="41"/>
-      <c r="V3" s="41"/>
-      <c r="W3" s="41"/>
-      <c r="X3" s="41"/>
-      <c r="Y3" s="41"/>
-      <c r="Z3" s="41"/>
-      <c r="AA3" s="41"/>
-      <c r="AB3" s="41"/>
-      <c r="AC3" s="41"/>
-      <c r="AD3" s="41"/>
-      <c r="AE3" s="41"/>
-      <c r="AF3" s="41"/>
-      <c r="AG3" s="41"/>
-      <c r="AH3" s="41"/>
-      <c r="AI3" s="41"/>
-      <c r="AJ3" s="41"/>
-      <c r="AK3" s="41"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="36"/>
+      <c r="I3" s="36"/>
+      <c r="J3" s="36"/>
+      <c r="K3" s="36"/>
+      <c r="L3" s="36"/>
+      <c r="M3" s="36"/>
+      <c r="N3" s="36"/>
+      <c r="O3" s="36"/>
+      <c r="P3" s="36"/>
+      <c r="Q3" s="36"/>
+      <c r="R3" s="36"/>
+      <c r="S3" s="36"/>
+      <c r="T3" s="36"/>
+      <c r="U3" s="36"/>
+      <c r="V3" s="36"/>
+      <c r="W3" s="36"/>
+      <c r="X3" s="36"/>
+      <c r="Y3" s="36"/>
+      <c r="Z3" s="36"/>
+      <c r="AA3" s="36"/>
+      <c r="AB3" s="36"/>
+      <c r="AC3" s="36"/>
+      <c r="AD3" s="36"/>
+      <c r="AE3" s="36"/>
+      <c r="AF3" s="36"/>
+      <c r="AG3" s="36"/>
+      <c r="AH3" s="36"/>
+      <c r="AI3" s="36"/>
+      <c r="AJ3" s="36"/>
+      <c r="AK3" s="36"/>
     </row>
     <row r="4" spans="1:37" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="37"/>
-      <c r="B4" s="37"/>
-      <c r="C4" s="94" t="s">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="74" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="94"/>
-      <c r="E4" s="56"/>
-      <c r="F4" s="90" t="s">
+      <c r="D4" s="74"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="75" t="s">
         <v>27</v>
       </c>
-      <c r="G4" s="90"/>
-      <c r="H4" s="90"/>
-      <c r="I4" s="90"/>
-      <c r="J4" s="90"/>
-      <c r="K4" s="90"/>
-      <c r="L4" s="90"/>
-      <c r="M4" s="90"/>
-      <c r="N4" s="90"/>
-      <c r="O4" s="90"/>
-      <c r="P4" s="90"/>
-      <c r="Q4" s="90"/>
-      <c r="R4" s="90"/>
-      <c r="S4" s="90"/>
-      <c r="T4" s="90"/>
-      <c r="U4" s="90"/>
-      <c r="V4" s="90"/>
-      <c r="W4" s="41"/>
-      <c r="X4" s="41"/>
-      <c r="Y4" s="41"/>
-      <c r="Z4" s="41"/>
-      <c r="AA4" s="41"/>
-      <c r="AB4" s="41"/>
-      <c r="AC4" s="41"/>
-      <c r="AD4" s="41"/>
-      <c r="AE4" s="41"/>
-      <c r="AF4" s="41"/>
-      <c r="AG4" s="41"/>
-      <c r="AH4" s="41"/>
-      <c r="AI4" s="41"/>
-      <c r="AJ4" s="41"/>
-      <c r="AK4" s="41"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="75"/>
+      <c r="I4" s="75"/>
+      <c r="J4" s="75"/>
+      <c r="K4" s="75"/>
+      <c r="L4" s="75"/>
+      <c r="M4" s="75"/>
+      <c r="N4" s="75"/>
+      <c r="O4" s="75"/>
+      <c r="P4" s="75"/>
+      <c r="Q4" s="75"/>
+      <c r="R4" s="75"/>
+      <c r="S4" s="75"/>
+      <c r="T4" s="75"/>
+      <c r="U4" s="75"/>
+      <c r="V4" s="75"/>
+      <c r="W4" s="36"/>
+      <c r="X4" s="36"/>
+      <c r="Y4" s="36"/>
+      <c r="Z4" s="36"/>
+      <c r="AA4" s="36"/>
+      <c r="AB4" s="36"/>
+      <c r="AC4" s="36"/>
+      <c r="AD4" s="36"/>
+      <c r="AE4" s="36"/>
+      <c r="AF4" s="36"/>
+      <c r="AG4" s="36"/>
+      <c r="AH4" s="36"/>
+      <c r="AI4" s="36"/>
+      <c r="AJ4" s="36"/>
+      <c r="AK4" s="36"/>
     </row>
     <row r="5" spans="1:37" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="37"/>
-      <c r="B5" s="37"/>
-      <c r="C5" s="94" t="s">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="74" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="94"/>
-      <c r="E5" s="56"/>
-      <c r="F5" s="91" t="s">
+      <c r="D5" s="74"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="80" t="s">
         <v>28</v>
       </c>
-      <c r="G5" s="91"/>
-      <c r="H5" s="91"/>
-      <c r="I5" s="91"/>
-      <c r="J5" s="91"/>
-      <c r="K5" s="91"/>
-      <c r="L5" s="91"/>
-      <c r="M5" s="91"/>
-      <c r="N5" s="91"/>
-      <c r="O5" s="91"/>
-      <c r="P5" s="91"/>
-      <c r="Q5" s="91"/>
-      <c r="R5" s="91"/>
-      <c r="S5" s="91"/>
-      <c r="T5" s="91"/>
-      <c r="U5" s="91"/>
-      <c r="V5" s="91"/>
-      <c r="W5" s="42"/>
-      <c r="X5" s="42"/>
-      <c r="Y5" s="42"/>
-      <c r="Z5" s="42"/>
-      <c r="AA5" s="42"/>
-      <c r="AB5" s="42"/>
-      <c r="AC5" s="42"/>
-      <c r="AD5" s="42"/>
-      <c r="AE5" s="42"/>
-      <c r="AF5" s="42"/>
-      <c r="AG5" s="42"/>
-      <c r="AH5" s="42"/>
-      <c r="AI5" s="42"/>
-      <c r="AJ5" s="42"/>
-      <c r="AK5" s="42"/>
+      <c r="G5" s="80"/>
+      <c r="H5" s="80"/>
+      <c r="I5" s="80"/>
+      <c r="J5" s="80"/>
+      <c r="K5" s="80"/>
+      <c r="L5" s="80"/>
+      <c r="M5" s="80"/>
+      <c r="N5" s="80"/>
+      <c r="O5" s="80"/>
+      <c r="P5" s="80"/>
+      <c r="Q5" s="80"/>
+      <c r="R5" s="80"/>
+      <c r="S5" s="80"/>
+      <c r="T5" s="80"/>
+      <c r="U5" s="80"/>
+      <c r="V5" s="80"/>
+      <c r="W5" s="37"/>
+      <c r="X5" s="37"/>
+      <c r="Y5" s="37"/>
+      <c r="Z5" s="37"/>
+      <c r="AA5" s="37"/>
+      <c r="AB5" s="37"/>
+      <c r="AC5" s="37"/>
+      <c r="AD5" s="37"/>
+      <c r="AE5" s="37"/>
+      <c r="AF5" s="37"/>
+      <c r="AG5" s="37"/>
+      <c r="AH5" s="37"/>
+      <c r="AI5" s="37"/>
+      <c r="AJ5" s="37"/>
+      <c r="AK5" s="37"/>
     </row>
     <row r="6" spans="1:37" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="37"/>
-      <c r="B6" s="37"/>
-      <c r="C6" s="94" t="s">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="74" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="94"/>
-      <c r="E6" s="56"/>
-      <c r="F6" s="90" t="s">
+      <c r="D6" s="74"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="75" t="s">
         <v>95</v>
       </c>
-      <c r="G6" s="90"/>
-      <c r="H6" s="90"/>
-      <c r="I6" s="90"/>
-      <c r="J6" s="90"/>
-      <c r="K6" s="90"/>
-      <c r="L6" s="90"/>
-      <c r="M6" s="90"/>
-      <c r="N6" s="90"/>
-      <c r="O6" s="90"/>
-      <c r="P6" s="90"/>
-      <c r="Q6" s="90"/>
-      <c r="R6" s="90"/>
-      <c r="S6" s="90"/>
-      <c r="T6" s="90"/>
-      <c r="U6" s="90"/>
-      <c r="V6" s="90"/>
+      <c r="G6" s="75"/>
+      <c r="H6" s="75"/>
+      <c r="I6" s="75"/>
+      <c r="J6" s="75"/>
+      <c r="K6" s="75"/>
+      <c r="L6" s="75"/>
+      <c r="M6" s="75"/>
+      <c r="N6" s="75"/>
+      <c r="O6" s="75"/>
+      <c r="P6" s="75"/>
+      <c r="Q6" s="75"/>
+      <c r="R6" s="75"/>
+      <c r="S6" s="75"/>
+      <c r="T6" s="75"/>
+      <c r="U6" s="75"/>
+      <c r="V6" s="75"/>
     </row>
     <row r="7" spans="1:37" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="37"/>
-      <c r="B7" s="37"/>
-      <c r="C7" s="94" t="s">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="74" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="94"/>
-      <c r="E7" s="56"/>
-      <c r="F7" s="90" t="s">
+      <c r="D7" s="74"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="75" t="s">
         <v>92</v>
       </c>
-      <c r="G7" s="90"/>
-      <c r="H7" s="90"/>
-      <c r="I7" s="90"/>
-      <c r="J7" s="90"/>
-      <c r="K7" s="90"/>
-      <c r="L7" s="90"/>
-      <c r="M7" s="90"/>
-      <c r="N7" s="90"/>
-      <c r="O7" s="90"/>
-      <c r="P7" s="90"/>
-      <c r="Q7" s="90"/>
-      <c r="R7" s="90"/>
-      <c r="S7" s="90"/>
-      <c r="T7" s="90"/>
-      <c r="U7" s="90"/>
-      <c r="V7" s="90"/>
+      <c r="G7" s="75"/>
+      <c r="H7" s="75"/>
+      <c r="I7" s="75"/>
+      <c r="J7" s="75"/>
+      <c r="K7" s="75"/>
+      <c r="L7" s="75"/>
+      <c r="M7" s="75"/>
+      <c r="N7" s="75"/>
+      <c r="O7" s="75"/>
+      <c r="P7" s="75"/>
+      <c r="Q7" s="75"/>
+      <c r="R7" s="75"/>
+      <c r="S7" s="75"/>
+      <c r="T7" s="75"/>
+      <c r="U7" s="75"/>
+      <c r="V7" s="75"/>
     </row>
     <row r="8" spans="1:37" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="37"/>
-      <c r="B8" s="37"/>
-      <c r="C8" s="94" t="s">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="74" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="94"/>
-      <c r="E8" s="56"/>
-      <c r="F8" s="92" t="s">
+      <c r="D8" s="74"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="81" t="s">
         <v>96</v>
       </c>
-      <c r="G8" s="92"/>
-      <c r="H8" s="92"/>
-      <c r="I8" s="92"/>
-      <c r="J8" s="92"/>
-      <c r="K8" s="92"/>
-      <c r="L8" s="92"/>
-      <c r="M8" s="92"/>
-      <c r="N8" s="92"/>
-      <c r="O8" s="92"/>
-      <c r="P8" s="92"/>
-      <c r="Q8" s="92"/>
-      <c r="R8" s="92"/>
-      <c r="S8" s="92"/>
-      <c r="T8" s="92"/>
-      <c r="U8" s="92"/>
-      <c r="V8" s="92"/>
+      <c r="G8" s="81"/>
+      <c r="H8" s="81"/>
+      <c r="I8" s="81"/>
+      <c r="J8" s="81"/>
+      <c r="K8" s="81"/>
+      <c r="L8" s="81"/>
+      <c r="M8" s="81"/>
+      <c r="N8" s="81"/>
+      <c r="O8" s="81"/>
+      <c r="P8" s="81"/>
+      <c r="Q8" s="81"/>
+      <c r="R8" s="81"/>
+      <c r="S8" s="81"/>
+      <c r="T8" s="81"/>
+      <c r="U8" s="81"/>
+      <c r="V8" s="81"/>
     </row>
     <row r="9" spans="1:37" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="57"/>
-      <c r="B9" s="57"/>
-      <c r="C9" s="56"/>
-      <c r="D9" s="56"/>
-      <c r="E9" s="56"/>
-      <c r="F9" s="58"/>
-      <c r="G9" s="58"/>
-      <c r="H9" s="58"/>
-      <c r="I9" s="58"/>
-      <c r="J9" s="58"/>
-      <c r="K9" s="58"/>
-      <c r="L9" s="58"/>
-      <c r="M9" s="58"/>
-      <c r="N9" s="58"/>
-      <c r="O9" s="58"/>
-      <c r="P9" s="58"/>
-      <c r="Q9" s="58"/>
-      <c r="R9" s="58"/>
-      <c r="S9" s="58"/>
-      <c r="T9" s="58"/>
-      <c r="U9" s="58"/>
-      <c r="V9" s="58"/>
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="16"/>
+      <c r="K9" s="16"/>
+      <c r="L9" s="16"/>
+      <c r="M9" s="16"/>
+      <c r="N9" s="16"/>
+      <c r="O9" s="16"/>
+      <c r="P9" s="16"/>
+      <c r="Q9" s="16"/>
+      <c r="R9" s="16"/>
+      <c r="S9" s="16"/>
+      <c r="T9" s="16"/>
+      <c r="U9" s="16"/>
+      <c r="V9" s="16"/>
     </row>
     <row r="10" spans="1:37" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
-      <c r="E10" s="56"/>
+      <c r="E10" s="7"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
@@ -6362,162 +6163,162 @@
       <c r="V10" s="1"/>
     </row>
     <row r="11" spans="1:37" ht="48" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="87" t="s">
+      <c r="A11" s="77" t="s">
         <v>1</v>
       </c>
-      <c r="B11" s="87" t="s">
+      <c r="B11" s="77" t="s">
         <v>3</v>
       </c>
       <c r="C11" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="71">
+      <c r="D11" s="60">
         <v>6</v>
       </c>
-      <c r="E11" s="71" t="s">
+      <c r="E11" s="60" t="s">
         <v>101</v>
       </c>
-      <c r="F11" s="71">
+      <c r="F11" s="60">
         <v>13</v>
       </c>
-      <c r="G11" s="71" t="s">
+      <c r="G11" s="60" t="s">
         <v>100</v>
       </c>
-      <c r="H11" s="71">
+      <c r="H11" s="60">
         <v>20</v>
       </c>
-      <c r="I11" s="71">
+      <c r="I11" s="60">
         <v>31</v>
       </c>
-      <c r="J11" s="71"/>
-      <c r="K11" s="71"/>
-      <c r="L11" s="71"/>
-      <c r="M11" s="71"/>
-      <c r="N11" s="71"/>
-      <c r="O11" s="71"/>
-      <c r="P11" s="71"/>
-      <c r="Q11" s="71"/>
-      <c r="R11" s="71"/>
-      <c r="S11" s="71"/>
-      <c r="T11" s="71"/>
-      <c r="U11" s="71"/>
-      <c r="V11" s="71"/>
-      <c r="W11" s="88" t="s">
+      <c r="J11" s="60"/>
+      <c r="K11" s="60"/>
+      <c r="L11" s="60"/>
+      <c r="M11" s="60"/>
+      <c r="N11" s="60"/>
+      <c r="O11" s="60"/>
+      <c r="P11" s="60"/>
+      <c r="Q11" s="60"/>
+      <c r="R11" s="60"/>
+      <c r="S11" s="60"/>
+      <c r="T11" s="60"/>
+      <c r="U11" s="60"/>
+      <c r="V11" s="60"/>
+      <c r="W11" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="X11" s="88" t="s">
+      <c r="X11" s="78" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:37" ht="36.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="87"/>
-      <c r="B12" s="87"/>
+      <c r="A12" s="77"/>
+      <c r="B12" s="77"/>
       <c r="C12" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="72"/>
-      <c r="E12" s="72"/>
-      <c r="F12" s="72"/>
-      <c r="G12" s="72"/>
-      <c r="H12" s="72"/>
-      <c r="I12" s="72"/>
-      <c r="J12" s="72"/>
-      <c r="K12" s="72"/>
-      <c r="L12" s="73"/>
-      <c r="M12" s="73"/>
-      <c r="N12" s="73"/>
-      <c r="O12" s="73"/>
-      <c r="P12" s="73"/>
-      <c r="Q12" s="73"/>
-      <c r="R12" s="73"/>
-      <c r="S12" s="73"/>
-      <c r="T12" s="73"/>
-      <c r="U12" s="73"/>
-      <c r="V12" s="73"/>
-      <c r="W12" s="88"/>
-      <c r="X12" s="88"/>
+      <c r="D12" s="61"/>
+      <c r="E12" s="61"/>
+      <c r="F12" s="61"/>
+      <c r="G12" s="61"/>
+      <c r="H12" s="61"/>
+      <c r="I12" s="61"/>
+      <c r="J12" s="61"/>
+      <c r="K12" s="61"/>
+      <c r="L12" s="62"/>
+      <c r="M12" s="62"/>
+      <c r="N12" s="62"/>
+      <c r="O12" s="62"/>
+      <c r="P12" s="62"/>
+      <c r="Q12" s="62"/>
+      <c r="R12" s="62"/>
+      <c r="S12" s="62"/>
+      <c r="T12" s="62"/>
+      <c r="U12" s="62"/>
+      <c r="V12" s="62"/>
+      <c r="W12" s="78"/>
+      <c r="X12" s="78"/>
     </row>
     <row r="13" spans="1:37" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="87"/>
-      <c r="B13" s="87"/>
+      <c r="A13" s="77"/>
+      <c r="B13" s="77"/>
       <c r="C13" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="71">
-        <v>4</v>
-      </c>
-      <c r="E13" s="71">
-        <v>3</v>
-      </c>
-      <c r="F13" s="71">
-        <v>4</v>
-      </c>
-      <c r="G13" s="71">
-        <v>3</v>
-      </c>
-      <c r="H13" s="71">
-        <v>4</v>
-      </c>
-      <c r="I13" s="71">
-        <v>4</v>
-      </c>
-      <c r="J13" s="71"/>
-      <c r="K13" s="71"/>
-      <c r="L13" s="71"/>
-      <c r="M13" s="71"/>
-      <c r="N13" s="71"/>
-      <c r="O13" s="71"/>
-      <c r="P13" s="71"/>
-      <c r="Q13" s="71"/>
-      <c r="R13" s="71"/>
-      <c r="S13" s="71"/>
-      <c r="T13" s="71"/>
-      <c r="U13" s="71"/>
-      <c r="V13" s="71"/>
-      <c r="W13" s="60">
+      <c r="D13" s="60">
+        <v>4</v>
+      </c>
+      <c r="E13" s="60">
+        <v>3</v>
+      </c>
+      <c r="F13" s="60">
+        <v>4</v>
+      </c>
+      <c r="G13" s="60">
+        <v>3</v>
+      </c>
+      <c r="H13" s="60">
+        <v>4</v>
+      </c>
+      <c r="I13" s="60">
+        <v>4</v>
+      </c>
+      <c r="J13" s="60"/>
+      <c r="K13" s="60"/>
+      <c r="L13" s="60"/>
+      <c r="M13" s="60"/>
+      <c r="N13" s="60"/>
+      <c r="O13" s="60"/>
+      <c r="P13" s="60"/>
+      <c r="Q13" s="60"/>
+      <c r="R13" s="60"/>
+      <c r="S13" s="60"/>
+      <c r="T13" s="60"/>
+      <c r="U13" s="60"/>
+      <c r="V13" s="60"/>
+      <c r="W13" s="51">
         <f>SUM(D13:V13)</f>
         <v>22</v>
       </c>
-      <c r="X13" s="61">
+      <c r="X13" s="52">
         <v>100</v>
       </c>
     </row>
     <row r="14" spans="1:37" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="87"/>
-      <c r="B14" s="87"/>
+      <c r="A14" s="77"/>
+      <c r="B14" s="77"/>
       <c r="C14" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="D14" s="87"/>
-      <c r="E14" s="87"/>
-      <c r="F14" s="87"/>
-      <c r="G14" s="87"/>
-      <c r="H14" s="87"/>
-      <c r="I14" s="87"/>
-      <c r="J14" s="87"/>
-      <c r="K14" s="87"/>
-      <c r="L14" s="87"/>
-      <c r="M14" s="87"/>
-      <c r="N14" s="87"/>
-      <c r="O14" s="87"/>
-      <c r="P14" s="87"/>
-      <c r="Q14" s="87"/>
-      <c r="R14" s="87"/>
-      <c r="S14" s="87"/>
-      <c r="T14" s="87"/>
-      <c r="U14" s="87"/>
-      <c r="V14" s="87"/>
+      <c r="D14" s="77"/>
+      <c r="E14" s="77"/>
+      <c r="F14" s="77"/>
+      <c r="G14" s="77"/>
+      <c r="H14" s="77"/>
+      <c r="I14" s="77"/>
+      <c r="J14" s="77"/>
+      <c r="K14" s="77"/>
+      <c r="L14" s="77"/>
+      <c r="M14" s="77"/>
+      <c r="N14" s="77"/>
+      <c r="O14" s="77"/>
+      <c r="P14" s="77"/>
+      <c r="Q14" s="77"/>
+      <c r="R14" s="77"/>
+      <c r="S14" s="77"/>
+      <c r="T14" s="77"/>
+      <c r="U14" s="77"/>
+      <c r="V14" s="77"/>
       <c r="W14" s="9"/>
-      <c r="X14" s="61"/>
+      <c r="X14" s="52"/>
     </row>
     <row r="15" spans="1:37" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="8">
         <v>1</v>
       </c>
-      <c r="B15" s="49" t="s">
+      <c r="B15" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="50" t="s">
+      <c r="C15" s="45" t="s">
         <v>31</v>
       </c>
       <c r="D15" s="13">
@@ -6551,11 +6352,11 @@
       <c r="T15" s="13"/>
       <c r="U15" s="13"/>
       <c r="V15" s="13"/>
-      <c r="W15" s="60">
+      <c r="W15" s="51">
         <f t="shared" ref="W15:W42" si="0">SUM(D15:V15)</f>
         <v>22</v>
       </c>
-      <c r="X15" s="61">
+      <c r="X15" s="52">
         <f t="shared" ref="X15:X42" si="1">(W15/$W$13)*$X$13</f>
         <v>100</v>
       </c>
@@ -6564,10 +6365,10 @@
       <c r="A16" s="8">
         <v>2</v>
       </c>
-      <c r="B16" s="51" t="s">
+      <c r="B16" s="46" t="s">
         <v>32</v>
       </c>
-      <c r="C16" s="50" t="s">
+      <c r="C16" s="45" t="s">
         <v>33</v>
       </c>
       <c r="D16" s="13">
@@ -6601,11 +6402,11 @@
       <c r="T16" s="13"/>
       <c r="U16" s="13"/>
       <c r="V16" s="13"/>
-      <c r="W16" s="60">
+      <c r="W16" s="51">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="X16" s="61">
+      <c r="X16" s="52">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
@@ -6614,10 +6415,10 @@
       <c r="A17" s="8">
         <v>3</v>
       </c>
-      <c r="B17" s="51" t="s">
+      <c r="B17" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="C17" s="50" t="s">
+      <c r="C17" s="45" t="s">
         <v>35</v>
       </c>
       <c r="D17" s="13">
@@ -6651,11 +6452,11 @@
       <c r="T17" s="13"/>
       <c r="U17" s="13"/>
       <c r="V17" s="13"/>
-      <c r="W17" s="60">
+      <c r="W17" s="51">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="X17" s="61">
+      <c r="X17" s="52">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
@@ -6664,10 +6465,10 @@
       <c r="A18" s="8">
         <v>4</v>
       </c>
-      <c r="B18" s="51" t="s">
+      <c r="B18" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="C18" s="50" t="s">
+      <c r="C18" s="45" t="s">
         <v>37</v>
       </c>
       <c r="D18" s="13">
@@ -6701,11 +6502,11 @@
       <c r="T18" s="13"/>
       <c r="U18" s="13"/>
       <c r="V18" s="13"/>
-      <c r="W18" s="60">
+      <c r="W18" s="51">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="X18" s="61">
+      <c r="X18" s="52">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
@@ -6714,10 +6515,10 @@
       <c r="A19" s="8">
         <v>5</v>
       </c>
-      <c r="B19" s="51" t="s">
+      <c r="B19" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="C19" s="50" t="s">
+      <c r="C19" s="45" t="s">
         <v>39</v>
       </c>
       <c r="D19" s="13">
@@ -6751,11 +6552,11 @@
       <c r="T19" s="13"/>
       <c r="U19" s="13"/>
       <c r="V19" s="13"/>
-      <c r="W19" s="60">
+      <c r="W19" s="51">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="X19" s="61">
+      <c r="X19" s="52">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
@@ -6764,10 +6565,10 @@
       <c r="A20" s="8">
         <v>6</v>
       </c>
-      <c r="B20" s="51" t="s">
+      <c r="B20" s="46" t="s">
         <v>40</v>
       </c>
-      <c r="C20" s="50" t="s">
+      <c r="C20" s="45" t="s">
         <v>41</v>
       </c>
       <c r="D20" s="13">
@@ -6801,11 +6602,11 @@
       <c r="T20" s="13"/>
       <c r="U20" s="13"/>
       <c r="V20" s="13"/>
-      <c r="W20" s="60">
+      <c r="W20" s="51">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="X20" s="61">
+      <c r="X20" s="52">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
@@ -6814,10 +6615,10 @@
       <c r="A21" s="8">
         <v>7</v>
       </c>
-      <c r="B21" s="51" t="s">
+      <c r="B21" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="C21" s="50" t="s">
+      <c r="C21" s="45" t="s">
         <v>43</v>
       </c>
       <c r="D21" s="13">
@@ -6851,11 +6652,11 @@
       <c r="T21" s="13"/>
       <c r="U21" s="13"/>
       <c r="V21" s="13"/>
-      <c r="W21" s="60">
+      <c r="W21" s="51">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="X21" s="61">
+      <c r="X21" s="52">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
@@ -6864,10 +6665,10 @@
       <c r="A22" s="8">
         <v>8</v>
       </c>
-      <c r="B22" s="51" t="s">
+      <c r="B22" s="46" t="s">
         <v>44</v>
       </c>
-      <c r="C22" s="50" t="s">
+      <c r="C22" s="45" t="s">
         <v>45</v>
       </c>
       <c r="D22" s="13">
@@ -6901,11 +6702,11 @@
       <c r="T22" s="13"/>
       <c r="U22" s="13"/>
       <c r="V22" s="13"/>
-      <c r="W22" s="60">
+      <c r="W22" s="51">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="X22" s="61">
+      <c r="X22" s="52">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
@@ -6914,10 +6715,10 @@
       <c r="A23" s="8">
         <v>9</v>
       </c>
-      <c r="B23" s="51" t="s">
+      <c r="B23" s="46" t="s">
         <v>46</v>
       </c>
-      <c r="C23" s="50" t="s">
+      <c r="C23" s="45" t="s">
         <v>47</v>
       </c>
       <c r="D23" s="13">
@@ -6951,11 +6752,11 @@
       <c r="T23" s="13"/>
       <c r="U23" s="13"/>
       <c r="V23" s="13"/>
-      <c r="W23" s="60">
+      <c r="W23" s="51">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="X23" s="61">
+      <c r="X23" s="52">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
@@ -6964,10 +6765,10 @@
       <c r="A24" s="8">
         <v>10</v>
       </c>
-      <c r="B24" s="51" t="s">
+      <c r="B24" s="46" t="s">
         <v>48</v>
       </c>
-      <c r="C24" s="50" t="s">
+      <c r="C24" s="45" t="s">
         <v>49</v>
       </c>
       <c r="D24" s="13">
@@ -7001,11 +6802,11 @@
       <c r="T24" s="13"/>
       <c r="U24" s="13"/>
       <c r="V24" s="13"/>
-      <c r="W24" s="60">
+      <c r="W24" s="51">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="X24" s="61">
+      <c r="X24" s="52">
         <f t="shared" si="1"/>
         <v>72.727272727272734</v>
       </c>
@@ -7014,10 +6815,10 @@
       <c r="A25" s="8">
         <v>11</v>
       </c>
-      <c r="B25" s="51" t="s">
+      <c r="B25" s="46" t="s">
         <v>50</v>
       </c>
-      <c r="C25" s="50" t="s">
+      <c r="C25" s="45" t="s">
         <v>51</v>
       </c>
       <c r="D25" s="13">
@@ -7051,11 +6852,11 @@
       <c r="T25" s="13"/>
       <c r="U25" s="13"/>
       <c r="V25" s="13"/>
-      <c r="W25" s="60">
+      <c r="W25" s="51">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="X25" s="61">
+      <c r="X25" s="52">
         <f t="shared" si="1"/>
         <v>86.36363636363636</v>
       </c>
@@ -7064,10 +6865,10 @@
       <c r="A26" s="8">
         <v>12</v>
       </c>
-      <c r="B26" s="51" t="s">
+      <c r="B26" s="46" t="s">
         <v>52</v>
       </c>
-      <c r="C26" s="50" t="s">
+      <c r="C26" s="45" t="s">
         <v>53</v>
       </c>
       <c r="D26" s="13">
@@ -7101,11 +6902,11 @@
       <c r="T26" s="13"/>
       <c r="U26" s="13"/>
       <c r="V26" s="13"/>
-      <c r="W26" s="60">
+      <c r="W26" s="51">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="X26" s="61">
+      <c r="X26" s="52">
         <f t="shared" si="1"/>
         <v>86.36363636363636</v>
       </c>
@@ -7114,10 +6915,10 @@
       <c r="A27" s="8">
         <v>13</v>
       </c>
-      <c r="B27" s="51" t="s">
+      <c r="B27" s="46" t="s">
         <v>54</v>
       </c>
-      <c r="C27" s="50" t="s">
+      <c r="C27" s="45" t="s">
         <v>55</v>
       </c>
       <c r="D27" s="13">
@@ -7151,11 +6952,11 @@
       <c r="T27" s="13"/>
       <c r="U27" s="13"/>
       <c r="V27" s="13"/>
-      <c r="W27" s="60">
+      <c r="W27" s="51">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="X27" s="61">
+      <c r="X27" s="52">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
@@ -7164,10 +6965,10 @@
       <c r="A28" s="8">
         <v>14</v>
       </c>
-      <c r="B28" s="49" t="s">
+      <c r="B28" s="44" t="s">
         <v>56</v>
       </c>
-      <c r="C28" s="50" t="s">
+      <c r="C28" s="45" t="s">
         <v>57</v>
       </c>
       <c r="D28" s="13">
@@ -7201,11 +7002,11 @@
       <c r="T28" s="13"/>
       <c r="U28" s="13"/>
       <c r="V28" s="13"/>
-      <c r="W28" s="60">
+      <c r="W28" s="51">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="X28" s="61">
+      <c r="X28" s="52">
         <f t="shared" si="1"/>
         <v>81.818181818181827</v>
       </c>
@@ -7214,10 +7015,10 @@
       <c r="A29" s="8">
         <v>15</v>
       </c>
-      <c r="B29" s="51" t="s">
+      <c r="B29" s="46" t="s">
         <v>58</v>
       </c>
-      <c r="C29" s="50" t="s">
+      <c r="C29" s="45" t="s">
         <v>59</v>
       </c>
       <c r="D29" s="13">
@@ -7251,11 +7052,11 @@
       <c r="T29" s="13"/>
       <c r="U29" s="13"/>
       <c r="V29" s="13"/>
-      <c r="W29" s="60">
+      <c r="W29" s="51">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="X29" s="61">
+      <c r="X29" s="52">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
@@ -7264,10 +7065,10 @@
       <c r="A30" s="8">
         <v>16</v>
       </c>
-      <c r="B30" s="51" t="s">
+      <c r="B30" s="46" t="s">
         <v>60</v>
       </c>
-      <c r="C30" s="50" t="s">
+      <c r="C30" s="45" t="s">
         <v>61</v>
       </c>
       <c r="D30" s="13">
@@ -7301,11 +7102,11 @@
       <c r="T30" s="13"/>
       <c r="U30" s="13"/>
       <c r="V30" s="13"/>
-      <c r="W30" s="60">
+      <c r="W30" s="51">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="X30" s="61">
+      <c r="X30" s="52">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
@@ -7314,10 +7115,10 @@
       <c r="A31" s="8">
         <v>17</v>
       </c>
-      <c r="B31" s="51" t="s">
+      <c r="B31" s="46" t="s">
         <v>62</v>
       </c>
-      <c r="C31" s="50" t="s">
+      <c r="C31" s="45" t="s">
         <v>63</v>
       </c>
       <c r="D31" s="13">
@@ -7351,11 +7152,11 @@
       <c r="T31" s="13"/>
       <c r="U31" s="13"/>
       <c r="V31" s="13"/>
-      <c r="W31" s="60">
+      <c r="W31" s="51">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="X31" s="61">
+      <c r="X31" s="52">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
@@ -7364,10 +7165,10 @@
       <c r="A32" s="8">
         <v>18</v>
       </c>
-      <c r="B32" s="51" t="s">
+      <c r="B32" s="46" t="s">
         <v>64</v>
       </c>
-      <c r="C32" s="50" t="s">
+      <c r="C32" s="45" t="s">
         <v>65</v>
       </c>
       <c r="D32" s="13">
@@ -7401,11 +7202,11 @@
       <c r="T32" s="13"/>
       <c r="U32" s="13"/>
       <c r="V32" s="13"/>
-      <c r="W32" s="60">
+      <c r="W32" s="51">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="X32" s="61">
+      <c r="X32" s="52">
         <f t="shared" si="1"/>
         <v>86.36363636363636</v>
       </c>
@@ -7414,10 +7215,10 @@
       <c r="A33" s="8">
         <v>19</v>
       </c>
-      <c r="B33" s="51" t="s">
+      <c r="B33" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="C33" s="50" t="s">
+      <c r="C33" s="45" t="s">
         <v>66</v>
       </c>
       <c r="D33" s="13">
@@ -7451,11 +7252,11 @@
       <c r="T33" s="13"/>
       <c r="U33" s="13"/>
       <c r="V33" s="13"/>
-      <c r="W33" s="60">
+      <c r="W33" s="51">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="X33" s="61">
+      <c r="X33" s="52">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
@@ -7464,10 +7265,10 @@
       <c r="A34" s="8">
         <v>20</v>
       </c>
-      <c r="B34" s="51" t="s">
+      <c r="B34" s="46" t="s">
         <v>67</v>
       </c>
-      <c r="C34" s="50" t="s">
+      <c r="C34" s="45" t="s">
         <v>68</v>
       </c>
       <c r="D34" s="13">
@@ -7501,11 +7302,11 @@
       <c r="T34" s="13"/>
       <c r="U34" s="13"/>
       <c r="V34" s="13"/>
-      <c r="W34" s="60">
+      <c r="W34" s="51">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="X34" s="61">
+      <c r="X34" s="52">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
@@ -7514,10 +7315,10 @@
       <c r="A35" s="8">
         <v>21</v>
       </c>
-      <c r="B35" s="51" t="s">
+      <c r="B35" s="46" t="s">
         <v>69</v>
       </c>
-      <c r="C35" s="50" t="s">
+      <c r="C35" s="45" t="s">
         <v>70</v>
       </c>
       <c r="D35" s="13">
@@ -7551,11 +7352,11 @@
       <c r="T35" s="13"/>
       <c r="U35" s="13"/>
       <c r="V35" s="13"/>
-      <c r="W35" s="60">
+      <c r="W35" s="51">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="X35" s="61">
+      <c r="X35" s="52">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
@@ -7564,10 +7365,10 @@
       <c r="A36" s="8">
         <v>22</v>
       </c>
-      <c r="B36" s="49" t="s">
+      <c r="B36" s="44" t="s">
         <v>71</v>
       </c>
-      <c r="C36" s="50" t="s">
+      <c r="C36" s="45" t="s">
         <v>72</v>
       </c>
       <c r="D36" s="13">
@@ -7601,11 +7402,11 @@
       <c r="T36" s="13"/>
       <c r="U36" s="13"/>
       <c r="V36" s="13"/>
-      <c r="W36" s="60">
+      <c r="W36" s="51">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="X36" s="61">
+      <c r="X36" s="52">
         <f t="shared" si="1"/>
         <v>81.818181818181827</v>
       </c>
@@ -7614,10 +7415,10 @@
       <c r="A37" s="8">
         <v>23</v>
       </c>
-      <c r="B37" s="51" t="s">
+      <c r="B37" s="46" t="s">
         <v>73</v>
       </c>
-      <c r="C37" s="50" t="s">
+      <c r="C37" s="45" t="s">
         <v>74</v>
       </c>
       <c r="D37" s="13">
@@ -7651,11 +7452,11 @@
       <c r="T37" s="13"/>
       <c r="U37" s="13"/>
       <c r="V37" s="13"/>
-      <c r="W37" s="60">
+      <c r="W37" s="51">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="X37" s="61">
+      <c r="X37" s="52">
         <f t="shared" si="1"/>
         <v>81.818181818181827</v>
       </c>
@@ -7664,10 +7465,10 @@
       <c r="A38" s="8">
         <v>24</v>
       </c>
-      <c r="B38" s="51" t="s">
+      <c r="B38" s="46" t="s">
         <v>75</v>
       </c>
-      <c r="C38" s="50" t="s">
+      <c r="C38" s="45" t="s">
         <v>76</v>
       </c>
       <c r="D38" s="13">
@@ -7701,11 +7502,11 @@
       <c r="T38" s="13"/>
       <c r="U38" s="13"/>
       <c r="V38" s="13"/>
-      <c r="W38" s="60">
+      <c r="W38" s="51">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="X38" s="61">
+      <c r="X38" s="52">
         <f t="shared" si="1"/>
         <v>86.36363636363636</v>
       </c>
@@ -7714,10 +7515,10 @@
       <c r="A39" s="8">
         <v>25</v>
       </c>
-      <c r="B39" s="49" t="s">
+      <c r="B39" s="44" t="s">
         <v>77</v>
       </c>
-      <c r="C39" s="50" t="s">
+      <c r="C39" s="45" t="s">
         <v>78</v>
       </c>
       <c r="D39" s="13">
@@ -7751,11 +7552,11 @@
       <c r="T39" s="13"/>
       <c r="U39" s="13"/>
       <c r="V39" s="13"/>
-      <c r="W39" s="60">
+      <c r="W39" s="51">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="X39" s="61">
+      <c r="X39" s="52">
         <f t="shared" si="1"/>
         <v>72.727272727272734</v>
       </c>
@@ -7764,10 +7565,10 @@
       <c r="A40" s="8">
         <v>26</v>
       </c>
-      <c r="B40" s="53" t="s">
+      <c r="B40" s="48" t="s">
         <v>79</v>
       </c>
-      <c r="C40" s="50" t="s">
+      <c r="C40" s="45" t="s">
         <v>80</v>
       </c>
       <c r="D40" s="13">
@@ -7801,11 +7602,11 @@
       <c r="T40" s="13"/>
       <c r="U40" s="13"/>
       <c r="V40" s="13"/>
-      <c r="W40" s="60">
+      <c r="W40" s="51">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="X40" s="61">
+      <c r="X40" s="52">
         <f t="shared" si="1"/>
         <v>81.818181818181827</v>
       </c>
@@ -7814,10 +7615,10 @@
       <c r="A41" s="8">
         <v>27</v>
       </c>
-      <c r="B41" s="54" t="s">
+      <c r="B41" s="49" t="s">
         <v>81</v>
       </c>
-      <c r="C41" s="50" t="s">
+      <c r="C41" s="45" t="s">
         <v>82</v>
       </c>
       <c r="D41" s="13">
@@ -7851,11 +7652,11 @@
       <c r="T41" s="13"/>
       <c r="U41" s="13"/>
       <c r="V41" s="13"/>
-      <c r="W41" s="60">
+      <c r="W41" s="51">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="X41" s="61">
+      <c r="X41" s="52">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
@@ -7864,10 +7665,10 @@
       <c r="A42" s="8">
         <v>28</v>
       </c>
-      <c r="B42" s="55" t="s">
+      <c r="B42" s="44" t="s">
         <v>83</v>
       </c>
-      <c r="C42" s="50" t="s">
+      <c r="C42" s="45" t="s">
         <v>84</v>
       </c>
       <c r="D42" s="13">
@@ -7901,11 +7702,11 @@
       <c r="T42" s="13"/>
       <c r="U42" s="13"/>
       <c r="V42" s="13"/>
-      <c r="W42" s="60">
+      <c r="W42" s="51">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="X42" s="61">
+      <c r="X42" s="52">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
@@ -7913,7 +7714,6 @@
     <row r="43" spans="1:27" ht="46.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C43" s="10"/>
       <c r="D43" s="10"/>
-      <c r="E43" s="69"/>
       <c r="H43" s="3"/>
       <c r="I43" s="3"/>
       <c r="J43" s="3"/>
@@ -7932,11 +7732,11 @@
       <c r="AA43" s="15"/>
     </row>
     <row r="44" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="C44" s="103" t="s">
+      <c r="C44" s="82" t="s">
         <v>14</v>
       </c>
-      <c r="D44" s="103"/>
-      <c r="E44" s="70"/>
+      <c r="D44" s="82"/>
+      <c r="E44" s="33"/>
       <c r="H44" s="3"/>
       <c r="I44" s="3"/>
       <c r="J44" s="3"/>
@@ -7950,10 +7750,10 @@
       <c r="R44" s="3"/>
       <c r="S44" s="3"/>
       <c r="T44" s="3"/>
-      <c r="U44" s="59" t="s">
+      <c r="U44" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="V44" s="59"/>
+      <c r="V44" s="50"/>
       <c r="AA44" s="15"/>
     </row>
     <row r="45" spans="1:27" x14ac:dyDescent="0.35">
@@ -8132,11 +7932,11 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="W11:W12"/>
-    <mergeCell ref="X11:X12"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="F8:V8"/>
+    <mergeCell ref="C1:V1"/>
+    <mergeCell ref="C2:V2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="F4:V4"/>
     <mergeCell ref="A11:A14"/>
     <mergeCell ref="B11:B14"/>
     <mergeCell ref="D14:V14"/>
@@ -8146,11 +7946,11 @@
     <mergeCell ref="F6:V6"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="F7:V7"/>
-    <mergeCell ref="C1:V1"/>
-    <mergeCell ref="C2:V2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="F4:V4"/>
+    <mergeCell ref="W11:W12"/>
+    <mergeCell ref="X11:X12"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="F8:V8"/>
   </mergeCells>
   <pageMargins left="0.59055118110236204" right="0" top="0" bottom="0.98425196850393704" header="0.59055118110236204" footer="0.39370078740157499"/>
   <pageSetup paperSize="9" scale="83" orientation="portrait" r:id="rId1"/>
@@ -8163,7 +7963,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AD84"/>
   <sheetViews>
@@ -8194,200 +7994,200 @@
     <row r="1" spans="1:30" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
-      <c r="C1" s="95" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="95"/>
-      <c r="E1" s="95"/>
-      <c r="F1" s="95"/>
-      <c r="G1" s="95"/>
-      <c r="H1" s="95"/>
-      <c r="I1" s="95"/>
-      <c r="J1" s="95"/>
-      <c r="K1" s="95"/>
-      <c r="L1" s="95"/>
-      <c r="M1" s="95"/>
-      <c r="N1" s="95"/>
+      <c r="C1" s="76" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="76"/>
+      <c r="K1" s="76"/>
+      <c r="L1" s="76"/>
+      <c r="M1" s="76"/>
+      <c r="N1" s="76"/>
     </row>
     <row r="2" spans="1:30" ht="25.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="5"/>
       <c r="B2" s="6"/>
-      <c r="C2" s="89" t="s">
+      <c r="C2" s="79" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="89"/>
-      <c r="E2" s="89"/>
-      <c r="F2" s="89"/>
-      <c r="G2" s="89"/>
-      <c r="H2" s="89"/>
-      <c r="I2" s="89"/>
-      <c r="J2" s="89"/>
-      <c r="K2" s="89"/>
-      <c r="L2" s="89"/>
-      <c r="M2" s="89"/>
-      <c r="N2" s="89"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="79"/>
+      <c r="G2" s="79"/>
+      <c r="H2" s="79"/>
+      <c r="I2" s="79"/>
+      <c r="J2" s="79"/>
+      <c r="K2" s="79"/>
+      <c r="L2" s="79"/>
+      <c r="M2" s="79"/>
+      <c r="N2" s="79"/>
     </row>
     <row r="3" spans="1:30" ht="25.9" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="38"/>
+      <c r="A3" s="5"/>
       <c r="B3" s="6"/>
-      <c r="C3" s="94" t="s">
+      <c r="C3" s="74" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="94"/>
-      <c r="E3" s="41" t="s">
+      <c r="D3" s="74"/>
+      <c r="E3" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="41"/>
-      <c r="I3" s="41"/>
-      <c r="J3" s="41"/>
-      <c r="K3" s="41"/>
-      <c r="L3" s="41"/>
-      <c r="M3" s="41"/>
-      <c r="N3" s="41"/>
-      <c r="O3" s="41"/>
-      <c r="P3" s="41"/>
-      <c r="Q3" s="41"/>
-      <c r="R3" s="41"/>
-      <c r="S3" s="41"/>
-      <c r="T3" s="41"/>
-      <c r="U3" s="41"/>
-      <c r="V3" s="41"/>
-      <c r="W3" s="41"/>
-      <c r="X3" s="41"/>
-      <c r="Y3" s="41"/>
-      <c r="Z3" s="41"/>
-      <c r="AA3" s="41"/>
-      <c r="AB3" s="41"/>
-      <c r="AC3" s="41"/>
-      <c r="AD3" s="41"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="36"/>
+      <c r="I3" s="36"/>
+      <c r="J3" s="36"/>
+      <c r="K3" s="36"/>
+      <c r="L3" s="36"/>
+      <c r="M3" s="36"/>
+      <c r="N3" s="36"/>
+      <c r="O3" s="36"/>
+      <c r="P3" s="36"/>
+      <c r="Q3" s="36"/>
+      <c r="R3" s="36"/>
+      <c r="S3" s="36"/>
+      <c r="T3" s="36"/>
+      <c r="U3" s="36"/>
+      <c r="V3" s="36"/>
+      <c r="W3" s="36"/>
+      <c r="X3" s="36"/>
+      <c r="Y3" s="36"/>
+      <c r="Z3" s="36"/>
+      <c r="AA3" s="36"/>
+      <c r="AB3" s="36"/>
+      <c r="AC3" s="36"/>
+      <c r="AD3" s="36"/>
     </row>
     <row r="4" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="37"/>
-      <c r="B4" s="37"/>
-      <c r="C4" s="94" t="s">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="74" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="94"/>
-      <c r="E4" s="90" t="s">
+      <c r="D4" s="74"/>
+      <c r="E4" s="75" t="s">
         <v>27</v>
       </c>
-      <c r="F4" s="90"/>
-      <c r="G4" s="90"/>
-      <c r="H4" s="90"/>
-      <c r="I4" s="90"/>
-      <c r="J4" s="90"/>
-      <c r="K4" s="90"/>
-      <c r="L4" s="90"/>
-      <c r="M4" s="90"/>
-      <c r="N4" s="90"/>
-      <c r="O4" s="41"/>
-      <c r="P4" s="41"/>
-      <c r="Q4" s="41"/>
-      <c r="R4" s="41"/>
-      <c r="S4" s="41"/>
-      <c r="T4" s="41"/>
-      <c r="U4" s="41"/>
-      <c r="V4" s="41"/>
-      <c r="W4" s="41"/>
-      <c r="X4" s="41"/>
-      <c r="Y4" s="41"/>
-      <c r="Z4" s="41"/>
-      <c r="AA4" s="41"/>
-      <c r="AB4" s="41"/>
-      <c r="AC4" s="41"/>
-      <c r="AD4" s="41"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="75"/>
+      <c r="I4" s="75"/>
+      <c r="J4" s="75"/>
+      <c r="K4" s="75"/>
+      <c r="L4" s="75"/>
+      <c r="M4" s="75"/>
+      <c r="N4" s="75"/>
+      <c r="O4" s="36"/>
+      <c r="P4" s="36"/>
+      <c r="Q4" s="36"/>
+      <c r="R4" s="36"/>
+      <c r="S4" s="36"/>
+      <c r="T4" s="36"/>
+      <c r="U4" s="36"/>
+      <c r="V4" s="36"/>
+      <c r="W4" s="36"/>
+      <c r="X4" s="36"/>
+      <c r="Y4" s="36"/>
+      <c r="Z4" s="36"/>
+      <c r="AA4" s="36"/>
+      <c r="AB4" s="36"/>
+      <c r="AC4" s="36"/>
+      <c r="AD4" s="36"/>
     </row>
     <row r="5" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="37"/>
-      <c r="B5" s="37"/>
-      <c r="C5" s="94" t="s">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="74" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="94"/>
-      <c r="E5" s="91" t="s">
+      <c r="D5" s="74"/>
+      <c r="E5" s="80" t="s">
         <v>89</v>
       </c>
-      <c r="F5" s="91"/>
-      <c r="G5" s="91"/>
-      <c r="H5" s="91"/>
-      <c r="I5" s="91"/>
-      <c r="J5" s="91"/>
-      <c r="K5" s="91"/>
-      <c r="L5" s="91"/>
-      <c r="M5" s="91"/>
-      <c r="N5" s="91"/>
-      <c r="O5" s="42"/>
-      <c r="P5" s="42"/>
-      <c r="Q5" s="42"/>
-      <c r="R5" s="42"/>
-      <c r="S5" s="42"/>
-      <c r="T5" s="42"/>
-      <c r="U5" s="42"/>
-      <c r="V5" s="42"/>
-      <c r="W5" s="42"/>
-      <c r="X5" s="42"/>
-      <c r="Y5" s="42"/>
-      <c r="Z5" s="42"/>
-      <c r="AA5" s="42"/>
-      <c r="AB5" s="42"/>
-      <c r="AC5" s="42"/>
-      <c r="AD5" s="42"/>
+      <c r="F5" s="80"/>
+      <c r="G5" s="80"/>
+      <c r="H5" s="80"/>
+      <c r="I5" s="80"/>
+      <c r="J5" s="80"/>
+      <c r="K5" s="80"/>
+      <c r="L5" s="80"/>
+      <c r="M5" s="80"/>
+      <c r="N5" s="80"/>
+      <c r="O5" s="37"/>
+      <c r="P5" s="37"/>
+      <c r="Q5" s="37"/>
+      <c r="R5" s="37"/>
+      <c r="S5" s="37"/>
+      <c r="T5" s="37"/>
+      <c r="U5" s="37"/>
+      <c r="V5" s="37"/>
+      <c r="W5" s="37"/>
+      <c r="X5" s="37"/>
+      <c r="Y5" s="37"/>
+      <c r="Z5" s="37"/>
+      <c r="AA5" s="37"/>
+      <c r="AB5" s="37"/>
+      <c r="AC5" s="37"/>
+      <c r="AD5" s="37"/>
     </row>
     <row r="6" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="37"/>
-      <c r="B6" s="37"/>
-      <c r="C6" s="94" t="s">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="74" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="94"/>
-      <c r="E6" s="90"/>
-      <c r="F6" s="90"/>
-      <c r="G6" s="90"/>
-      <c r="H6" s="90"/>
-      <c r="I6" s="90"/>
-      <c r="J6" s="90"/>
-      <c r="K6" s="90"/>
-      <c r="L6" s="90"/>
-      <c r="M6" s="90"/>
-      <c r="N6" s="90"/>
+      <c r="D6" s="74"/>
+      <c r="E6" s="75"/>
+      <c r="F6" s="75"/>
+      <c r="G6" s="75"/>
+      <c r="H6" s="75"/>
+      <c r="I6" s="75"/>
+      <c r="J6" s="75"/>
+      <c r="K6" s="75"/>
+      <c r="L6" s="75"/>
+      <c r="M6" s="75"/>
+      <c r="N6" s="75"/>
     </row>
     <row r="7" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="37"/>
-      <c r="B7" s="37"/>
-      <c r="C7" s="94" t="s">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="74" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="94"/>
-      <c r="E7" s="90"/>
-      <c r="F7" s="90"/>
-      <c r="G7" s="90"/>
-      <c r="H7" s="90"/>
-      <c r="I7" s="90"/>
-      <c r="J7" s="90"/>
-      <c r="K7" s="90"/>
-      <c r="L7" s="90"/>
-      <c r="M7" s="90"/>
-      <c r="N7" s="90"/>
+      <c r="D7" s="74"/>
+      <c r="E7" s="75"/>
+      <c r="F7" s="75"/>
+      <c r="G7" s="75"/>
+      <c r="H7" s="75"/>
+      <c r="I7" s="75"/>
+      <c r="J7" s="75"/>
+      <c r="K7" s="75"/>
+      <c r="L7" s="75"/>
+      <c r="M7" s="75"/>
+      <c r="N7" s="75"/>
     </row>
     <row r="8" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="37"/>
-      <c r="B8" s="37"/>
-      <c r="C8" s="94" t="s">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="74" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="94"/>
-      <c r="E8" s="92"/>
-      <c r="F8" s="92"/>
-      <c r="G8" s="92"/>
-      <c r="H8" s="92"/>
-      <c r="I8" s="92"/>
-      <c r="J8" s="92"/>
-      <c r="K8" s="92"/>
-      <c r="L8" s="92"/>
-      <c r="M8" s="92"/>
-      <c r="N8" s="92"/>
+      <c r="D8" s="74"/>
+      <c r="E8" s="81"/>
+      <c r="F8" s="81"/>
+      <c r="G8" s="81"/>
+      <c r="H8" s="81"/>
+      <c r="I8" s="81"/>
+      <c r="J8" s="81"/>
+      <c r="K8" s="81"/>
+      <c r="L8" s="81"/>
+      <c r="M8" s="81"/>
+      <c r="N8" s="81"/>
     </row>
     <row r="9" spans="1:30" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="1"/>
@@ -8406,10 +8206,10 @@
       <c r="N9" s="1"/>
     </row>
     <row r="10" spans="1:30" ht="48" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="104" t="s">
+      <c r="A10" s="83" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="107" t="s">
+      <c r="B10" s="86" t="s">
         <v>85</v>
       </c>
       <c r="C10" s="22" t="s">
@@ -8426,16 +8226,16 @@
       <c r="L10" s="22"/>
       <c r="M10" s="22"/>
       <c r="N10" s="22"/>
-      <c r="O10" s="96" t="s">
+      <c r="O10" s="89" t="s">
         <v>9</v>
       </c>
-      <c r="P10" s="98" t="s">
+      <c r="P10" s="91" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:30" ht="36.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="105"/>
-      <c r="B11" s="108"/>
+      <c r="A11" s="84"/>
+      <c r="B11" s="87"/>
       <c r="C11" s="22" t="s">
         <v>13</v>
       </c>
@@ -8450,12 +8250,12 @@
       <c r="L11" s="25"/>
       <c r="M11" s="25"/>
       <c r="N11" s="25"/>
-      <c r="O11" s="97"/>
-      <c r="P11" s="99"/>
+      <c r="O11" s="90"/>
+      <c r="P11" s="92"/>
     </row>
     <row r="12" spans="1:30" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="105"/>
-      <c r="B12" s="108"/>
+      <c r="A12" s="84"/>
+      <c r="B12" s="87"/>
       <c r="C12" s="24" t="s">
         <v>10</v>
       </c>
@@ -8479,33 +8279,33 @@
       </c>
     </row>
     <row r="13" spans="1:30" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="106"/>
-      <c r="B13" s="109"/>
+      <c r="A13" s="85"/>
+      <c r="B13" s="88"/>
       <c r="C13" s="22" t="s">
         <v>86</v>
       </c>
-      <c r="D13" s="100"/>
-      <c r="E13" s="101"/>
-      <c r="F13" s="101"/>
-      <c r="G13" s="101"/>
-      <c r="H13" s="101"/>
-      <c r="I13" s="101"/>
-      <c r="J13" s="101"/>
-      <c r="K13" s="101"/>
-      <c r="L13" s="101"/>
-      <c r="M13" s="101"/>
-      <c r="N13" s="101"/>
-      <c r="O13" s="101"/>
-      <c r="P13" s="102"/>
+      <c r="D13" s="93"/>
+      <c r="E13" s="94"/>
+      <c r="F13" s="94"/>
+      <c r="G13" s="94"/>
+      <c r="H13" s="94"/>
+      <c r="I13" s="94"/>
+      <c r="J13" s="94"/>
+      <c r="K13" s="94"/>
+      <c r="L13" s="94"/>
+      <c r="M13" s="94"/>
+      <c r="N13" s="94"/>
+      <c r="O13" s="94"/>
+      <c r="P13" s="95"/>
     </row>
     <row r="14" spans="1:30" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="8">
         <v>1</v>
       </c>
-      <c r="B14" s="49" t="s">
+      <c r="B14" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="50" t="s">
+      <c r="C14" s="45" t="s">
         <v>31</v>
       </c>
       <c r="D14" s="34"/>
@@ -8532,10 +8332,10 @@
       <c r="A15" s="8">
         <v>2</v>
       </c>
-      <c r="B15" s="51" t="s">
+      <c r="B15" s="46" t="s">
         <v>32</v>
       </c>
-      <c r="C15" s="50" t="s">
+      <c r="C15" s="45" t="s">
         <v>33</v>
       </c>
       <c r="D15" s="34"/>
@@ -8562,10 +8362,10 @@
       <c r="A16" s="8">
         <v>3</v>
       </c>
-      <c r="B16" s="51" t="s">
+      <c r="B16" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="C16" s="50" t="s">
+      <c r="C16" s="45" t="s">
         <v>35</v>
       </c>
       <c r="D16" s="34"/>
@@ -8592,10 +8392,10 @@
       <c r="A17" s="8">
         <v>4</v>
       </c>
-      <c r="B17" s="51" t="s">
+      <c r="B17" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="C17" s="50" t="s">
+      <c r="C17" s="45" t="s">
         <v>37</v>
       </c>
       <c r="D17" s="34"/>
@@ -8622,10 +8422,10 @@
       <c r="A18" s="8">
         <v>5</v>
       </c>
-      <c r="B18" s="51" t="s">
+      <c r="B18" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="C18" s="50" t="s">
+      <c r="C18" s="45" t="s">
         <v>39</v>
       </c>
       <c r="D18" s="34"/>
@@ -8652,10 +8452,10 @@
       <c r="A19" s="8">
         <v>6</v>
       </c>
-      <c r="B19" s="51" t="s">
+      <c r="B19" s="46" t="s">
         <v>40</v>
       </c>
-      <c r="C19" s="50" t="s">
+      <c r="C19" s="45" t="s">
         <v>41</v>
       </c>
       <c r="D19" s="34"/>
@@ -8682,10 +8482,10 @@
       <c r="A20" s="8">
         <v>7</v>
       </c>
-      <c r="B20" s="51" t="s">
+      <c r="B20" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="C20" s="50" t="s">
+      <c r="C20" s="45" t="s">
         <v>43</v>
       </c>
       <c r="D20" s="34"/>
@@ -8712,10 +8512,10 @@
       <c r="A21" s="8">
         <v>8</v>
       </c>
-      <c r="B21" s="51" t="s">
+      <c r="B21" s="46" t="s">
         <v>44</v>
       </c>
-      <c r="C21" s="50" t="s">
+      <c r="C21" s="45" t="s">
         <v>45</v>
       </c>
       <c r="D21" s="34"/>
@@ -8742,10 +8542,10 @@
       <c r="A22" s="8">
         <v>9</v>
       </c>
-      <c r="B22" s="51" t="s">
+      <c r="B22" s="46" t="s">
         <v>46</v>
       </c>
-      <c r="C22" s="50" t="s">
+      <c r="C22" s="45" t="s">
         <v>47</v>
       </c>
       <c r="D22" s="34"/>
@@ -8772,10 +8572,10 @@
       <c r="A23" s="8">
         <v>10</v>
       </c>
-      <c r="B23" s="51" t="s">
+      <c r="B23" s="46" t="s">
         <v>48</v>
       </c>
-      <c r="C23" s="50" t="s">
+      <c r="C23" s="45" t="s">
         <v>49</v>
       </c>
       <c r="D23" s="34"/>
@@ -8802,10 +8602,10 @@
       <c r="A24" s="8">
         <v>11</v>
       </c>
-      <c r="B24" s="51" t="s">
+      <c r="B24" s="46" t="s">
         <v>50</v>
       </c>
-      <c r="C24" s="50" t="s">
+      <c r="C24" s="45" t="s">
         <v>51</v>
       </c>
       <c r="D24" s="34"/>
@@ -8832,10 +8632,10 @@
       <c r="A25" s="8">
         <v>12</v>
       </c>
-      <c r="B25" s="51" t="s">
+      <c r="B25" s="46" t="s">
         <v>52</v>
       </c>
-      <c r="C25" s="50" t="s">
+      <c r="C25" s="45" t="s">
         <v>53</v>
       </c>
       <c r="D25" s="34"/>
@@ -8862,10 +8662,10 @@
       <c r="A26" s="8">
         <v>13</v>
       </c>
-      <c r="B26" s="51" t="s">
+      <c r="B26" s="46" t="s">
         <v>54</v>
       </c>
-      <c r="C26" s="50" t="s">
+      <c r="C26" s="45" t="s">
         <v>55</v>
       </c>
       <c r="D26" s="34"/>
@@ -8892,10 +8692,10 @@
       <c r="A27" s="8">
         <v>14</v>
       </c>
-      <c r="B27" s="49" t="s">
+      <c r="B27" s="44" t="s">
         <v>56</v>
       </c>
-      <c r="C27" s="50" t="s">
+      <c r="C27" s="45" t="s">
         <v>57</v>
       </c>
       <c r="D27" s="34"/>
@@ -8922,10 +8722,10 @@
       <c r="A28" s="8">
         <v>15</v>
       </c>
-      <c r="B28" s="51" t="s">
+      <c r="B28" s="46" t="s">
         <v>58</v>
       </c>
-      <c r="C28" s="50" t="s">
+      <c r="C28" s="45" t="s">
         <v>59</v>
       </c>
       <c r="D28" s="34"/>
@@ -8952,10 +8752,10 @@
       <c r="A29" s="8">
         <v>16</v>
       </c>
-      <c r="B29" s="51" t="s">
+      <c r="B29" s="46" t="s">
         <v>60</v>
       </c>
-      <c r="C29" s="50" t="s">
+      <c r="C29" s="45" t="s">
         <v>61</v>
       </c>
       <c r="D29" s="34"/>
@@ -8982,10 +8782,10 @@
       <c r="A30" s="8">
         <v>17</v>
       </c>
-      <c r="B30" s="51" t="s">
+      <c r="B30" s="46" t="s">
         <v>62</v>
       </c>
-      <c r="C30" s="50" t="s">
+      <c r="C30" s="45" t="s">
         <v>63</v>
       </c>
       <c r="D30" s="34"/>
@@ -9012,10 +8812,10 @@
       <c r="A31" s="8">
         <v>18</v>
       </c>
-      <c r="B31" s="51" t="s">
+      <c r="B31" s="46" t="s">
         <v>64</v>
       </c>
-      <c r="C31" s="50" t="s">
+      <c r="C31" s="45" t="s">
         <v>65</v>
       </c>
       <c r="D31" s="34"/>
@@ -9042,10 +8842,10 @@
       <c r="A32" s="8">
         <v>19</v>
       </c>
-      <c r="B32" s="51" t="s">
+      <c r="B32" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="C32" s="50" t="s">
+      <c r="C32" s="45" t="s">
         <v>66</v>
       </c>
       <c r="D32" s="34"/>
@@ -9072,10 +8872,10 @@
       <c r="A33" s="8">
         <v>20</v>
       </c>
-      <c r="B33" s="51" t="s">
+      <c r="B33" s="46" t="s">
         <v>67</v>
       </c>
-      <c r="C33" s="50" t="s">
+      <c r="C33" s="45" t="s">
         <v>68</v>
       </c>
       <c r="D33" s="34"/>
@@ -9102,10 +8902,10 @@
       <c r="A34" s="8">
         <v>21</v>
       </c>
-      <c r="B34" s="52" t="s">
+      <c r="B34" s="47" t="s">
         <v>69</v>
       </c>
-      <c r="C34" s="50" t="s">
+      <c r="C34" s="45" t="s">
         <v>70</v>
       </c>
       <c r="D34" s="34"/>
@@ -9132,10 +8932,10 @@
       <c r="A35" s="8">
         <v>22</v>
       </c>
-      <c r="B35" s="49" t="s">
+      <c r="B35" s="44" t="s">
         <v>71</v>
       </c>
-      <c r="C35" s="50" t="s">
+      <c r="C35" s="45" t="s">
         <v>72</v>
       </c>
       <c r="D35" s="34"/>
@@ -9162,10 +8962,10 @@
       <c r="A36" s="8">
         <v>23</v>
       </c>
-      <c r="B36" s="51" t="s">
+      <c r="B36" s="46" t="s">
         <v>73</v>
       </c>
-      <c r="C36" s="50" t="s">
+      <c r="C36" s="45" t="s">
         <v>74</v>
       </c>
       <c r="D36" s="34"/>
@@ -9192,10 +8992,10 @@
       <c r="A37" s="8">
         <v>24</v>
       </c>
-      <c r="B37" s="51" t="s">
+      <c r="B37" s="46" t="s">
         <v>75</v>
       </c>
-      <c r="C37" s="50" t="s">
+      <c r="C37" s="45" t="s">
         <v>76</v>
       </c>
       <c r="D37" s="34"/>
@@ -9222,10 +9022,10 @@
       <c r="A38" s="8">
         <v>25</v>
       </c>
-      <c r="B38" s="49" t="s">
+      <c r="B38" s="44" t="s">
         <v>77</v>
       </c>
-      <c r="C38" s="50" t="s">
+      <c r="C38" s="45" t="s">
         <v>78</v>
       </c>
       <c r="D38" s="34"/>
@@ -9252,10 +9052,10 @@
       <c r="A39" s="8">
         <v>26</v>
       </c>
-      <c r="B39" s="53" t="s">
+      <c r="B39" s="48" t="s">
         <v>79</v>
       </c>
-      <c r="C39" s="50" t="s">
+      <c r="C39" s="45" t="s">
         <v>80</v>
       </c>
       <c r="D39" s="34"/>
@@ -9282,10 +9082,10 @@
       <c r="A40" s="8">
         <v>27</v>
       </c>
-      <c r="B40" s="54" t="s">
+      <c r="B40" s="49" t="s">
         <v>81</v>
       </c>
-      <c r="C40" s="50" t="s">
+      <c r="C40" s="45" t="s">
         <v>82</v>
       </c>
       <c r="D40" s="34"/>
@@ -9312,10 +9112,10 @@
       <c r="A41" s="8">
         <v>28</v>
       </c>
-      <c r="B41" s="55" t="s">
+      <c r="B41" s="44" t="s">
         <v>83</v>
       </c>
-      <c r="C41" s="50" t="s">
+      <c r="C41" s="45" t="s">
         <v>84</v>
       </c>
       <c r="D41" s="34"/>
@@ -9342,8 +9142,8 @@
       <c r="A42" s="8">
         <v>29</v>
       </c>
-      <c r="B42" s="47"/>
-      <c r="C42" s="47"/>
+      <c r="B42" s="42"/>
+      <c r="C42" s="42"/>
       <c r="D42" s="34"/>
       <c r="E42" s="34"/>
       <c r="F42" s="34"/>
@@ -9368,8 +9168,8 @@
       <c r="A43" s="8">
         <v>30</v>
       </c>
-      <c r="B43" s="47"/>
-      <c r="C43" s="47"/>
+      <c r="B43" s="42"/>
+      <c r="C43" s="42"/>
       <c r="D43" s="34"/>
       <c r="E43" s="34"/>
       <c r="F43" s="34"/>
@@ -9394,8 +9194,8 @@
       <c r="A44" s="8">
         <v>31</v>
       </c>
-      <c r="B44" s="48"/>
-      <c r="C44" s="47"/>
+      <c r="B44" s="43"/>
+      <c r="C44" s="42"/>
       <c r="D44" s="34"/>
       <c r="E44" s="34"/>
       <c r="F44" s="34"/>
@@ -9420,8 +9220,8 @@
       <c r="A45" s="8">
         <v>32</v>
       </c>
-      <c r="B45" s="47"/>
-      <c r="C45" s="47"/>
+      <c r="B45" s="42"/>
+      <c r="C45" s="42"/>
       <c r="D45" s="34"/>
       <c r="E45" s="34"/>
       <c r="F45" s="34"/>
@@ -9446,8 +9246,8 @@
       <c r="A46" s="8">
         <v>33</v>
       </c>
-      <c r="B46" s="48"/>
-      <c r="C46" s="47"/>
+      <c r="B46" s="43"/>
+      <c r="C46" s="42"/>
       <c r="D46" s="34"/>
       <c r="E46" s="34"/>
       <c r="F46" s="34"/>
@@ -9472,8 +9272,8 @@
       <c r="A47" s="8">
         <v>34</v>
       </c>
-      <c r="B47" s="47"/>
-      <c r="C47" s="47"/>
+      <c r="B47" s="42"/>
+      <c r="C47" s="42"/>
       <c r="D47" s="34"/>
       <c r="E47" s="34"/>
       <c r="F47" s="34"/>
@@ -10262,10 +10062,10 @@
       <c r="N77" s="10"/>
     </row>
     <row r="78" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="C78" s="103" t="s">
+      <c r="C78" s="82" t="s">
         <v>14</v>
       </c>
-      <c r="D78" s="103"/>
+      <c r="D78" s="82"/>
       <c r="F78" s="3"/>
       <c r="G78" s="3"/>
       <c r="H78" s="3"/>
@@ -10273,10 +10073,10 @@
       <c r="J78" s="3"/>
       <c r="K78" s="3"/>
       <c r="L78" s="3"/>
-      <c r="M78" s="103" t="s">
+      <c r="M78" s="82" t="s">
         <v>15</v>
       </c>
-      <c r="N78" s="103"/>
+      <c r="N78" s="82"/>
     </row>
     <row r="79" spans="1:16" x14ac:dyDescent="0.35">
       <c r="F79" s="3"/>
@@ -10311,12 +10111,11 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="C78:D78"/>
-    <mergeCell ref="M78:N78"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:N8"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="C1:N1"/>
+    <mergeCell ref="C2:N2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:N4"/>
     <mergeCell ref="O10:O11"/>
     <mergeCell ref="P10:P11"/>
     <mergeCell ref="D13:P13"/>
@@ -10326,11 +10125,12 @@
     <mergeCell ref="E6:N6"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="E7:N7"/>
-    <mergeCell ref="C1:N1"/>
-    <mergeCell ref="C2:N2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:N4"/>
+    <mergeCell ref="C78:D78"/>
+    <mergeCell ref="M78:N78"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:N8"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="B10:B13"/>
   </mergeCells>
   <pageMargins left="0.59055118110236204" right="0" top="0" bottom="0.98425196850393704" header="0.59055118110236204" footer="0.39370078740157499"/>
   <pageSetup paperSize="9" scale="64" orientation="portrait" r:id="rId1"/>
@@ -10347,7 +10147,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:I47"/>
   <sheetViews>
@@ -10372,96 +10172,96 @@
     <row r="1" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
-      <c r="C1" s="95" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="95"/>
-      <c r="E1" s="95"/>
-      <c r="F1" s="95"/>
-      <c r="G1" s="95"/>
-      <c r="H1" s="95"/>
+      <c r="C1" s="76" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
     </row>
     <row r="2" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="5"/>
       <c r="B2" s="6"/>
-      <c r="C2" s="89" t="s">
+      <c r="C2" s="79" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="89"/>
-      <c r="E2" s="89"/>
-      <c r="F2" s="89"/>
-      <c r="G2" s="89"/>
-      <c r="H2" s="89"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="79"/>
+      <c r="G2" s="79"/>
+      <c r="H2" s="79"/>
     </row>
     <row r="3" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5"/>
       <c r="B3" s="6"/>
-      <c r="C3" s="39" t="s">
+      <c r="C3" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="90" t="s">
+      <c r="D3" s="75" t="s">
         <v>29</v>
       </c>
-      <c r="E3" s="90"/>
-      <c r="F3" s="90"/>
-      <c r="G3" s="90"/>
-      <c r="H3" s="90"/>
+      <c r="E3" s="75"/>
+      <c r="F3" s="75"/>
+      <c r="G3" s="75"/>
+      <c r="H3" s="75"/>
     </row>
     <row r="4" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
-      <c r="C4" s="39" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" s="90" t="s">
+      <c r="C4" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="75" t="s">
         <v>90</v>
       </c>
-      <c r="E4" s="90"/>
-      <c r="F4" s="90"/>
-      <c r="G4" s="90"/>
-      <c r="H4" s="90"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="75"/>
     </row>
     <row r="5" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
-      <c r="C5" s="39" t="s">
+      <c r="C5" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="90" t="s">
+      <c r="D5" s="75" t="s">
         <v>91</v>
       </c>
-      <c r="E5" s="90"/>
-      <c r="F5" s="90"/>
-      <c r="G5" s="90"/>
-      <c r="H5" s="90"/>
+      <c r="E5" s="75"/>
+      <c r="F5" s="75"/>
+      <c r="G5" s="75"/>
+      <c r="H5" s="75"/>
     </row>
     <row r="6" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
-      <c r="C6" s="39" t="s">
+      <c r="C6" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="90" t="s">
+      <c r="D6" s="75" t="s">
         <v>92</v>
       </c>
-      <c r="E6" s="90"/>
-      <c r="F6" s="90"/>
-      <c r="G6" s="90"/>
-      <c r="H6" s="90"/>
+      <c r="E6" s="75"/>
+      <c r="F6" s="75"/>
+      <c r="G6" s="75"/>
+      <c r="H6" s="75"/>
     </row>
     <row r="7" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
-      <c r="C7" s="39" t="s">
+      <c r="C7" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="92" t="s">
+      <c r="D7" s="81" t="s">
         <v>93</v>
       </c>
-      <c r="E7" s="92"/>
-      <c r="F7" s="92"/>
-      <c r="G7" s="92"/>
-      <c r="H7" s="92"/>
+      <c r="E7" s="81"/>
+      <c r="F7" s="81"/>
+      <c r="G7" s="81"/>
+      <c r="H7" s="81"/>
     </row>
     <row r="8" spans="1:9" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="1"/>
@@ -10474,84 +10274,84 @@
       <c r="H8" s="18"/>
     </row>
     <row r="9" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="110" t="s">
+      <c r="A9" s="98" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="110" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9" s="110" t="s">
+      <c r="B9" s="98" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="98" t="s">
         <v>87</v>
       </c>
-      <c r="D9" s="117" t="str">
+      <c r="D9" s="105" t="str">
         <f>September!E5</f>
         <v>September 2023</v>
       </c>
-      <c r="E9" s="117" t="str">
+      <c r="E9" s="105" t="str">
         <f>October!F5</f>
         <v>October 2023</v>
       </c>
-      <c r="F9" s="117" t="str">
+      <c r="F9" s="105" t="str">
         <f>'November &amp; December'!E5</f>
         <v>November/December 2023</v>
       </c>
-      <c r="G9" s="113" t="s">
+      <c r="G9" s="101" t="s">
         <v>9</v>
       </c>
-      <c r="H9" s="115" t="s">
+      <c r="H9" s="103" t="s">
         <v>11</v>
       </c>
-      <c r="I9" s="119" t="s">
+      <c r="I9" s="96" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="111"/>
-      <c r="B10" s="111"/>
-      <c r="C10" s="111"/>
-      <c r="D10" s="114"/>
-      <c r="E10" s="114"/>
-      <c r="F10" s="114"/>
-      <c r="G10" s="114"/>
-      <c r="H10" s="116"/>
-      <c r="I10" s="120"/>
+      <c r="A10" s="99"/>
+      <c r="B10" s="99"/>
+      <c r="C10" s="99"/>
+      <c r="D10" s="102"/>
+      <c r="E10" s="102"/>
+      <c r="F10" s="102"/>
+      <c r="G10" s="102"/>
+      <c r="H10" s="104"/>
+      <c r="I10" s="97"/>
     </row>
     <row r="11" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="112"/>
-      <c r="B11" s="112"/>
-      <c r="C11" s="43" t="s">
+      <c r="A11" s="100"/>
+      <c r="B11" s="100"/>
+      <c r="C11" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="44">
+      <c r="D11" s="39">
         <f>September!O12</f>
         <v>7</v>
       </c>
-      <c r="E11" s="44">
+      <c r="E11" s="39">
         <f>October!W13</f>
         <v>22</v>
       </c>
-      <c r="F11" s="44">
+      <c r="F11" s="39">
         <f>'November &amp; December'!O12</f>
         <v>0</v>
       </c>
-      <c r="G11" s="45">
+      <c r="G11" s="40">
         <f t="shared" ref="G11:G39" si="0">SUM(D11:F11)</f>
         <v>29</v>
       </c>
-      <c r="H11" s="46">
+      <c r="H11" s="41">
         <f>(G11/$G$11)*100</f>
         <v>100</v>
       </c>
-      <c r="I11" s="120"/>
+      <c r="I11" s="97"/>
     </row>
     <row r="12" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="8">
         <v>1</v>
       </c>
-      <c r="B12" s="49" t="s">
+      <c r="B12" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="50" t="s">
+      <c r="C12" s="45" t="s">
         <v>31</v>
       </c>
       <c r="D12" s="13">
@@ -10583,10 +10383,10 @@
       <c r="A13" s="8">
         <v>2</v>
       </c>
-      <c r="B13" s="51" t="s">
+      <c r="B13" s="46" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="50" t="s">
+      <c r="C13" s="45" t="s">
         <v>33</v>
       </c>
       <c r="D13" s="13">
@@ -10618,10 +10418,10 @@
       <c r="A14" s="8">
         <v>3</v>
       </c>
-      <c r="B14" s="51" t="s">
+      <c r="B14" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="C14" s="50" t="s">
+      <c r="C14" s="45" t="s">
         <v>35</v>
       </c>
       <c r="D14" s="13">
@@ -10653,10 +10453,10 @@
       <c r="A15" s="8">
         <v>4</v>
       </c>
-      <c r="B15" s="51" t="s">
+      <c r="B15" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="C15" s="50" t="s">
+      <c r="C15" s="45" t="s">
         <v>37</v>
       </c>
       <c r="D15" s="13">
@@ -10688,10 +10488,10 @@
       <c r="A16" s="8">
         <v>5</v>
       </c>
-      <c r="B16" s="51" t="s">
+      <c r="B16" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="50" t="s">
+      <c r="C16" s="45" t="s">
         <v>39</v>
       </c>
       <c r="D16" s="13">
@@ -10723,10 +10523,10 @@
       <c r="A17" s="8">
         <v>6</v>
       </c>
-      <c r="B17" s="51" t="s">
+      <c r="B17" s="46" t="s">
         <v>40</v>
       </c>
-      <c r="C17" s="50" t="s">
+      <c r="C17" s="45" t="s">
         <v>41</v>
       </c>
       <c r="D17" s="13">
@@ -10758,10 +10558,10 @@
       <c r="A18" s="8">
         <v>7</v>
       </c>
-      <c r="B18" s="51" t="s">
+      <c r="B18" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="C18" s="50" t="s">
+      <c r="C18" s="45" t="s">
         <v>43</v>
       </c>
       <c r="D18" s="13">
@@ -10793,10 +10593,10 @@
       <c r="A19" s="8">
         <v>8</v>
       </c>
-      <c r="B19" s="51" t="s">
+      <c r="B19" s="46" t="s">
         <v>44</v>
       </c>
-      <c r="C19" s="50" t="s">
+      <c r="C19" s="45" t="s">
         <v>45</v>
       </c>
       <c r="D19" s="13">
@@ -10828,10 +10628,10 @@
       <c r="A20" s="8">
         <v>9</v>
       </c>
-      <c r="B20" s="51" t="s">
+      <c r="B20" s="46" t="s">
         <v>46</v>
       </c>
-      <c r="C20" s="50" t="s">
+      <c r="C20" s="45" t="s">
         <v>47</v>
       </c>
       <c r="D20" s="13">
@@ -10863,10 +10663,10 @@
       <c r="A21" s="8">
         <v>10</v>
       </c>
-      <c r="B21" s="51" t="s">
+      <c r="B21" s="46" t="s">
         <v>48</v>
       </c>
-      <c r="C21" s="50" t="s">
+      <c r="C21" s="45" t="s">
         <v>49</v>
       </c>
       <c r="D21" s="13">
@@ -10898,10 +10698,10 @@
       <c r="A22" s="8">
         <v>11</v>
       </c>
-      <c r="B22" s="51" t="s">
+      <c r="B22" s="46" t="s">
         <v>50</v>
       </c>
-      <c r="C22" s="50" t="s">
+      <c r="C22" s="45" t="s">
         <v>51</v>
       </c>
       <c r="D22" s="13">
@@ -10933,10 +10733,10 @@
       <c r="A23" s="8">
         <v>12</v>
       </c>
-      <c r="B23" s="51" t="s">
+      <c r="B23" s="46" t="s">
         <v>52</v>
       </c>
-      <c r="C23" s="50" t="s">
+      <c r="C23" s="45" t="s">
         <v>53</v>
       </c>
       <c r="D23" s="13">
@@ -10968,10 +10768,10 @@
       <c r="A24" s="8">
         <v>13</v>
       </c>
-      <c r="B24" s="51" t="s">
+      <c r="B24" s="46" t="s">
         <v>54</v>
       </c>
-      <c r="C24" s="50" t="s">
+      <c r="C24" s="45" t="s">
         <v>55</v>
       </c>
       <c r="D24" s="13">
@@ -11003,10 +10803,10 @@
       <c r="A25" s="8">
         <v>14</v>
       </c>
-      <c r="B25" s="49" t="s">
+      <c r="B25" s="44" t="s">
         <v>56</v>
       </c>
-      <c r="C25" s="50" t="s">
+      <c r="C25" s="45" t="s">
         <v>57</v>
       </c>
       <c r="D25" s="13">
@@ -11038,10 +10838,10 @@
       <c r="A26" s="8">
         <v>15</v>
       </c>
-      <c r="B26" s="51" t="s">
+      <c r="B26" s="46" t="s">
         <v>58</v>
       </c>
-      <c r="C26" s="50" t="s">
+      <c r="C26" s="45" t="s">
         <v>59</v>
       </c>
       <c r="D26" s="13">
@@ -11073,10 +10873,10 @@
       <c r="A27" s="8">
         <v>16</v>
       </c>
-      <c r="B27" s="51" t="s">
+      <c r="B27" s="46" t="s">
         <v>60</v>
       </c>
-      <c r="C27" s="50" t="s">
+      <c r="C27" s="45" t="s">
         <v>61</v>
       </c>
       <c r="D27" s="13">
@@ -11108,10 +10908,10 @@
       <c r="A28" s="8">
         <v>17</v>
       </c>
-      <c r="B28" s="51" t="s">
+      <c r="B28" s="46" t="s">
         <v>62</v>
       </c>
-      <c r="C28" s="50" t="s">
+      <c r="C28" s="45" t="s">
         <v>63</v>
       </c>
       <c r="D28" s="13">
@@ -11143,10 +10943,10 @@
       <c r="A29" s="8">
         <v>18</v>
       </c>
-      <c r="B29" s="51" t="s">
+      <c r="B29" s="46" t="s">
         <v>64</v>
       </c>
-      <c r="C29" s="50" t="s">
+      <c r="C29" s="45" t="s">
         <v>65</v>
       </c>
       <c r="D29" s="13">
@@ -11178,10 +10978,10 @@
       <c r="A30" s="8">
         <v>19</v>
       </c>
-      <c r="B30" s="51" t="s">
+      <c r="B30" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="C30" s="50" t="s">
+      <c r="C30" s="45" t="s">
         <v>66</v>
       </c>
       <c r="D30" s="13">
@@ -11213,10 +11013,10 @@
       <c r="A31" s="8">
         <v>20</v>
       </c>
-      <c r="B31" s="51" t="s">
+      <c r="B31" s="46" t="s">
         <v>67</v>
       </c>
-      <c r="C31" s="50" t="s">
+      <c r="C31" s="45" t="s">
         <v>68</v>
       </c>
       <c r="D31" s="13">
@@ -11248,10 +11048,10 @@
       <c r="A32" s="8">
         <v>21</v>
       </c>
-      <c r="B32" s="52" t="s">
+      <c r="B32" s="47" t="s">
         <v>69</v>
       </c>
-      <c r="C32" s="50" t="s">
+      <c r="C32" s="45" t="s">
         <v>70</v>
       </c>
       <c r="D32" s="13">
@@ -11283,10 +11083,10 @@
       <c r="A33" s="8">
         <v>22</v>
       </c>
-      <c r="B33" s="49" t="s">
+      <c r="B33" s="44" t="s">
         <v>71</v>
       </c>
-      <c r="C33" s="50" t="s">
+      <c r="C33" s="45" t="s">
         <v>72</v>
       </c>
       <c r="D33" s="13">
@@ -11318,10 +11118,10 @@
       <c r="A34" s="8">
         <v>23</v>
       </c>
-      <c r="B34" s="51" t="s">
+      <c r="B34" s="46" t="s">
         <v>73</v>
       </c>
-      <c r="C34" s="50" t="s">
+      <c r="C34" s="45" t="s">
         <v>74</v>
       </c>
       <c r="D34" s="13">
@@ -11353,10 +11153,10 @@
       <c r="A35" s="8">
         <v>24</v>
       </c>
-      <c r="B35" s="51" t="s">
+      <c r="B35" s="46" t="s">
         <v>75</v>
       </c>
-      <c r="C35" s="50" t="s">
+      <c r="C35" s="45" t="s">
         <v>76</v>
       </c>
       <c r="D35" s="13">
@@ -11388,10 +11188,10 @@
       <c r="A36" s="8">
         <v>25</v>
       </c>
-      <c r="B36" s="49" t="s">
+      <c r="B36" s="44" t="s">
         <v>77</v>
       </c>
-      <c r="C36" s="50" t="s">
+      <c r="C36" s="45" t="s">
         <v>78</v>
       </c>
       <c r="D36" s="13">
@@ -11423,10 +11223,10 @@
       <c r="A37" s="8">
         <v>26</v>
       </c>
-      <c r="B37" s="53" t="s">
+      <c r="B37" s="48" t="s">
         <v>79</v>
       </c>
-      <c r="C37" s="50" t="s">
+      <c r="C37" s="45" t="s">
         <v>80</v>
       </c>
       <c r="D37" s="13">
@@ -11458,10 +11258,10 @@
       <c r="A38" s="8">
         <v>27</v>
       </c>
-      <c r="B38" s="54" t="s">
+      <c r="B38" s="49" t="s">
         <v>81</v>
       </c>
-      <c r="C38" s="50" t="s">
+      <c r="C38" s="45" t="s">
         <v>82</v>
       </c>
       <c r="D38" s="13">
@@ -11493,10 +11293,10 @@
       <c r="A39" s="8">
         <v>28</v>
       </c>
-      <c r="B39" s="55" t="s">
+      <c r="B39" s="44" t="s">
         <v>83</v>
       </c>
-      <c r="C39" s="50" t="s">
+      <c r="C39" s="45" t="s">
         <v>84</v>
       </c>
       <c r="D39" s="13">
@@ -11535,12 +11335,12 @@
       <c r="G41" s="10"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="C42" s="36"/>
+      <c r="C42" s="35"/>
       <c r="E42" s="3"/>
-      <c r="F42" s="118" t="s">
+      <c r="F42" s="73" t="s">
         <v>15</v>
       </c>
-      <c r="G42" s="118"/>
+      <c r="G42" s="73"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.35">
       <c r="E43" s="3"/>
@@ -11555,6 +11355,14 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
     <mergeCell ref="F42:G42"/>
     <mergeCell ref="I9:I11"/>
     <mergeCell ref="C1:H1"/>
@@ -11564,14 +11372,6 @@
     <mergeCell ref="D5:H5"/>
     <mergeCell ref="D6:H6"/>
     <mergeCell ref="D7:H7"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F9:F10"/>
   </mergeCells>
   <pageMargins left="0.59055118110236204" right="0" top="0" bottom="0.98425196850393704" header="0.59055118110236204" footer="0.39370078740157499"/>
   <pageSetup paperSize="5" scale="90" orientation="portrait" r:id="rId1"/>
